--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24F21B2F-1DB8-4A70-8D4C-DDC906E00A10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290DDEE-FF2A-48BE-B85E-61473FC9C9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,7 +48,7 @@
             <sz val="9"/>
             <rFont val="宋体"/>
           </rPr>
-          <t>UEsDBBQACAgIAO+tklgAAAAAAAAAAAAAAAABAAAAMM1aW28cSRXOM7/C6ieQXFJdu7rmLXGSTSC7WRHvrtBqhepy2m65p3u2pyfBRJFAITI8QISIBOIiQBuxWRAh0gbkjXaXP5OJk3/B6bk4Bo/n4sxY+MEzfbqqu/r7Tp3zndNz6eKFc984d+7c7Qh+0CmreqMs0mwrat2OAqS2l9fXbLHVs1sQtSIoovUoZN1ObnffLkNjCu2rRci8rbOyOZl1z3d91KqrHjQHV7IAF3Jb7IxNvS5c6xW2ilqpzbtwZ310182szuF6Z3AVvLXN84HlUg5tKOrueLove0Vd7Y4PA3R9lY1mDU1pBR/3oPCHY3AFRZ2lGVRjS9e2OzkcHkEOvoYwuN93YPda1q2j1oeHt1qPautyeMe2Ab9X0K3LanzU3Aw/ekVWR83iQmMMtm4+umWv8s2XXqexXGysHx2aRzd/fekxPnipw6c9MnNgQbTaUFcZAvzh7ej7eNJezLYGE/h65GArK4aDI04pZVywZlXbyB98F3xZBZz30WidregGpTIRPMExUAzXEG1sZ4VtrZ2/CRUyvvZeneXZDwfcrl3BhXfXynTt3fIWVGtvQYFjBmcufdzLOg1NrbUru6EqO82A1tr3Ni8OLv1eg04r2sb50YBuWwQIIwdoDHVlfb1pt45SGLXkerRVlb3O4MRo7A7sNi7nALQTnDihPJGpTYhlTJPEM6e1S3nqON6pGD7S8/2/93/3Vat//5cHD/758vHX/Yd7/S8+7/9hr//Tzw4ePOo/uf/i1/9qvXjyFE+3Dp7+4+XjP/d/9CXO79gKn+kqrpQe8n64kt7woYazozvrS6PDLJOOzW2o2jYfjlkhI0nCFBdBEx5iZEQqSZAJRZAJZWgqg0jdoowc/PhvK2WEJZQPnP9ERq5JbTg3agIjQ9APkZ7IEHJzo8wtDkNqtnZXCH8aO+kN1cTyxBDJgycWqCPAwTCwzjGVLgh//+FfX/3m85d3v1rhlkhmbgnFOMWBy9wS7/R8DkjKqreEUpRLBSkxVKS4JfCfxdBEQiwhBsbBx/HCQepP+6sNUvMywpbJyAdZEVZOh+DCUMUxU3CDESpIRYyTlHhmOLMJWAYL54xXn/xixRFqDjoUi42YQMdGr93LEeubsLT0sVHafJUUaUp1cJQgIRajmOYkscoSJcB6H5zTjE2laETEyalk7+7BvYf/B3zJs+HrLdtdIV1WJdpRF0gsm5wvpCA2VZwIo72gQnpHxZvS9eLJgxXSxeejS01SyFeLbo1FCoTjhGzYjvVZvTtVDTNUhHRt59aykg3n3gpGWEoZkS6VxAQmCDjrvPcsdurErfPJvRe/f9Z//MWrvfunVcHP9/f6P7978Ku/LBP1SUJ4LtSni97lAk+NkCymguhUUSJj3AkJCylxKlhrBCYcfqLyOgr8KcXuKoCPJ8mtuYCfLq2WC3wsfMo4xhzl0dlRXnniPJeY3jGJaCGlHVRSsz3+dJJqJcBPUlVzAT9FQS0X9dQaGjAPkyA9x5hvFLGBMSJiGiylsTCJnAf1UyqnRVDnzXLobNQTvYzovlEWN5s2U1lg4DmzsJ/SOLjEaJICD0Ra7YgzISFKBs+4pVJyP3/Y/2Z/f//lpz/51mo3g55vMySnTrrziNbl0mBF4pJY4a5gBjD7QkxcjFz4OOCfUUGKE2uLSUngdDJ1JSwsKwlPkqJL3guOgQdpCUNVSiS1DOvtEBPqqHVYItE0zBWa3kx8LhShGNXTSfg2UxoHTU/IY8wnFQfHeLiQlW3bXTUXRvnE8WAJ9RxLA+aAJC44QoORxglmeRwW4eLBHw9+9tnLp49WTceMfuAFxXQi1aSEcWwnjPj5320xtSG4XBISVKCeUUewLMWopFmM5TQYwnXTkRWxTdK5otLpO4GLoE8FVfP0xydGpEvNG5wqG+wCzMTdXrsz9P4PtsscEHSfQT0R77V2lucNRTu3tpcDu9fOcZ4yQuMES7EgLHFNgawQb4HQMxDqOOz3Hh08/Pr5l7/FIhjxH/j+RLDRR2OlxcmQP/v3EPI5G35mVh54X2Epn8STfP4o6kdDzms1uiSw9YlgS86w1jUJSRKtmjdBgiSSaaJcoJIi3ImxJ/j4axn6XwAjJlLo5SHMZr73uZIk3AzHzIoq4/hxNuCyVIAwJiaQgiaSS05MjAJH+9h5mTKPpcAUcA/jxtA0b8xYBF6G/M4K2hg2uKZskpy83qs7vZlvyVYTJVhqOIAioJvgLLGGcjbRxHutMEVarc3xtwPPn336Jr2C1SDL+RRkp1dCy4cVxRJLaWpJLAJtlLjFeKAMERSrIQaJM/p4H2wE62l7XwtGXAwIM/NcA2s8BdaZjZYVIAvMYdkQGg0XmleMltjEOBJjUlNpwMJfw4nInrLHsiCys7vvlMVMTfzBw+xcdjYwOyPBi4QTqQCVs0opwqywnjTOx8qjZ7CT+olv0ldZMKfFs7UaV4LKSTlt7MODTHY2oNKUscBpQqjxlshEAXHQRNzAmmRvQPrjKmHku7PUr5EIxfLkGDUzelZDYCdVhGNgz9plNajYGB5Q4TpDpNcYc42khAIwrb3iNj3eiR2hO9VfF4EWEaqzNlyu8C43oK6zYvALNr8Nfud9m2dh/DS57dbXXQO+HB5s7naadeWNFaqbg33fxXWUrnu5KtvjXiJmw6HxRm2r+nx9zL5ZDk18ZOpAlZVhdPVOfbmX5+8OTNGdO/8BUEsHCEhglcnuBwAAcycAAA==</t>
+          <t>UEsDBBQACAgIAKKBmVgAAAAAAAAAAAAAAAABAAAAMM1aa2/cxhX15/6KBT+1gAaZJ4ez32zZjt06cRArCYogKOZFiTCX3HC5dlXDQArHUIqiMYoaSNG0aIsIjdOiroG4hWIk7p/xWvK/6OU+ZLXivmSuUH+wxMshOTxn5txzL3Xh/Lkz3ztz5sytwP+0mxflep7FyWbQvhU4H+t+Wl7R2WZfb/qgHfgsWAtc0uumevuN3FUh17mcucTqMsmrk0nvbM8G7bLo++rgUuL8uVRn1yehfs9f6We6CNqxTnv+9tr4qRtJmfqr3eFd4NE6TYeRC6nv+KzsTS63eT8ri+3JofM9WyTjq0ahuPAf9n1mD8fADLIyiRNfTCI93emm/vDIp96W3g2f9yO/fSXplUH7/cNHrQWlNql/U3c8/F74XpkXk6PqYfCjnyVlUE3OVUGny+pHL+8Xtvql360i56voB4fh8cNf3nqCD9zq8G2PXDmMAFodXxYJAPz+reAncFKfTzaHF9C1wPjNJBsNDijGmFBGqlltAX/+bW/zwsF1H4zn2Q6uYcwjRiMY47PRHIL1rSTT7dbZG74AxlvvlEma/GzIbesSTLzXyuPWW/lNX7Re9xmMGZ658GE/6VY0tVuXtl2Rd6sB7daPN84Pb/1OhU472ILrgyHdOnPejRdAFSgLbcsNvXmUwqDN14LNIu93hyfGY6/77WrJGe+lYRQZJizisY6QJkSiyBIjpYlpbCg8KRu90rO9vw8+/649uPfr/fv/PHj4dLC7M/jm68EfdgaffLV//8Hg0b3nn/2r/fzRYzjd3n/8j4OHfx589C1c39UFvNNlmCk+5P1wJv3RS42uDm6vNUaHapKOjS1fdHQ6GrNCRqKICMqcRNSFwAgXHAETAgETQuGYOxabZRnZ//nfVsoIiTAdLv6pjFzhUlGqRA0jI9APka5lCLi5lqcahgE1m9srhD8ODbcKS6RppBCnziLtsUGeekW8NoaIeEn4B7t/ffHbrw/ufLfCLRHN3RKCUAwDm9wSb/Zt6oGUVW8JITDlwsdIYRbDloD/NEgTciH3oSfU2zBcWqT+tLdakVqUEdIkI+8lmVs5HYwyhQWFTEEVKJTjAinDMbJEUaIjr4lfOme8+OLTFSvUAnQIEipWQ8d6v9NPAesbvrH0sZ7rdJUUSYylMxgBIRpUTFIUaaGRYF5b64yRhMykaEzE9FSyc2f/7u7/AV/8dPh6XfdWSJcWkTTYOBTyKuczzpCOBUVMScsw49Zg9qp0PX90f4V00cXoEnUO+XLWK6FI8e44Ieu6q21Sbs90wwQcIW5dv9lUsqHUakYQiTFB3MQcKUcY8kYbay0JjZi6db64+/z3TwYPv3mxc++kLvjZ3s7gV3f2f/OXJlGvM8ILoT7b9DYLPFaMkxAzJGOBEQ9hJ0TExcgIp7VikHDoVOd1FPgTmt1VAB/W2a2FgJ9trZoFPmQ2JhQ0R1hY7GCvLDKWckjvkEQk41wPK6n5K/5klmolwNe5qoWAn+GgmkU91go7yMPIcUtB85VA2hGCWIidxjhkKuKLoH5C57QM6rSaDp6PeiSbUPf1PLtRtZnyDITn1GQ/xqEzkZIo9tQhrqVBRrkICe4soRpzTu3isv/9wd7ewZcf/2C1m0EuthmiEyfdRUxrszRoFpkoFLAriPKQfX2ITAhc2NDBPyUcZ1Nri7okcDKbuhIWmkrCdVa04b1giLeea0TAlSKONYF624UIG6wNlEg4dgtJ06uZz6UUimA5m4QfEiFh0OyEPMG8rjg4xsO5JO/o3qq5UMJGhjqNsKVQGhDjUWScQdgprgwjmoZuGS7u/3H/F18dPH6wajrm9APPCSIjLuoSxrGdMObnf7fFzIZgsyRE4EAtwQZBWQqqJEkI5bRXiMqqI8tCHcULqdLJO4HLoI8ZFov0x2sV6UL1BadIhrsAMnGv3+mOVv97W3nqAXSb+LIW71YnSdOKous3t5qB3UpjKI0JwmEEpZhjGpmqQBaANwPoiWfiOOx3H+zvPn327e+gCAb8h2u/FmxYo6GQbDrkT/49gnzBhp+alwfeFVDKR2Hdmj+K+lHJeelGGwJbTgWbUwK1ropQFElRfQliKOJEImEc5hjgjpSessZf2tD/Ahgw4Uw2hzCZ+93nUhRRNRozT1Um+nE64JKYeaZUiHzsJeKUU6RCMDjShsbymFgoBWaAe6gbo9CimrEMvAT4nSfaIBtUYlJnJ6/2y25/7ley1agEiRX1XiAvK3HmUEMZHUlkrRSQIrWU6vjXgWdPvnyVXsFqkKV0BrKzK6HmYQWzRGIcaxQyhysnrkEPhEIMQzVEfGSUPN4HG8N60t7XkooLgjA3z1WwhjNgndtoWQGynhgoG1zl4Vz1iVEjHSmDQkhqInZQ+Es/FdkT9liWRHZ+9x2TkIjaP3iYn8tOB2ajuLcsoogLD85ZxBhgFlBPKmNDYWFlkGn9xFfpqyyZ08L5Xo0KhnldTpus4WEmOx1QcUyIozhCWFmNeCQ8Mr5SXEeqZK88t8ddwnjtznO/igMUzdkxrOb0rEbA1lWEE2BPe8lKL0KlqAOHaxTiVoLmKo4R9p5IaQXV8fFO7Bjdmeu1WWgXrC9IXX1R9ZCOFhatt+G2L+vta/1uNz1eXmy+1hjGOo4smBhwYd7GoL7MIAW2EbGYx0Ir4h2tsQtPPwdw9+/uHnz02f6nOzMrCjn9c9rdX752BGjAq0w6/mIBj7rmyzLJhn8qaLe8vf6uThM3eaVU98qrpqKCjw42trvV5NIq6osbQ4HtwVRy07tY5J1J0xZsxyh4rdRFebY8Ft/IRyE6DnV9keRufPduebGfpm8NQ8Ht2/8BUEsHCEC1LXhCCAAA3CgAAA==</t>
         </r>
       </text>
     </comment>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="209" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -146,6 +146,9 @@
     <t>China: Output: Wind Power: YTD</t>
   </si>
   <si>
+    <t>China: Coal Consumption Rate of Power Supply: YTD</t>
+  </si>
+  <si>
     <t>Frequency</t>
   </si>
   <si>
@@ -165,6 +168,9 @@
   </si>
   <si>
     <t>100 million kwh</t>
+  </si>
+  <si>
+    <t>g/kwh</t>
   </si>
   <si>
     <t>ID</t>
@@ -245,22 +251,25 @@
     <t>S0253040</t>
   </si>
   <si>
+    <t>S0048319</t>
+  </si>
+  <si>
     <t>Time Period</t>
   </si>
   <si>
-    <t>2008-12:2024-02</t>
+    <t>2000-12:2024-03</t>
   </si>
   <si>
-    <t>2018-12:2024-02</t>
+    <t>2018-02:2024-03</t>
   </si>
   <si>
-    <t>2020-06:2024-02</t>
+    <t>2008-12:2024-03</t>
   </si>
   <si>
-    <t>2017-12:2024-02</t>
+    <t>2012-12:2024-03</t>
   </si>
   <si>
-    <t>2021-07:2024-02</t>
+    <t>2021-02:2024-03</t>
   </si>
   <si>
     <t>2003-05:2024-03</t>
@@ -299,7 +308,7 @@
     <t>Update</t>
   </si>
   <si>
-    <t>2024-04-03</t>
+    <t>2024-04-22</t>
   </si>
   <si>
     <t>2024-04-17</t>
@@ -314,22 +323,19 @@
     <t>2024-04-18</t>
   </si>
   <si>
-    <t>2000-12:2024-03</t>
+    <t>2018-12:2024-03</t>
   </si>
   <si>
-    <t>2018-02:2024-03</t>
+    <t>2020-06:2024-03</t>
   </si>
   <si>
-    <t>2008-12:2024-03</t>
+    <t>2017-12:2024-03</t>
   </si>
   <si>
-    <t>2012-12:2024-03</t>
+    <t>2021-07:2024-03</t>
   </si>
   <si>
-    <t>2021-02:2024-03</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
+    <t>2024-04-29</t>
   </si>
 </sst>
 </file>
@@ -750,10 +756,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z431"/>
+  <dimension ref="A1:AA431"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B394" workbookViewId="0">
-      <selection activeCell="Z431" sqref="Z431"/>
+    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+      <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -767,13 +773,13 @@
     <col min="21" max="22" width="9.26953125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:27">
       <c r="A2" s="4" t="s">
         <v>0</v>
       </c>
@@ -852,8 +858,11 @@
       <c r="Z2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:26">
+      <c r="AA2" s="4" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:27">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
@@ -882,8 +891,9 @@
       <c r="X3" s="4"/>
       <c r="Y3" s="4"/>
       <c r="Z3" s="4"/>
-    </row>
-    <row r="4" spans="1:26">
+      <c r="AA3" s="4"/>
+    </row>
+    <row r="4" spans="1:27">
       <c r="A4" s="4" t="s">
         <v>3</v>
       </c>
@@ -962,488 +972,509 @@
       <c r="Z4" s="4" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5" spans="1:26">
+      <c r="AA4" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="1:27">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="I5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="J5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="K5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="M5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="N5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="O5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="P5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="R5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="S5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="U5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="V5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="U5" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="V5" s="4" t="s">
-        <v>30</v>
-      </c>
       <c r="W5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="X5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Y5" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z5" s="4" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:26">
+        <v>31</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="6" spans="1:27">
       <c r="A6" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="I6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="J6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="K6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="M6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="N6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="O6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="P6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="Q6" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="R6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="S6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="T6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="U6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="V6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="W6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="X6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Y6" s="4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="Z6" s="4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:26">
+        <v>36</v>
+      </c>
+      <c r="AA6" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="7" spans="1:27">
       <c r="A7" s="4" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="I7" s="4" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="J7" s="4" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K7" s="4" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="M7" s="4" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="N7" s="4" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="O7" s="4" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P7" s="4" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="Q7" s="4" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="R7" s="4" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="S7" s="4" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="T7" s="4" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="U7" s="4" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="V7" s="4" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="W7" s="4" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="X7" s="4" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="Y7" s="4" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="Z7" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="8" spans="1:26">
+        <v>63</v>
+      </c>
+      <c r="AA7" s="4" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="8" spans="1:27">
       <c r="A8" s="4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="X8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Z8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="AA8" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="S9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="V9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="W9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X9" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="Y9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="AA9" s="4" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="T10" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="U10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="V10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="W10" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>64</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:26">
-      <c r="A9" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="10" spans="1:26">
-      <c r="A10" s="4" t="s">
-        <v>79</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="X10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Y10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="11" spans="1:26">
+    </row>
+    <row r="11" spans="1:27">
       <c r="A11" s="2">
         <v>32567</v>
       </c>
@@ -1522,8 +1553,11 @@
       <c r="Z11" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:26">
+      <c r="AA11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:27">
       <c r="A12" s="2">
         <v>32598</v>
       </c>
@@ -1602,8 +1636,11 @@
       <c r="Z12" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:26">
+      <c r="AA12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:27">
       <c r="A13" s="2">
         <v>32628</v>
       </c>
@@ -1682,8 +1719,11 @@
       <c r="Z13" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:26">
+      <c r="AA13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:27">
       <c r="A14" s="2">
         <v>32659</v>
       </c>
@@ -1762,8 +1802,11 @@
       <c r="Z14" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:26">
+      <c r="AA14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:27">
       <c r="A15" s="2">
         <v>32689</v>
       </c>
@@ -1842,8 +1885,11 @@
       <c r="Z15" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:26">
+      <c r="AA15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:27">
       <c r="A16" s="2">
         <v>32720</v>
       </c>
@@ -1922,8 +1968,11 @@
       <c r="Z16" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:26">
+      <c r="AA16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:27">
       <c r="A17" s="2">
         <v>32751</v>
       </c>
@@ -2002,8 +2051,11 @@
       <c r="Z17" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:26">
+      <c r="AA17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:27">
       <c r="A18" s="2">
         <v>32781</v>
       </c>
@@ -2082,8 +2134,11 @@
       <c r="Z18" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:26">
+      <c r="AA18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:27">
       <c r="A19" s="2">
         <v>32812</v>
       </c>
@@ -2162,8 +2217,11 @@
       <c r="Z19" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:26">
+      <c r="AA19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:27">
       <c r="A20" s="2">
         <v>32842</v>
       </c>
@@ -2242,8 +2300,11 @@
       <c r="Z20" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:26">
+      <c r="AA20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:27">
       <c r="A21" s="2">
         <v>32873</v>
       </c>
@@ -2322,8 +2383,11 @@
       <c r="Z21" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:26">
+      <c r="AA21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:27">
       <c r="A22" s="2">
         <v>32904</v>
       </c>
@@ -2402,8 +2466,11 @@
       <c r="Z22" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:26">
+      <c r="AA22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:27">
       <c r="A23" s="2">
         <v>32932</v>
       </c>
@@ -2482,8 +2549,11 @@
       <c r="Z23" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:26">
+      <c r="AA23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:27">
       <c r="A24" s="2">
         <v>32963</v>
       </c>
@@ -2562,8 +2632,11 @@
       <c r="Z24" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:26">
+      <c r="AA24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:27">
       <c r="A25" s="2">
         <v>32993</v>
       </c>
@@ -2642,8 +2715,11 @@
       <c r="Z25" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:26">
+      <c r="AA25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:27">
       <c r="A26" s="2">
         <v>33024</v>
       </c>
@@ -2722,8 +2798,11 @@
       <c r="Z26" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:26">
+      <c r="AA26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:27">
       <c r="A27" s="2">
         <v>33054</v>
       </c>
@@ -2802,8 +2881,11 @@
       <c r="Z27" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:26">
+      <c r="AA27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:27">
       <c r="A28" s="2">
         <v>33085</v>
       </c>
@@ -2882,8 +2964,11 @@
       <c r="Z28" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:26">
+      <c r="AA28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:27">
       <c r="A29" s="2">
         <v>33116</v>
       </c>
@@ -2962,8 +3047,11 @@
       <c r="Z29" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:26">
+      <c r="AA29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:27">
       <c r="A30" s="2">
         <v>33146</v>
       </c>
@@ -3042,8 +3130,11 @@
       <c r="Z30" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:26">
+      <c r="AA30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:27">
       <c r="A31" s="2">
         <v>33177</v>
       </c>
@@ -3122,8 +3213,11 @@
       <c r="Z31" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:26">
+      <c r="AA31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:27">
       <c r="A32" s="2">
         <v>33207</v>
       </c>
@@ -3202,8 +3296,11 @@
       <c r="Z32" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:26">
+      <c r="AA32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:27">
       <c r="A33" s="2">
         <v>33238</v>
       </c>
@@ -3282,8 +3379,11 @@
       <c r="Z33" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:26">
+      <c r="AA33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:27">
       <c r="A34" s="2">
         <v>33269</v>
       </c>
@@ -3362,8 +3462,11 @@
       <c r="Z34" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:26">
+      <c r="AA34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:27">
       <c r="A35" s="2">
         <v>33297</v>
       </c>
@@ -3442,8 +3545,11 @@
       <c r="Z35" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:26">
+      <c r="AA35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:27">
       <c r="A36" s="2">
         <v>33328</v>
       </c>
@@ -3522,8 +3628,11 @@
       <c r="Z36" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:26">
+      <c r="AA36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:27">
       <c r="A37" s="2">
         <v>33358</v>
       </c>
@@ -3602,8 +3711,11 @@
       <c r="Z37" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:26">
+      <c r="AA37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:27">
       <c r="A38" s="2">
         <v>33389</v>
       </c>
@@ -3682,8 +3794,11 @@
       <c r="Z38" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:26">
+      <c r="AA38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:27">
       <c r="A39" s="2">
         <v>33419</v>
       </c>
@@ -3762,8 +3877,11 @@
       <c r="Z39" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:26">
+      <c r="AA39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:27">
       <c r="A40" s="2">
         <v>33450</v>
       </c>
@@ -3842,8 +3960,11 @@
       <c r="Z40" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:26">
+      <c r="AA40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:27">
       <c r="A41" s="2">
         <v>33481</v>
       </c>
@@ -3922,8 +4043,11 @@
       <c r="Z41" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:26">
+      <c r="AA41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:27">
       <c r="A42" s="2">
         <v>33511</v>
       </c>
@@ -4002,8 +4126,11 @@
       <c r="Z42" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:26">
+      <c r="AA42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:27">
       <c r="A43" s="2">
         <v>33542</v>
       </c>
@@ -4082,8 +4209,11 @@
       <c r="Z43" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:26">
+      <c r="AA43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:27">
       <c r="A44" s="2">
         <v>33572</v>
       </c>
@@ -4162,8 +4292,11 @@
       <c r="Z44" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:26">
+      <c r="AA44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:27">
       <c r="A45" s="2">
         <v>33603</v>
       </c>
@@ -4242,8 +4375,11 @@
       <c r="Z45" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:26">
+      <c r="AA45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:27">
       <c r="A46" s="2">
         <v>33634</v>
       </c>
@@ -4322,8 +4458,11 @@
       <c r="Z46" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:26">
+      <c r="AA46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:27">
       <c r="A47" s="2">
         <v>33663</v>
       </c>
@@ -4402,8 +4541,11 @@
       <c r="Z47" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:26">
+      <c r="AA47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:27">
       <c r="A48" s="2">
         <v>33694</v>
       </c>
@@ -4482,8 +4624,11 @@
       <c r="Z48" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:26">
+      <c r="AA48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:27">
       <c r="A49" s="2">
         <v>33724</v>
       </c>
@@ -4562,8 +4707,11 @@
       <c r="Z49" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:26">
+      <c r="AA49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:27">
       <c r="A50" s="2">
         <v>33755</v>
       </c>
@@ -4642,8 +4790,11 @@
       <c r="Z50" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:26">
+      <c r="AA50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:27">
       <c r="A51" s="2">
         <v>33785</v>
       </c>
@@ -4722,8 +4873,11 @@
       <c r="Z51" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:26">
+      <c r="AA51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:27">
       <c r="A52" s="2">
         <v>33816</v>
       </c>
@@ -4802,8 +4956,11 @@
       <c r="Z52" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:26">
+      <c r="AA52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:27">
       <c r="A53" s="2">
         <v>33847</v>
       </c>
@@ -4882,8 +5039,11 @@
       <c r="Z53" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:26">
+      <c r="AA53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:27">
       <c r="A54" s="2">
         <v>33877</v>
       </c>
@@ -4962,8 +5122,11 @@
       <c r="Z54" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:26">
+      <c r="AA54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:27">
       <c r="A55" s="2">
         <v>33908</v>
       </c>
@@ -5042,8 +5205,11 @@
       <c r="Z55" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:26">
+      <c r="AA55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:27">
       <c r="A56" s="2">
         <v>33938</v>
       </c>
@@ -5122,8 +5288,11 @@
       <c r="Z56" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:26">
+      <c r="AA56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:27">
       <c r="A57" s="2">
         <v>33969</v>
       </c>
@@ -5202,8 +5371,11 @@
       <c r="Z57" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:26">
+      <c r="AA57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:27">
       <c r="A58" s="2">
         <v>34000</v>
       </c>
@@ -5282,8 +5454,11 @@
       <c r="Z58" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:26">
+      <c r="AA58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:27">
       <c r="A59" s="2">
         <v>34028</v>
       </c>
@@ -5362,8 +5537,11 @@
       <c r="Z59" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:26">
+      <c r="AA59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:27">
       <c r="A60" s="2">
         <v>34059</v>
       </c>
@@ -5442,8 +5620,11 @@
       <c r="Z60" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:26">
+      <c r="AA60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:27">
       <c r="A61" s="2">
         <v>34089</v>
       </c>
@@ -5522,8 +5703,11 @@
       <c r="Z61" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:26">
+      <c r="AA61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:27">
       <c r="A62" s="2">
         <v>34120</v>
       </c>
@@ -5602,8 +5786,11 @@
       <c r="Z62" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:26">
+      <c r="AA62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:27">
       <c r="A63" s="2">
         <v>34150</v>
       </c>
@@ -5682,8 +5869,11 @@
       <c r="Z63" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:26">
+      <c r="AA63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:27">
       <c r="A64" s="2">
         <v>34181</v>
       </c>
@@ -5762,8 +5952,11 @@
       <c r="Z64" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:26">
+      <c r="AA64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:27">
       <c r="A65" s="2">
         <v>34212</v>
       </c>
@@ -5842,8 +6035,11 @@
       <c r="Z65" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:26">
+      <c r="AA65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:27">
       <c r="A66" s="2">
         <v>34242</v>
       </c>
@@ -5922,8 +6118,11 @@
       <c r="Z66" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:26">
+      <c r="AA66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:27">
       <c r="A67" s="2">
         <v>34273</v>
       </c>
@@ -6002,8 +6201,11 @@
       <c r="Z67" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:26">
+      <c r="AA67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:27">
       <c r="A68" s="2">
         <v>34303</v>
       </c>
@@ -6082,8 +6284,11 @@
       <c r="Z68" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:26">
+      <c r="AA68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:27">
       <c r="A69" s="2">
         <v>34334</v>
       </c>
@@ -6162,8 +6367,11 @@
       <c r="Z69" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:26">
+      <c r="AA69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:27">
       <c r="A70" s="2">
         <v>34365</v>
       </c>
@@ -6242,8 +6450,11 @@
       <c r="Z70" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:26">
+      <c r="AA70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:27">
       <c r="A71" s="2">
         <v>34393</v>
       </c>
@@ -6322,8 +6533,11 @@
       <c r="Z71" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:26">
+      <c r="AA71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:27">
       <c r="A72" s="2">
         <v>34424</v>
       </c>
@@ -6402,8 +6616,11 @@
       <c r="Z72" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:26">
+      <c r="AA72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:27">
       <c r="A73" s="2">
         <v>34454</v>
       </c>
@@ -6482,8 +6699,11 @@
       <c r="Z73" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:26">
+      <c r="AA73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:27">
       <c r="A74" s="2">
         <v>34485</v>
       </c>
@@ -6562,8 +6782,11 @@
       <c r="Z74" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:26">
+      <c r="AA74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:27">
       <c r="A75" s="2">
         <v>34515</v>
       </c>
@@ -6642,8 +6865,11 @@
       <c r="Z75" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:26">
+      <c r="AA75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:27">
       <c r="A76" s="2">
         <v>34546</v>
       </c>
@@ -6722,8 +6948,11 @@
       <c r="Z76" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:26">
+      <c r="AA76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:27">
       <c r="A77" s="2">
         <v>34577</v>
       </c>
@@ -6802,8 +7031,11 @@
       <c r="Z77" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:26">
+      <c r="AA77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:27">
       <c r="A78" s="2">
         <v>34607</v>
       </c>
@@ -6882,8 +7114,11 @@
       <c r="Z78" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:26">
+      <c r="AA78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:27">
       <c r="A79" s="2">
         <v>34638</v>
       </c>
@@ -6962,8 +7197,11 @@
       <c r="Z79" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:26">
+      <c r="AA79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:27">
       <c r="A80" s="2">
         <v>34668</v>
       </c>
@@ -7042,8 +7280,11 @@
       <c r="Z80" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:26">
+      <c r="AA80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:27">
       <c r="A81" s="2">
         <v>34699</v>
       </c>
@@ -7122,8 +7363,11 @@
       <c r="Z81" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:26">
+      <c r="AA81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:27">
       <c r="A82" s="2">
         <v>34730</v>
       </c>
@@ -7202,8 +7446,11 @@
       <c r="Z82" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:26">
+      <c r="AA82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:27">
       <c r="A83" s="2">
         <v>34758</v>
       </c>
@@ -7282,8 +7529,11 @@
       <c r="Z83" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:26">
+      <c r="AA83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:27">
       <c r="A84" s="2">
         <v>34789</v>
       </c>
@@ -7362,8 +7612,11 @@
       <c r="Z84" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:26">
+      <c r="AA84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:27">
       <c r="A85" s="2">
         <v>34819</v>
       </c>
@@ -7442,8 +7695,11 @@
       <c r="Z85" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:26">
+      <c r="AA85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:27">
       <c r="A86" s="2">
         <v>34850</v>
       </c>
@@ -7522,8 +7778,11 @@
       <c r="Z86" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:26">
+      <c r="AA86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:27">
       <c r="A87" s="2">
         <v>34880</v>
       </c>
@@ -7602,8 +7861,11 @@
       <c r="Z87" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:26">
+      <c r="AA87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:27">
       <c r="A88" s="2">
         <v>34911</v>
       </c>
@@ -7682,8 +7944,11 @@
       <c r="Z88" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:26">
+      <c r="AA88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:27">
       <c r="A89" s="2">
         <v>34942</v>
       </c>
@@ -7762,8 +8027,11 @@
       <c r="Z89" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:26">
+      <c r="AA89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:27">
       <c r="A90" s="2">
         <v>34972</v>
       </c>
@@ -7842,8 +8110,11 @@
       <c r="Z90" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:26">
+      <c r="AA90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:27">
       <c r="A91" s="2">
         <v>35003</v>
       </c>
@@ -7922,8 +8193,11 @@
       <c r="Z91" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:26">
+      <c r="AA91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:27">
       <c r="A92" s="2">
         <v>35033</v>
       </c>
@@ -8002,8 +8276,11 @@
       <c r="Z92" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:26">
+      <c r="AA92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:27">
       <c r="A93" s="2">
         <v>35064</v>
       </c>
@@ -8082,8 +8359,11 @@
       <c r="Z93" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:26">
+      <c r="AA93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:27">
       <c r="A94" s="2">
         <v>35095</v>
       </c>
@@ -8162,8 +8442,11 @@
       <c r="Z94" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:26">
+      <c r="AA94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:27">
       <c r="A95" s="2">
         <v>35124</v>
       </c>
@@ -8242,8 +8525,11 @@
       <c r="Z95" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:26">
+      <c r="AA95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:27">
       <c r="A96" s="2">
         <v>35155</v>
       </c>
@@ -8322,8 +8608,11 @@
       <c r="Z96" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:26">
+      <c r="AA96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:27">
       <c r="A97" s="2">
         <v>35185</v>
       </c>
@@ -8402,8 +8691,11 @@
       <c r="Z97" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:26">
+      <c r="AA97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:27">
       <c r="A98" s="2">
         <v>35216</v>
       </c>
@@ -8482,8 +8774,11 @@
       <c r="Z98" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:26">
+      <c r="AA98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:27">
       <c r="A99" s="2">
         <v>35246</v>
       </c>
@@ -8562,8 +8857,11 @@
       <c r="Z99" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:26">
+      <c r="AA99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:27">
       <c r="A100" s="2">
         <v>35277</v>
       </c>
@@ -8642,8 +8940,11 @@
       <c r="Z100" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:26">
+      <c r="AA100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:27">
       <c r="A101" s="2">
         <v>35308</v>
       </c>
@@ -8722,8 +9023,11 @@
       <c r="Z101" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:26">
+      <c r="AA101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:27">
       <c r="A102" s="2">
         <v>35338</v>
       </c>
@@ -8802,8 +9106,11 @@
       <c r="Z102" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:26">
+      <c r="AA102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:27">
       <c r="A103" s="2">
         <v>35369</v>
       </c>
@@ -8882,8 +9189,11 @@
       <c r="Z103" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:26">
+      <c r="AA103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:27">
       <c r="A104" s="2">
         <v>35399</v>
       </c>
@@ -8962,8 +9272,11 @@
       <c r="Z104" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:26">
+      <c r="AA104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:27">
       <c r="A105" s="2">
         <v>35430</v>
       </c>
@@ -9042,8 +9355,11 @@
       <c r="Z105" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:26">
+      <c r="AA105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:27">
       <c r="A106" s="2">
         <v>35461</v>
       </c>
@@ -9122,8 +9438,11 @@
       <c r="Z106" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:26">
+      <c r="AA106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:27">
       <c r="A107" s="2">
         <v>35489</v>
       </c>
@@ -9202,8 +9521,11 @@
       <c r="Z107" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:26">
+      <c r="AA107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:27">
       <c r="A108" s="2">
         <v>35520</v>
       </c>
@@ -9282,8 +9604,11 @@
       <c r="Z108" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:26">
+      <c r="AA108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:27">
       <c r="A109" s="2">
         <v>35550</v>
       </c>
@@ -9362,8 +9687,11 @@
       <c r="Z109" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:26">
+      <c r="AA109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:27">
       <c r="A110" s="2">
         <v>35581</v>
       </c>
@@ -9442,8 +9770,11 @@
       <c r="Z110" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:26">
+      <c r="AA110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:27">
       <c r="A111" s="2">
         <v>35611</v>
       </c>
@@ -9522,8 +9853,11 @@
       <c r="Z111" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:26">
+      <c r="AA111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:27">
       <c r="A112" s="2">
         <v>35642</v>
       </c>
@@ -9602,8 +9936,11 @@
       <c r="Z112" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:26">
+      <c r="AA112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:27">
       <c r="A113" s="2">
         <v>35673</v>
       </c>
@@ -9682,8 +10019,11 @@
       <c r="Z113" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:26">
+      <c r="AA113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:27">
       <c r="A114" s="2">
         <v>35703</v>
       </c>
@@ -9762,8 +10102,11 @@
       <c r="Z114" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:26">
+      <c r="AA114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:27">
       <c r="A115" s="2">
         <v>35734</v>
       </c>
@@ -9842,8 +10185,11 @@
       <c r="Z115" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:26">
+      <c r="AA115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:27">
       <c r="A116" s="2">
         <v>35764</v>
       </c>
@@ -9922,8 +10268,11 @@
       <c r="Z116" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:26">
+      <c r="AA116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:27">
       <c r="A117" s="2">
         <v>35795</v>
       </c>
@@ -10002,8 +10351,11 @@
       <c r="Z117" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:26">
+      <c r="AA117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:27">
       <c r="A118" s="2">
         <v>35826</v>
       </c>
@@ -10082,8 +10434,11 @@
       <c r="Z118" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:26">
+      <c r="AA118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:27">
       <c r="A119" s="2">
         <v>35854</v>
       </c>
@@ -10162,8 +10517,11 @@
       <c r="Z119" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:26">
+      <c r="AA119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:27">
       <c r="A120" s="2">
         <v>35885</v>
       </c>
@@ -10242,8 +10600,11 @@
       <c r="Z120" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:26">
+      <c r="AA120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:27">
       <c r="A121" s="2">
         <v>35915</v>
       </c>
@@ -10322,8 +10683,11 @@
       <c r="Z121" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:26">
+      <c r="AA121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:27">
       <c r="A122" s="2">
         <v>35946</v>
       </c>
@@ -10402,8 +10766,11 @@
       <c r="Z122" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:26">
+      <c r="AA122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:27">
       <c r="A123" s="2">
         <v>35976</v>
       </c>
@@ -10482,8 +10849,11 @@
       <c r="Z123" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:26">
+      <c r="AA123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:27">
       <c r="A124" s="2">
         <v>36007</v>
       </c>
@@ -10562,8 +10932,11 @@
       <c r="Z124" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:26">
+      <c r="AA124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:27">
       <c r="A125" s="2">
         <v>36038</v>
       </c>
@@ -10642,8 +11015,11 @@
       <c r="Z125" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:26">
+      <c r="AA125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:27">
       <c r="A126" s="2">
         <v>36068</v>
       </c>
@@ -10722,8 +11098,11 @@
       <c r="Z126" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:26">
+      <c r="AA126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:27">
       <c r="A127" s="2">
         <v>36099</v>
       </c>
@@ -10802,8 +11181,11 @@
       <c r="Z127" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:26">
+      <c r="AA127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:27">
       <c r="A128" s="2">
         <v>36129</v>
       </c>
@@ -10882,8 +11264,11 @@
       <c r="Z128" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:26">
+      <c r="AA128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:27">
       <c r="A129" s="2">
         <v>36160</v>
       </c>
@@ -10962,8 +11347,11 @@
       <c r="Z129" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:26">
+      <c r="AA129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:27">
       <c r="A130" s="2">
         <v>36191</v>
       </c>
@@ -11042,8 +11430,11 @@
       <c r="Z130" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:26">
+      <c r="AA130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:27">
       <c r="A131" s="2">
         <v>36219</v>
       </c>
@@ -11122,8 +11513,11 @@
       <c r="Z131" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:26">
+      <c r="AA131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:27">
       <c r="A132" s="2">
         <v>36250</v>
       </c>
@@ -11202,8 +11596,11 @@
       <c r="Z132" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:26">
+      <c r="AA132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:27">
       <c r="A133" s="2">
         <v>36280</v>
       </c>
@@ -11282,8 +11679,11 @@
       <c r="Z133" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:26">
+      <c r="AA133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:27">
       <c r="A134" s="2">
         <v>36311</v>
       </c>
@@ -11362,8 +11762,11 @@
       <c r="Z134" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:26">
+      <c r="AA134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:27">
       <c r="A135" s="2">
         <v>36341</v>
       </c>
@@ -11442,8 +11845,11 @@
       <c r="Z135" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:26">
+      <c r="AA135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:27">
       <c r="A136" s="2">
         <v>36372</v>
       </c>
@@ -11522,8 +11928,11 @@
       <c r="Z136" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:26">
+      <c r="AA136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:27">
       <c r="A137" s="2">
         <v>36403</v>
       </c>
@@ -11602,8 +12011,11 @@
       <c r="Z137" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:26">
+      <c r="AA137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:27">
       <c r="A138" s="2">
         <v>36433</v>
       </c>
@@ -11682,8 +12094,11 @@
       <c r="Z138" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:26">
+      <c r="AA138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:27">
       <c r="A139" s="2">
         <v>36464</v>
       </c>
@@ -11762,8 +12177,11 @@
       <c r="Z139" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:26">
+      <c r="AA139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:27">
       <c r="A140" s="2">
         <v>36494</v>
       </c>
@@ -11842,8 +12260,11 @@
       <c r="Z140" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:26">
+      <c r="AA140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:27">
       <c r="A141" s="2">
         <v>36525</v>
       </c>
@@ -11922,8 +12343,11 @@
       <c r="Z141" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:26">
+      <c r="AA141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:27">
       <c r="A142" s="2">
         <v>36556</v>
       </c>
@@ -12002,8 +12426,11 @@
       <c r="Z142" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:26">
+      <c r="AA142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:27">
       <c r="A143" s="2">
         <v>36585</v>
       </c>
@@ -12082,8 +12509,11 @@
       <c r="Z143" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:26">
+      <c r="AA143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:27">
       <c r="A144" s="2">
         <v>36616</v>
       </c>
@@ -12162,8 +12592,11 @@
       <c r="Z144" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:26">
+      <c r="AA144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:27">
       <c r="A145" s="2">
         <v>36646</v>
       </c>
@@ -12242,8 +12675,11 @@
       <c r="Z145" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:26">
+      <c r="AA145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:27">
       <c r="A146" s="2">
         <v>36677</v>
       </c>
@@ -12322,8 +12758,11 @@
       <c r="Z146" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="147" spans="1:26">
+      <c r="AA146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:27">
       <c r="A147" s="2">
         <v>36707</v>
       </c>
@@ -12402,8 +12841,11 @@
       <c r="Z147" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="148" spans="1:26">
+      <c r="AA147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:27">
       <c r="A148" s="2">
         <v>36738</v>
       </c>
@@ -12482,8 +12924,11 @@
       <c r="Z148" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:26">
+      <c r="AA148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:27">
       <c r="A149" s="2">
         <v>36769</v>
       </c>
@@ -12562,8 +13007,11 @@
       <c r="Z149" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:26">
+      <c r="AA149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:27">
       <c r="A150" s="2">
         <v>36799</v>
       </c>
@@ -12642,8 +13090,11 @@
       <c r="Z150" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:26">
+      <c r="AA150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:27">
       <c r="A151" s="2">
         <v>36830</v>
       </c>
@@ -12722,8 +13173,11 @@
       <c r="Z151" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:26">
+      <c r="AA151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:27">
       <c r="A152" s="2">
         <v>36860</v>
       </c>
@@ -12802,8 +13256,11 @@
       <c r="Z152" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:26">
+      <c r="AA152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:27">
       <c r="A153" s="2">
         <v>36891</v>
       </c>
@@ -12882,8 +13339,11 @@
       <c r="Z153" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="154" spans="1:26">
+      <c r="AA153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:27">
       <c r="A154" s="2">
         <v>36922</v>
       </c>
@@ -12962,8 +13422,11 @@
       <c r="Z154" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:26">
+      <c r="AA154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:27">
       <c r="A155" s="2">
         <v>36950</v>
       </c>
@@ -13042,8 +13505,11 @@
       <c r="Z155" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:26">
+      <c r="AA155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:27">
       <c r="A156" s="2">
         <v>36981</v>
       </c>
@@ -13122,8 +13588,11 @@
       <c r="Z156" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:26">
+      <c r="AA156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:27">
       <c r="A157" s="2">
         <v>37011</v>
       </c>
@@ -13202,8 +13671,11 @@
       <c r="Z157" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:26">
+      <c r="AA157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:27">
       <c r="A158" s="2">
         <v>37042</v>
       </c>
@@ -13282,8 +13754,11 @@
       <c r="Z158" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:26">
+      <c r="AA158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:27">
       <c r="A159" s="2">
         <v>37072</v>
       </c>
@@ -13362,8 +13837,11 @@
       <c r="Z159" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="160" spans="1:26">
+      <c r="AA159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:27">
       <c r="A160" s="2">
         <v>37103</v>
       </c>
@@ -13442,8 +13920,11 @@
       <c r="Z160" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:26">
+      <c r="AA160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:27">
       <c r="A161" s="2">
         <v>37134</v>
       </c>
@@ -13522,8 +14003,11 @@
       <c r="Z161" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:26">
+      <c r="AA161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:27">
       <c r="A162" s="2">
         <v>37164</v>
       </c>
@@ -13602,8 +14086,11 @@
       <c r="Z162" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:26">
+      <c r="AA162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:27">
       <c r="A163" s="2">
         <v>37195</v>
       </c>
@@ -13682,8 +14169,11 @@
       <c r="Z163" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="164" spans="1:26">
+      <c r="AA163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:27">
       <c r="A164" s="2">
         <v>37225</v>
       </c>
@@ -13762,8 +14252,11 @@
       <c r="Z164" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:26">
+      <c r="AA164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:27">
       <c r="A165" s="2">
         <v>37256</v>
       </c>
@@ -13842,8 +14335,11 @@
       <c r="Z165" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:26">
+      <c r="AA165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:27">
       <c r="A166" s="2">
         <v>37287</v>
       </c>
@@ -13922,8 +14418,11 @@
       <c r="Z166" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="167" spans="1:26">
+      <c r="AA166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:27">
       <c r="A167" s="2">
         <v>37315</v>
       </c>
@@ -14002,8 +14501,11 @@
       <c r="Z167" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="168" spans="1:26">
+      <c r="AA167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:27">
       <c r="A168" s="2">
         <v>37346</v>
       </c>
@@ -14082,8 +14584,11 @@
       <c r="Z168" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:26">
+      <c r="AA168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:27">
       <c r="A169" s="2">
         <v>37376</v>
       </c>
@@ -14162,8 +14667,11 @@
       <c r="Z169" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:26">
+      <c r="AA169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:27">
       <c r="A170" s="2">
         <v>37407</v>
       </c>
@@ -14242,8 +14750,11 @@
       <c r="Z170" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:26">
+      <c r="AA170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:27">
       <c r="A171" s="2">
         <v>37437</v>
       </c>
@@ -14322,8 +14833,11 @@
       <c r="Z171" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="172" spans="1:26">
+      <c r="AA171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:27">
       <c r="A172" s="2">
         <v>37468</v>
       </c>
@@ -14402,8 +14916,11 @@
       <c r="Z172" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:26">
+      <c r="AA172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:27">
       <c r="A173" s="2">
         <v>37499</v>
       </c>
@@ -14482,8 +14999,11 @@
       <c r="Z173" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:26">
+      <c r="AA173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:27">
       <c r="A174" s="2">
         <v>37529</v>
       </c>
@@ -14562,8 +15082,11 @@
       <c r="Z174" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:26">
+      <c r="AA174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:27">
       <c r="A175" s="2">
         <v>37560</v>
       </c>
@@ -14642,8 +15165,11 @@
       <c r="Z175" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:26">
+      <c r="AA175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:27">
       <c r="A176" s="2">
         <v>37590</v>
       </c>
@@ -14722,8 +15248,11 @@
       <c r="Z176" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:26">
+      <c r="AA176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:27">
       <c r="A177" s="2">
         <v>37621</v>
       </c>
@@ -14802,8 +15331,11 @@
       <c r="Z177" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:26">
+      <c r="AA177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:27">
       <c r="A178" s="2">
         <v>37652</v>
       </c>
@@ -14882,8 +15414,11 @@
       <c r="Z178" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="179" spans="1:26">
+      <c r="AA178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:27">
       <c r="A179" s="2">
         <v>37680</v>
       </c>
@@ -14962,8 +15497,11 @@
       <c r="Z179" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:26">
+      <c r="AA179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:27">
       <c r="A180" s="2">
         <v>37711</v>
       </c>
@@ -15042,8 +15580,11 @@
       <c r="Z180" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:26">
+      <c r="AA180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:27">
       <c r="A181" s="2">
         <v>37741</v>
       </c>
@@ -15122,8 +15663,11 @@
       <c r="Z181" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:26">
+      <c r="AA181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:27">
       <c r="A182" s="2">
         <v>37772</v>
       </c>
@@ -15202,8 +15746,11 @@
       <c r="Z182" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:26">
+      <c r="AA182" s="3">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="183" spans="1:27">
       <c r="A183" s="2">
         <v>37802</v>
       </c>
@@ -15282,8 +15829,11 @@
       <c r="Z183" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:26">
+      <c r="AA183" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="184" spans="1:27">
       <c r="A184" s="2">
         <v>37833</v>
       </c>
@@ -15362,8 +15912,11 @@
       <c r="Z184" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:26">
+      <c r="AA184" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="185" spans="1:27">
       <c r="A185" s="2">
         <v>37864</v>
       </c>
@@ -15442,8 +15995,11 @@
       <c r="Z185" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:26">
+      <c r="AA185" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="186" spans="1:27">
       <c r="A186" s="2">
         <v>37894</v>
       </c>
@@ -15522,8 +16078,11 @@
       <c r="Z186" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="187" spans="1:26">
+      <c r="AA186" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="187" spans="1:27">
       <c r="A187" s="2">
         <v>37925</v>
       </c>
@@ -15602,8 +16161,11 @@
       <c r="Z187" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:26">
+      <c r="AA187" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="188" spans="1:27">
       <c r="A188" s="2">
         <v>37955</v>
       </c>
@@ -15682,8 +16244,11 @@
       <c r="Z188" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:26">
+      <c r="AA188" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="189" spans="1:27">
       <c r="A189" s="2">
         <v>37986</v>
       </c>
@@ -15762,8 +16327,11 @@
       <c r="Z189" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="190" spans="1:26">
+      <c r="AA189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:27">
       <c r="A190" s="2">
         <v>38017</v>
       </c>
@@ -15842,8 +16410,11 @@
       <c r="Z190" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="191" spans="1:26">
+      <c r="AA190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:27">
       <c r="A191" s="2">
         <v>38046</v>
       </c>
@@ -15922,8 +16493,11 @@
       <c r="Z191" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:26">
+      <c r="AA191" s="3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="192" spans="1:27">
       <c r="A192" s="2">
         <v>38077</v>
       </c>
@@ -16002,8 +16576,11 @@
       <c r="Z192" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:26">
+      <c r="AA192" s="3">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="193" spans="1:27">
       <c r="A193" s="2">
         <v>38107</v>
       </c>
@@ -16082,8 +16659,11 @@
       <c r="Z193" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:26">
+      <c r="AA193" s="3">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" spans="1:27">
       <c r="A194" s="2">
         <v>38138</v>
       </c>
@@ -16162,8 +16742,11 @@
       <c r="Z194" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:26">
+      <c r="AA194" s="3">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="195" spans="1:27">
       <c r="A195" s="2">
         <v>38168</v>
       </c>
@@ -16242,8 +16825,11 @@
       <c r="Z195" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:26">
+      <c r="AA195" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="196" spans="1:27">
       <c r="A196" s="2">
         <v>38199</v>
       </c>
@@ -16322,8 +16908,11 @@
       <c r="Z196" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:26">
+      <c r="AA196" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="197" spans="1:27">
       <c r="A197" s="2">
         <v>38230</v>
       </c>
@@ -16402,8 +16991,11 @@
       <c r="Z197" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="198" spans="1:26">
+      <c r="AA197" s="3">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="198" spans="1:27">
       <c r="A198" s="2">
         <v>38260</v>
       </c>
@@ -16482,8 +17074,11 @@
       <c r="Z198" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="199" spans="1:26">
+      <c r="AA198" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="199" spans="1:27">
       <c r="A199" s="2">
         <v>38291</v>
       </c>
@@ -16562,8 +17157,11 @@
       <c r="Z199" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:26">
+      <c r="AA199" s="3">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="200" spans="1:27">
       <c r="A200" s="2">
         <v>38321</v>
       </c>
@@ -16642,8 +17240,11 @@
       <c r="Z200" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:26">
+      <c r="AA200" s="3">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="201" spans="1:27">
       <c r="A201" s="2">
         <v>38352</v>
       </c>
@@ -16722,8 +17323,11 @@
       <c r="Z201" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:26">
+      <c r="AA201" s="3">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="202" spans="1:27">
       <c r="A202" s="2">
         <v>38383</v>
       </c>
@@ -16802,8 +17406,11 @@
       <c r="Z202" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:26">
+      <c r="AA202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:27">
       <c r="A203" s="2">
         <v>38411</v>
       </c>
@@ -16882,8 +17489,11 @@
       <c r="Z203" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:26">
+      <c r="AA203" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="204" spans="1:27">
       <c r="A204" s="2">
         <v>38442</v>
       </c>
@@ -16962,8 +17572,11 @@
       <c r="Z204" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:26">
+      <c r="AA204" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="205" spans="1:27">
       <c r="A205" s="2">
         <v>38472</v>
       </c>
@@ -17042,8 +17655,11 @@
       <c r="Z205" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:26">
+      <c r="AA205" s="3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="206" spans="1:27">
       <c r="A206" s="2">
         <v>38503</v>
       </c>
@@ -17122,8 +17738,11 @@
       <c r="Z206" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:26">
+      <c r="AA206" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="207" spans="1:27">
       <c r="A207" s="2">
         <v>38533</v>
       </c>
@@ -17202,8 +17821,11 @@
       <c r="Z207" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:26">
+      <c r="AA207" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="208" spans="1:27">
       <c r="A208" s="2">
         <v>38564</v>
       </c>
@@ -17282,8 +17904,11 @@
       <c r="Z208" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:26">
+      <c r="AA208" s="3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="209" spans="1:27">
       <c r="A209" s="2">
         <v>38595</v>
       </c>
@@ -17362,8 +17987,11 @@
       <c r="Z209" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:26">
+      <c r="AA209" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="210" spans="1:27">
       <c r="A210" s="2">
         <v>38625</v>
       </c>
@@ -17442,8 +18070,11 @@
       <c r="Z210" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:26">
+      <c r="AA210" s="3">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="211" spans="1:27">
       <c r="A211" s="2">
         <v>38656</v>
       </c>
@@ -17522,8 +18153,11 @@
       <c r="Z211" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:26">
+      <c r="AA211" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="212" spans="1:27">
       <c r="A212" s="2">
         <v>38686</v>
       </c>
@@ -17602,8 +18236,11 @@
       <c r="Z212" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:26">
+      <c r="AA212" s="3">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="213" spans="1:27">
       <c r="A213" s="2">
         <v>38717</v>
       </c>
@@ -17682,8 +18319,11 @@
       <c r="Z213" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:26">
+      <c r="AA213" s="3">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="214" spans="1:27">
       <c r="A214" s="2">
         <v>38748</v>
       </c>
@@ -17762,8 +18402,11 @@
       <c r="Z214" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:26">
+      <c r="AA214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:27">
       <c r="A215" s="2">
         <v>38776</v>
       </c>
@@ -17842,8 +18485,11 @@
       <c r="Z215" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="216" spans="1:26">
+      <c r="AA215" s="3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="216" spans="1:27">
       <c r="A216" s="2">
         <v>38807</v>
       </c>
@@ -17922,8 +18568,11 @@
       <c r="Z216" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:26">
+      <c r="AA216" s="3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="217" spans="1:27">
       <c r="A217" s="2">
         <v>38837</v>
       </c>
@@ -18002,8 +18651,11 @@
       <c r="Z217" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:26">
+      <c r="AA217" s="3">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="218" spans="1:27">
       <c r="A218" s="2">
         <v>38868</v>
       </c>
@@ -18082,8 +18734,11 @@
       <c r="Z218" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:26">
+      <c r="AA218" s="3">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="219" spans="1:27">
       <c r="A219" s="2">
         <v>38898</v>
       </c>
@@ -18162,8 +18817,11 @@
       <c r="Z219" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:26">
+      <c r="AA219" s="3">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="220" spans="1:27">
       <c r="A220" s="2">
         <v>38929</v>
       </c>
@@ -18242,8 +18900,11 @@
       <c r="Z220" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:26">
+      <c r="AA220" s="3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="221" spans="1:27">
       <c r="A221" s="2">
         <v>38960</v>
       </c>
@@ -18322,8 +18983,11 @@
       <c r="Z221" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="222" spans="1:26">
+      <c r="AA221" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="222" spans="1:27">
       <c r="A222" s="2">
         <v>38990</v>
       </c>
@@ -18402,8 +19066,11 @@
       <c r="Z222" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:26">
+      <c r="AA222" s="3">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="223" spans="1:27">
       <c r="A223" s="2">
         <v>39021</v>
       </c>
@@ -18482,8 +19149,11 @@
       <c r="Z223" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="224" spans="1:26">
+      <c r="AA223" s="3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="224" spans="1:27">
       <c r="A224" s="2">
         <v>39051</v>
       </c>
@@ -18562,8 +19232,11 @@
       <c r="Z224" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="225" spans="1:26">
+      <c r="AA224" s="3">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="225" spans="1:27">
       <c r="A225" s="2">
         <v>39082</v>
       </c>
@@ -18642,8 +19315,11 @@
       <c r="Z225" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:26">
+      <c r="AA225" s="3">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="226" spans="1:27">
       <c r="A226" s="2">
         <v>39113</v>
       </c>
@@ -18722,8 +19398,11 @@
       <c r="Z226" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:26">
+      <c r="AA226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:27">
       <c r="A227" s="2">
         <v>39141</v>
       </c>
@@ -18802,8 +19481,11 @@
       <c r="Z227" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:26">
+      <c r="AA227" s="3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="228" spans="1:27">
       <c r="A228" s="2">
         <v>39172</v>
       </c>
@@ -18882,8 +19564,11 @@
       <c r="Z228" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:26">
+      <c r="AA228" s="3">
+        <v>355.72</v>
+      </c>
+    </row>
+    <row r="229" spans="1:27">
       <c r="A229" s="2">
         <v>39202</v>
       </c>
@@ -18962,8 +19647,11 @@
       <c r="Z229" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:26">
+      <c r="AA229" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="230" spans="1:27">
       <c r="A230" s="2">
         <v>39233</v>
       </c>
@@ -19042,8 +19730,11 @@
       <c r="Z230" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:26">
+      <c r="AA230" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="231" spans="1:27">
       <c r="A231" s="2">
         <v>39263</v>
       </c>
@@ -19122,8 +19813,11 @@
       <c r="Z231" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:26">
+      <c r="AA231" s="3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="232" spans="1:27">
       <c r="A232" s="2">
         <v>39294</v>
       </c>
@@ -19202,8 +19896,11 @@
       <c r="Z232" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:26">
+      <c r="AA232" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="233" spans="1:27">
       <c r="A233" s="2">
         <v>39325</v>
       </c>
@@ -19282,8 +19979,11 @@
       <c r="Z233" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:26">
+      <c r="AA233" s="3">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="234" spans="1:27">
       <c r="A234" s="2">
         <v>39355</v>
       </c>
@@ -19362,8 +20062,11 @@
       <c r="Z234" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:26">
+      <c r="AA234" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="235" spans="1:27">
       <c r="A235" s="2">
         <v>39386</v>
       </c>
@@ -19442,8 +20145,11 @@
       <c r="Z235" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:26">
+      <c r="AA235" s="3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="236" spans="1:27">
       <c r="A236" s="2">
         <v>39416</v>
       </c>
@@ -19522,8 +20228,11 @@
       <c r="Z236" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="237" spans="1:26">
+      <c r="AA236" s="3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="237" spans="1:27">
       <c r="A237" s="2">
         <v>39447</v>
       </c>
@@ -19602,8 +20311,11 @@
       <c r="Z237" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:26">
+      <c r="AA237" s="3">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="238" spans="1:27">
       <c r="A238" s="2">
         <v>39478</v>
       </c>
@@ -19682,8 +20394,11 @@
       <c r="Z238" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:26">
+      <c r="AA238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:27">
       <c r="A239" s="2">
         <v>39507</v>
       </c>
@@ -19762,8 +20477,11 @@
       <c r="Z239" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:26">
+      <c r="AA239" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="240" spans="1:27">
       <c r="A240" s="2">
         <v>39538</v>
       </c>
@@ -19842,8 +20560,11 @@
       <c r="Z240" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:26">
+      <c r="AA240" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="241" spans="1:27">
       <c r="A241" s="2">
         <v>39568</v>
       </c>
@@ -19922,8 +20643,11 @@
       <c r="Z241" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:26">
+      <c r="AA241" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="242" spans="1:27">
       <c r="A242" s="2">
         <v>39599</v>
       </c>
@@ -20002,8 +20726,11 @@
       <c r="Z242" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="243" spans="1:26">
+      <c r="AA242" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="243" spans="1:27">
       <c r="A243" s="2">
         <v>39629</v>
       </c>
@@ -20082,8 +20809,11 @@
       <c r="Z243" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:26">
+      <c r="AA243" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="244" spans="1:27">
       <c r="A244" s="2">
         <v>39660</v>
       </c>
@@ -20162,8 +20892,11 @@
       <c r="Z244" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:26">
+      <c r="AA244" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="245" spans="1:27">
       <c r="A245" s="2">
         <v>39691</v>
       </c>
@@ -20242,8 +20975,11 @@
       <c r="Z245" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="246" spans="1:26">
+      <c r="AA245" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="246" spans="1:27">
       <c r="A246" s="2">
         <v>39721</v>
       </c>
@@ -20322,8 +21058,11 @@
       <c r="Z246" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:26">
+      <c r="AA246" s="3">
+        <v>346.897806</v>
+      </c>
+    </row>
+    <row r="247" spans="1:27">
       <c r="A247" s="2">
         <v>39752</v>
       </c>
@@ -20402,8 +21141,11 @@
       <c r="Z247" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="248" spans="1:26">
+      <c r="AA247" s="3">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="248" spans="1:27">
       <c r="A248" s="2">
         <v>39782</v>
       </c>
@@ -20482,8 +21224,11 @@
       <c r="Z248" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:26">
+      <c r="AA248" s="3">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="249" spans="1:27">
       <c r="A249" s="2">
         <v>39813</v>
       </c>
@@ -20562,8 +21307,11 @@
       <c r="Z249" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:26">
+      <c r="AA249" s="3">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="250" spans="1:27">
       <c r="A250" s="2">
         <v>39844</v>
       </c>
@@ -20642,8 +21390,11 @@
       <c r="Z250" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:26">
+      <c r="AA250" s="3">
+        <v>356.99</v>
+      </c>
+    </row>
+    <row r="251" spans="1:27">
       <c r="A251" s="2">
         <v>39872</v>
       </c>
@@ -20722,8 +21473,11 @@
       <c r="Z251" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:26">
+      <c r="AA251" s="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="252" spans="1:27">
       <c r="A252" s="2">
         <v>39903</v>
       </c>
@@ -20802,8 +21556,11 @@
       <c r="Z252" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:26">
+      <c r="AA252" s="3">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="253" spans="1:27">
       <c r="A253" s="2">
         <v>39933</v>
       </c>
@@ -20882,8 +21639,11 @@
       <c r="Z253" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:26">
+      <c r="AA253" s="3">
+        <v>338.90529199999997</v>
+      </c>
+    </row>
+    <row r="254" spans="1:27">
       <c r="A254" s="2">
         <v>39964</v>
       </c>
@@ -20962,8 +21722,11 @@
       <c r="Z254" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:26">
+      <c r="AA254" s="3">
+        <v>339.44833</v>
+      </c>
+    </row>
+    <row r="255" spans="1:27">
       <c r="A255" s="2">
         <v>39994</v>
       </c>
@@ -21042,8 +21805,11 @@
       <c r="Z255" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:26">
+      <c r="AA255" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="256" spans="1:27">
       <c r="A256" s="2">
         <v>40025</v>
       </c>
@@ -21122,8 +21888,11 @@
       <c r="Z256" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:26">
+      <c r="AA256" s="3">
+        <v>340.639566</v>
+      </c>
+    </row>
+    <row r="257" spans="1:27">
       <c r="A257" s="2">
         <v>40056</v>
       </c>
@@ -21202,8 +21971,11 @@
       <c r="Z257" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:26">
+      <c r="AA257" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="258" spans="1:27">
       <c r="A258" s="2">
         <v>40086</v>
       </c>
@@ -21282,8 +22054,11 @@
       <c r="Z258" s="3">
         <v>182</v>
       </c>
-    </row>
-    <row r="259" spans="1:26">
+      <c r="AA258" s="3">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="259" spans="1:27">
       <c r="A259" s="2">
         <v>40117</v>
       </c>
@@ -21362,8 +22137,11 @@
       <c r="Z259" s="3">
         <v>209</v>
       </c>
-    </row>
-    <row r="260" spans="1:26">
+      <c r="AA259" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="260" spans="1:27">
       <c r="A260" s="2">
         <v>40147</v>
       </c>
@@ -21442,8 +22220,11 @@
       <c r="Z260" s="3">
         <v>244</v>
       </c>
-    </row>
-    <row r="261" spans="1:26">
+      <c r="AA260" s="3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="261" spans="1:27">
       <c r="A261" s="2">
         <v>40178</v>
       </c>
@@ -21522,8 +22303,11 @@
       <c r="Z261" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:26">
+      <c r="AA261" s="3">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="262" spans="1:27">
       <c r="A262" s="2">
         <v>40209</v>
       </c>
@@ -21602,8 +22386,11 @@
       <c r="Z262" s="3">
         <v>23.3</v>
       </c>
-    </row>
-    <row r="263" spans="1:26">
+      <c r="AA262" s="3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="263" spans="1:27">
       <c r="A263" s="2">
         <v>40237</v>
       </c>
@@ -21682,8 +22469,11 @@
       <c r="Z263" s="3">
         <v>45.4</v>
       </c>
-    </row>
-    <row r="264" spans="1:26">
+      <c r="AA263" s="3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="264" spans="1:27">
       <c r="A264" s="2">
         <v>40268</v>
       </c>
@@ -21762,8 +22552,11 @@
       <c r="Z264" s="3">
         <v>81.7</v>
       </c>
-    </row>
-    <row r="265" spans="1:26">
+      <c r="AA264" s="3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="265" spans="1:27">
       <c r="A265" s="2">
         <v>40298</v>
       </c>
@@ -21842,8 +22635,11 @@
       <c r="Z265" s="3">
         <v>115.6</v>
       </c>
-    </row>
-    <row r="266" spans="1:26">
+      <c r="AA265" s="3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="266" spans="1:27">
       <c r="A266" s="2">
         <v>40329</v>
       </c>
@@ -21922,8 +22718,11 @@
       <c r="Z266" s="3">
         <v>158.4</v>
       </c>
-    </row>
-    <row r="267" spans="1:26">
+      <c r="AA266" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="267" spans="1:27">
       <c r="A267" s="2">
         <v>40359</v>
       </c>
@@ -22002,8 +22801,11 @@
       <c r="Z267" s="3">
         <v>202.8</v>
       </c>
-    </row>
-    <row r="268" spans="1:26">
+      <c r="AA267" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="268" spans="1:27">
       <c r="A268" s="2">
         <v>40390</v>
       </c>
@@ -22082,8 +22884,11 @@
       <c r="Z268" s="3">
         <v>216.2</v>
       </c>
-    </row>
-    <row r="269" spans="1:26">
+      <c r="AA268" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="269" spans="1:27">
       <c r="A269" s="2">
         <v>40421</v>
       </c>
@@ -22162,8 +22967,11 @@
       <c r="Z269" s="3">
         <v>254.9</v>
       </c>
-    </row>
-    <row r="270" spans="1:26">
+      <c r="AA269" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="270" spans="1:27">
       <c r="A270" s="2">
         <v>40451</v>
       </c>
@@ -22242,8 +23050,11 @@
       <c r="Z270" s="3">
         <v>285.60000000000002</v>
       </c>
-    </row>
-    <row r="271" spans="1:26">
+      <c r="AA270" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="271" spans="1:27">
       <c r="A271" s="2">
         <v>40482</v>
       </c>
@@ -22322,8 +23133,11 @@
       <c r="Z271" s="3">
         <v>312.3</v>
       </c>
-    </row>
-    <row r="272" spans="1:26">
+      <c r="AA271" s="3">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="272" spans="1:27">
       <c r="A272" s="2">
         <v>40512</v>
       </c>
@@ -22402,8 +23216,11 @@
       <c r="Z272" s="3">
         <v>373.1</v>
       </c>
-    </row>
-    <row r="273" spans="1:26">
+      <c r="AA272" s="3">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="273" spans="1:27">
       <c r="A273" s="2">
         <v>40543</v>
       </c>
@@ -22482,8 +23299,11 @@
       <c r="Z273" s="3">
         <v>430.3</v>
       </c>
-    </row>
-    <row r="274" spans="1:26">
+      <c r="AA273" s="3">
+        <v>333.30973399999999</v>
+      </c>
+    </row>
+    <row r="274" spans="1:27">
       <c r="A274" s="2">
         <v>40574</v>
       </c>
@@ -22562,8 +23382,11 @@
       <c r="Z274" s="3">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="275" spans="1:26">
+      <c r="AA274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:27">
       <c r="A275" s="2">
         <v>40602</v>
       </c>
@@ -22642,8 +23465,11 @@
       <c r="Z275" s="3">
         <v>98.7</v>
       </c>
-    </row>
-    <row r="276" spans="1:26">
+      <c r="AA275" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="276" spans="1:27">
       <c r="A276" s="2">
         <v>40633</v>
       </c>
@@ -22722,8 +23548,11 @@
       <c r="Z276" s="3">
         <v>164.5</v>
       </c>
-    </row>
-    <row r="277" spans="1:26">
+      <c r="AA276" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="277" spans="1:27">
       <c r="A277" s="2">
         <v>40663</v>
       </c>
@@ -22802,8 +23631,11 @@
       <c r="Z277" s="3">
         <v>226</v>
       </c>
-    </row>
-    <row r="278" spans="1:26">
+      <c r="AA277" s="3">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="278" spans="1:27">
       <c r="A278" s="2">
         <v>40694</v>
       </c>
@@ -22882,8 +23714,11 @@
       <c r="Z278" s="3">
         <v>307.3</v>
       </c>
-    </row>
-    <row r="279" spans="1:26">
+      <c r="AA278" s="3">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="279" spans="1:27">
       <c r="A279" s="2">
         <v>40724</v>
       </c>
@@ -22962,8 +23797,11 @@
       <c r="Z279" s="3">
         <v>373.9</v>
       </c>
-    </row>
-    <row r="280" spans="1:26">
+      <c r="AA279" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="280" spans="1:27">
       <c r="A280" s="2">
         <v>40755</v>
       </c>
@@ -23042,8 +23880,11 @@
       <c r="Z280" s="3">
         <v>433.2</v>
       </c>
-    </row>
-    <row r="281" spans="1:26">
+      <c r="AA280" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="281" spans="1:27">
       <c r="A281" s="2">
         <v>40786</v>
       </c>
@@ -23122,8 +23963,11 @@
       <c r="Z281" s="3">
         <v>483.5</v>
       </c>
-    </row>
-    <row r="282" spans="1:26">
+      <c r="AA281" s="3">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="282" spans="1:27">
       <c r="A282" s="2">
         <v>40816</v>
       </c>
@@ -23202,8 +24046,11 @@
       <c r="Z282" s="3">
         <v>493.6</v>
       </c>
-    </row>
-    <row r="283" spans="1:26">
+      <c r="AA282" s="3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="283" spans="1:27">
       <c r="A283" s="2">
         <v>40847</v>
       </c>
@@ -23282,8 +24129,11 @@
       <c r="Z283" s="3">
         <v>548.4</v>
       </c>
-    </row>
-    <row r="284" spans="1:26">
+      <c r="AA283" s="3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="284" spans="1:27">
       <c r="A284" s="2">
         <v>40877</v>
       </c>
@@ -23362,8 +24212,11 @@
       <c r="Z284" s="3">
         <v>615.4</v>
       </c>
-    </row>
-    <row r="285" spans="1:26">
+      <c r="AA284" s="3">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="285" spans="1:27">
       <c r="A285" s="2">
         <v>40908</v>
       </c>
@@ -23442,8 +24295,11 @@
       <c r="Z285" s="3">
         <v>687.4</v>
       </c>
-    </row>
-    <row r="286" spans="1:26">
+      <c r="AA285" s="3">
+        <v>329.14610699999997</v>
+      </c>
+    </row>
+    <row r="286" spans="1:27">
       <c r="A286" s="2">
         <v>40939</v>
       </c>
@@ -23522,8 +24378,11 @@
       <c r="Z286" s="3">
         <v>54.9</v>
       </c>
-    </row>
-    <row r="287" spans="1:26">
+      <c r="AA286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:27">
       <c r="A287" s="2">
         <v>40968</v>
       </c>
@@ -23602,8 +24461,11 @@
       <c r="Z287" s="3">
         <v>122.1</v>
       </c>
-    </row>
-    <row r="288" spans="1:26">
+      <c r="AA287" s="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="288" spans="1:27">
       <c r="A288" s="2">
         <v>40999</v>
       </c>
@@ -23682,8 +24544,11 @@
       <c r="Z288" s="3">
         <v>204</v>
       </c>
-    </row>
-    <row r="289" spans="1:26">
+      <c r="AA288" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="289" spans="1:27">
       <c r="A289" s="2">
         <v>41029</v>
       </c>
@@ -23762,8 +24627,11 @@
       <c r="Z289" s="3">
         <v>269.7</v>
       </c>
-    </row>
-    <row r="290" spans="1:26">
+      <c r="AA289" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="290" spans="1:27">
       <c r="A290" s="2">
         <v>41060</v>
       </c>
@@ -23842,8 +24710,11 @@
       <c r="Z290" s="3">
         <v>345.5</v>
       </c>
-    </row>
-    <row r="291" spans="1:26">
+      <c r="AA290" s="3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="291" spans="1:27">
       <c r="A291" s="2">
         <v>41090</v>
       </c>
@@ -23922,8 +24793,11 @@
       <c r="Z291" s="3">
         <v>431.6</v>
       </c>
-    </row>
-    <row r="292" spans="1:26">
+      <c r="AA291" s="3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="292" spans="1:27">
       <c r="A292" s="2">
         <v>41121</v>
       </c>
@@ -24002,8 +24876,11 @@
       <c r="Z292" s="3">
         <v>497.7</v>
       </c>
-    </row>
-    <row r="293" spans="1:26">
+      <c r="AA292" s="3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="293" spans="1:27">
       <c r="A293" s="2">
         <v>41152</v>
       </c>
@@ -24082,8 +24959,11 @@
       <c r="Z293" s="3">
         <v>566.5</v>
       </c>
-    </row>
-    <row r="294" spans="1:26">
+      <c r="AA293" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="294" spans="1:27">
       <c r="A294" s="2">
         <v>41182</v>
       </c>
@@ -24162,8 +25042,11 @@
       <c r="Z294" s="3">
         <v>626.20000000000005</v>
       </c>
-    </row>
-    <row r="295" spans="1:26">
+      <c r="AA294" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="295" spans="1:27">
       <c r="A295" s="2">
         <v>41213</v>
       </c>
@@ -24242,8 +25125,11 @@
       <c r="Z295" s="3">
         <v>707.7</v>
       </c>
-    </row>
-    <row r="296" spans="1:26">
+      <c r="AA295" s="3">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="296" spans="1:27">
       <c r="A296" s="2">
         <v>41243</v>
       </c>
@@ -24322,8 +25208,11 @@
       <c r="Z296" s="3">
         <v>836.2</v>
       </c>
-    </row>
-    <row r="297" spans="1:26">
+      <c r="AA296" s="3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="297" spans="1:27">
       <c r="A297" s="2">
         <v>41274</v>
       </c>
@@ -24402,8 +25291,11 @@
       <c r="Z297" s="3">
         <v>934.3</v>
       </c>
-    </row>
-    <row r="298" spans="1:26">
+      <c r="AA297" s="3">
+        <v>324.63161100000002</v>
+      </c>
+    </row>
+    <row r="298" spans="1:27">
       <c r="A298" s="2">
         <v>41305</v>
       </c>
@@ -24482,8 +25374,11 @@
       <c r="Z298" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:26">
+      <c r="AA298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:27">
       <c r="A299" s="2">
         <v>41333</v>
       </c>
@@ -24562,8 +25457,11 @@
       <c r="Z299" s="3">
         <v>161.19999999999999</v>
       </c>
-    </row>
-    <row r="300" spans="1:26">
+      <c r="AA299" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="300" spans="1:27">
       <c r="A300" s="2">
         <v>41364</v>
       </c>
@@ -24642,8 +25540,11 @@
       <c r="Z300" s="3">
         <v>271.5</v>
       </c>
-    </row>
-    <row r="301" spans="1:26">
+      <c r="AA300" s="3">
+        <v>317.34948100000003</v>
+      </c>
+    </row>
+    <row r="301" spans="1:27">
       <c r="A301" s="2">
         <v>41394</v>
       </c>
@@ -24722,8 +25623,11 @@
       <c r="Z301" s="3">
         <v>378.7</v>
       </c>
-    </row>
-    <row r="302" spans="1:26">
+      <c r="AA301" s="3">
+        <v>317.71496000000002</v>
+      </c>
+    </row>
+    <row r="302" spans="1:27">
       <c r="A302" s="2">
         <v>41425</v>
       </c>
@@ -24802,8 +25706,11 @@
       <c r="Z302" s="3">
         <v>492.3</v>
       </c>
-    </row>
-    <row r="303" spans="1:26">
+      <c r="AA302" s="3">
+        <v>319.06506200000001</v>
+      </c>
+    </row>
+    <row r="303" spans="1:27">
       <c r="A303" s="2">
         <v>41455</v>
       </c>
@@ -24882,8 +25789,11 @@
       <c r="Z303" s="3">
         <v>599.9</v>
       </c>
-    </row>
-    <row r="304" spans="1:26">
+      <c r="AA303" s="3">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="304" spans="1:27">
       <c r="A304" s="2">
         <v>41486</v>
       </c>
@@ -24962,8 +25872,11 @@
       <c r="Z304" s="3">
         <v>692.9</v>
       </c>
-    </row>
-    <row r="305" spans="1:26">
+      <c r="AA304" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="305" spans="1:27">
       <c r="A305" s="2">
         <v>41517</v>
       </c>
@@ -25042,8 +25955,11 @@
       <c r="Z305" s="3">
         <v>789</v>
       </c>
-    </row>
-    <row r="306" spans="1:26">
+      <c r="AA305" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="306" spans="1:27">
       <c r="A306" s="2">
         <v>41547</v>
       </c>
@@ -25122,8 +26038,11 @@
       <c r="Z306" s="3">
         <v>892.7</v>
       </c>
-    </row>
-    <row r="307" spans="1:26">
+      <c r="AA306" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="307" spans="1:27">
       <c r="A307" s="2">
         <v>41578</v>
       </c>
@@ -25202,8 +26121,11 @@
       <c r="Z307" s="3">
         <v>998.7</v>
       </c>
-    </row>
-    <row r="308" spans="1:26">
+      <c r="AA307" s="3">
+        <v>321.206523</v>
+      </c>
+    </row>
+    <row r="308" spans="1:27">
       <c r="A308" s="2">
         <v>41608</v>
       </c>
@@ -25282,8 +26204,11 @@
       <c r="Z308" s="3">
         <v>1116.5999999999999</v>
       </c>
-    </row>
-    <row r="309" spans="1:26">
+      <c r="AA308" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="309" spans="1:27">
       <c r="A309" s="2">
         <v>41639</v>
       </c>
@@ -25362,8 +26287,11 @@
       <c r="Z309" s="3">
         <v>1246.2</v>
       </c>
-    </row>
-    <row r="310" spans="1:26">
+      <c r="AA309" s="3">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="310" spans="1:27">
       <c r="A310" s="2">
         <v>41670</v>
       </c>
@@ -25442,8 +26370,11 @@
       <c r="Z310" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:26">
+      <c r="AA310" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:27">
       <c r="A311" s="2">
         <v>41698</v>
       </c>
@@ -25522,8 +26453,11 @@
       <c r="Z311" s="3">
         <v>196.2</v>
       </c>
-    </row>
-    <row r="312" spans="1:26">
+      <c r="AA311" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="312" spans="1:27">
       <c r="A312" s="2">
         <v>41729</v>
       </c>
@@ -25602,8 +26536,11 @@
       <c r="Z312" s="3">
         <v>313.10000000000002</v>
       </c>
-    </row>
-    <row r="313" spans="1:26">
+      <c r="AA312" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="313" spans="1:27">
       <c r="A313" s="2">
         <v>41759</v>
       </c>
@@ -25682,8 +26619,11 @@
       <c r="Z313" s="3">
         <v>425.8</v>
       </c>
-    </row>
-    <row r="314" spans="1:26">
+      <c r="AA313" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="314" spans="1:27">
       <c r="A314" s="2">
         <v>41790</v>
       </c>
@@ -25762,8 +26702,11 @@
       <c r="Z314" s="3">
         <v>564.4</v>
       </c>
-    </row>
-    <row r="315" spans="1:26">
+      <c r="AA314" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="315" spans="1:27">
       <c r="A315" s="2">
         <v>41820</v>
       </c>
@@ -25842,8 +26785,11 @@
       <c r="Z315" s="3">
         <v>697.9</v>
       </c>
-    </row>
-    <row r="316" spans="1:26">
+      <c r="AA315" s="3">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="316" spans="1:27">
       <c r="A316" s="2">
         <v>41851</v>
       </c>
@@ -25922,8 +26868,11 @@
       <c r="Z316" s="3">
         <v>801.3</v>
       </c>
-    </row>
-    <row r="317" spans="1:26">
+      <c r="AA316" s="3">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="317" spans="1:27">
       <c r="A317" s="2">
         <v>41882</v>
       </c>
@@ -26002,8 +26951,11 @@
       <c r="Z317" s="3">
         <v>891.2</v>
       </c>
-    </row>
-    <row r="318" spans="1:26">
+      <c r="AA317" s="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="318" spans="1:27">
       <c r="A318" s="2">
         <v>41912</v>
       </c>
@@ -26082,8 +27034,11 @@
       <c r="Z318" s="3">
         <v>986.6</v>
       </c>
-    </row>
-    <row r="319" spans="1:26">
+      <c r="AA318" s="3">
+        <v>318.68741399999999</v>
+      </c>
+    </row>
+    <row r="319" spans="1:27">
       <c r="A319" s="2">
         <v>41943</v>
       </c>
@@ -26162,8 +27117,11 @@
       <c r="Z319" s="3">
         <v>1116.0999999999999</v>
       </c>
-    </row>
-    <row r="320" spans="1:26">
+      <c r="AA319" s="3">
+        <v>318.68741399999999</v>
+      </c>
+    </row>
+    <row r="320" spans="1:27">
       <c r="A320" s="2">
         <v>41973</v>
       </c>
@@ -26242,8 +27200,11 @@
       <c r="Z320" s="3">
         <v>1249.3</v>
       </c>
-    </row>
-    <row r="321" spans="1:26">
+      <c r="AA320" s="3">
+        <v>318.11462899999998</v>
+      </c>
+    </row>
+    <row r="321" spans="1:27">
       <c r="A321" s="2">
         <v>42004</v>
       </c>
@@ -26322,8 +27283,11 @@
       <c r="Z321" s="3">
         <v>1411.7</v>
       </c>
-    </row>
-    <row r="322" spans="1:26">
+      <c r="AA321" s="3">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="322" spans="1:27">
       <c r="A322" s="2">
         <v>42035</v>
       </c>
@@ -26402,8 +27366,11 @@
       <c r="Z322" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:26">
+      <c r="AA322" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:27">
       <c r="A323" s="2">
         <v>42063</v>
       </c>
@@ -26482,8 +27449,11 @@
       <c r="Z323" s="3">
         <v>241.66</v>
       </c>
-    </row>
-    <row r="324" spans="1:26">
+      <c r="AA323" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="324" spans="1:27">
       <c r="A324" s="2">
         <v>42094</v>
       </c>
@@ -26562,8 +27532,11 @@
       <c r="Z324" s="3">
         <v>397</v>
       </c>
-    </row>
-    <row r="325" spans="1:26">
+      <c r="AA324" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="325" spans="1:27">
       <c r="A325" s="2">
         <v>42124</v>
       </c>
@@ -26642,8 +27615,11 @@
       <c r="Z325" s="3">
         <v>554.5</v>
       </c>
-    </row>
-    <row r="326" spans="1:26">
+      <c r="AA325" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="326" spans="1:27">
       <c r="A326" s="2">
         <v>42155</v>
       </c>
@@ -26722,8 +27698,11 @@
       <c r="Z326" s="3">
         <v>713.9</v>
       </c>
-    </row>
-    <row r="327" spans="1:26">
+      <c r="AA326" s="3">
+        <v>312.59190000000001</v>
+      </c>
+    </row>
+    <row r="327" spans="1:27">
       <c r="A327" s="2">
         <v>42185</v>
       </c>
@@ -26802,8 +27781,11 @@
       <c r="Z327" s="3">
         <v>858.4</v>
       </c>
-    </row>
-    <row r="328" spans="1:26">
+      <c r="AA327" s="3">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="328" spans="1:27">
       <c r="A328" s="2">
         <v>42216</v>
       </c>
@@ -26882,8 +27864,11 @@
       <c r="Z328" s="3">
         <v>968.1</v>
       </c>
-    </row>
-    <row r="329" spans="1:26">
+      <c r="AA328" s="3">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="329" spans="1:27">
       <c r="A329" s="2">
         <v>42247</v>
       </c>
@@ -26962,8 +27947,11 @@
       <c r="Z329" s="3">
         <v>1078.0999999999999</v>
       </c>
-    </row>
-    <row r="330" spans="1:26">
+      <c r="AA329" s="3">
+        <v>316.56560000000002</v>
+      </c>
+    </row>
+    <row r="330" spans="1:27">
       <c r="A330" s="2">
         <v>42277</v>
       </c>
@@ -27042,8 +28030,11 @@
       <c r="Z330" s="3">
         <v>1195.3</v>
       </c>
-    </row>
-    <row r="331" spans="1:26">
+      <c r="AA330" s="3">
+        <v>316.95749999999998</v>
+      </c>
+    </row>
+    <row r="331" spans="1:27">
       <c r="A331" s="2">
         <v>42308</v>
       </c>
@@ -27122,8 +28113,11 @@
       <c r="Z331" s="3">
         <v>1370.7</v>
       </c>
-    </row>
-    <row r="332" spans="1:26">
+      <c r="AA331" s="3">
+        <v>316.86329999999998</v>
+      </c>
+    </row>
+    <row r="332" spans="1:27">
       <c r="A332" s="2">
         <v>42338</v>
       </c>
@@ -27202,8 +28196,11 @@
       <c r="Z332" s="3">
         <v>1548</v>
       </c>
-    </row>
-    <row r="333" spans="1:26">
+      <c r="AA332" s="3">
+        <v>316.41759999999999</v>
+      </c>
+    </row>
+    <row r="333" spans="1:27">
       <c r="A333" s="2">
         <v>42369</v>
       </c>
@@ -27282,8 +28279,11 @@
       <c r="Z333" s="3">
         <v>1680.6</v>
       </c>
-    </row>
-    <row r="334" spans="1:26">
+      <c r="AA333" s="3">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="334" spans="1:27">
       <c r="A334" s="2">
         <v>42400</v>
       </c>
@@ -27362,8 +28362,11 @@
       <c r="Z334" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="335" spans="1:26">
+      <c r="AA334" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:27">
       <c r="A335" s="2">
         <v>42429</v>
       </c>
@@ -27442,8 +28445,11 @@
       <c r="Z335" s="3">
         <v>289.3</v>
       </c>
-    </row>
-    <row r="336" spans="1:26">
+      <c r="AA335" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="336" spans="1:27">
       <c r="A336" s="2">
         <v>42460</v>
       </c>
@@ -27522,8 +28528,11 @@
       <c r="Z336" s="3">
         <v>476.2</v>
       </c>
-    </row>
-    <row r="337" spans="1:26">
+      <c r="AA336" s="3">
+        <v>303.86669999999998</v>
+      </c>
+    </row>
+    <row r="337" spans="1:27">
       <c r="A337" s="2">
         <v>42490</v>
       </c>
@@ -27602,8 +28611,11 @@
       <c r="Z337" s="3">
         <v>670</v>
       </c>
-    </row>
-    <row r="338" spans="1:26">
+      <c r="AA337" s="3">
+        <v>306.79739999999998</v>
+      </c>
+    </row>
+    <row r="338" spans="1:27">
       <c r="A338" s="2">
         <v>42521</v>
       </c>
@@ -27682,8 +28694,11 @@
       <c r="Z338" s="3">
         <v>884.6</v>
       </c>
-    </row>
-    <row r="339" spans="1:26">
+      <c r="AA338" s="3">
+        <v>309.4434</v>
+      </c>
+    </row>
+    <row r="339" spans="1:27">
       <c r="A339" s="2">
         <v>42551</v>
       </c>
@@ -27762,8 +28777,11 @@
       <c r="Z339" s="3">
         <v>1065.0999999999999</v>
       </c>
-    </row>
-    <row r="340" spans="1:26">
+      <c r="AA339" s="3">
+        <v>311.0256</v>
+      </c>
+    </row>
+    <row r="340" spans="1:27">
       <c r="A340" s="2">
         <v>42582</v>
       </c>
@@ -27842,8 +28860,11 @@
       <c r="Z340" s="3">
         <v>1209.5</v>
       </c>
-    </row>
-    <row r="341" spans="1:26">
+      <c r="AA340" s="3">
+        <v>312.25360000000001</v>
+      </c>
+    </row>
+    <row r="341" spans="1:27">
       <c r="A341" s="2">
         <v>42613</v>
       </c>
@@ -27922,8 +28943,11 @@
       <c r="Z341" s="3">
         <v>1357.8</v>
       </c>
-    </row>
-    <row r="342" spans="1:26">
+      <c r="AA341" s="3">
+        <v>313.06369999999998</v>
+      </c>
+    </row>
+    <row r="342" spans="1:27">
       <c r="A342" s="2">
         <v>42643</v>
       </c>
@@ -28002,8 +29026,11 @@
       <c r="Z342" s="3">
         <v>1498.3</v>
       </c>
-    </row>
-    <row r="343" spans="1:26">
+      <c r="AA342" s="3">
+        <v>313.71010000000001</v>
+      </c>
+    </row>
+    <row r="343" spans="1:27">
       <c r="A343" s="2">
         <v>42674</v>
       </c>
@@ -28082,8 +29109,11 @@
       <c r="Z343" s="3">
         <v>1693.8</v>
       </c>
-    </row>
-    <row r="344" spans="1:26">
+      <c r="AA343" s="3">
+        <v>313.79910000000001</v>
+      </c>
+    </row>
+    <row r="344" spans="1:27">
       <c r="A344" s="2">
         <v>42704</v>
       </c>
@@ -28162,8 +29192,11 @@
       <c r="Z344" s="3">
         <v>1907.6</v>
       </c>
-    </row>
-    <row r="345" spans="1:26">
+      <c r="AA344" s="3">
+        <v>312.82240000000002</v>
+      </c>
+    </row>
+    <row r="345" spans="1:27">
       <c r="A345" s="2">
         <v>42735</v>
       </c>
@@ -28242,8 +29275,11 @@
       <c r="Z345" s="3">
         <v>2113.1999999999998</v>
       </c>
-    </row>
-    <row r="346" spans="1:26">
+      <c r="AA345" s="3">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="346" spans="1:27">
       <c r="A346" s="2">
         <v>42766</v>
       </c>
@@ -28322,8 +29358,11 @@
       <c r="Z346" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:26">
+      <c r="AA346" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:27">
       <c r="A347" s="2">
         <v>42794</v>
       </c>
@@ -28402,8 +29441,11 @@
       <c r="Z347" s="3">
         <v>398</v>
       </c>
-    </row>
-    <row r="348" spans="1:26">
+      <c r="AA347" s="3">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="348" spans="1:27">
       <c r="A348" s="2">
         <v>42825</v>
       </c>
@@ -28482,8 +29524,11 @@
       <c r="Z348" s="3">
         <v>621.20000000000005</v>
       </c>
-    </row>
-    <row r="349" spans="1:26">
+      <c r="AA348" s="3">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="349" spans="1:27">
       <c r="A349" s="2">
         <v>42855</v>
       </c>
@@ -28562,8 +29607,11 @@
       <c r="Z349" s="3">
         <v>871.7</v>
       </c>
-    </row>
-    <row r="350" spans="1:26">
+      <c r="AA349" s="3">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="350" spans="1:27">
       <c r="A350" s="2">
         <v>42886</v>
       </c>
@@ -28642,8 +29690,11 @@
       <c r="Z350" s="3">
         <v>1118</v>
       </c>
-    </row>
-    <row r="351" spans="1:26">
+      <c r="AA350" s="3">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="351" spans="1:27">
       <c r="A351" s="2">
         <v>42916</v>
       </c>
@@ -28722,8 +29773,11 @@
       <c r="Z351" s="3">
         <v>1327</v>
       </c>
-    </row>
-    <row r="352" spans="1:26">
+      <c r="AA351" s="3">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="352" spans="1:27">
       <c r="A352" s="2">
         <v>42947</v>
       </c>
@@ -28802,8 +29856,11 @@
       <c r="Z352" s="3">
         <v>1522</v>
       </c>
-    </row>
-    <row r="353" spans="1:26">
+      <c r="AA352" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="353" spans="1:27">
       <c r="A353" s="2">
         <v>42978</v>
       </c>
@@ -28882,8 +29939,11 @@
       <c r="Z353" s="3">
         <v>1716</v>
       </c>
-    </row>
-    <row r="354" spans="1:26">
+      <c r="AA353" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="354" spans="1:27">
       <c r="A354" s="2">
         <v>43008</v>
       </c>
@@ -28962,8 +30022,11 @@
       <c r="Z354" s="3">
         <v>1914</v>
       </c>
-    </row>
-    <row r="355" spans="1:26">
+      <c r="AA354" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="355" spans="1:27">
       <c r="A355" s="2">
         <v>43039</v>
       </c>
@@ -29042,8 +30105,11 @@
       <c r="Z355" s="3">
         <v>2147</v>
       </c>
-    </row>
-    <row r="356" spans="1:26">
+      <c r="AA355" s="3">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="356" spans="1:27">
       <c r="A356" s="2">
         <v>43069</v>
       </c>
@@ -29122,8 +30188,11 @@
       <c r="Z356" s="3">
         <v>2434</v>
       </c>
-    </row>
-    <row r="357" spans="1:26">
+      <c r="AA356" s="3">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="357" spans="1:27">
       <c r="A357" s="2">
         <v>43100</v>
       </c>
@@ -29202,8 +30271,11 @@
       <c r="Z357" s="3">
         <v>2695</v>
       </c>
-    </row>
-    <row r="358" spans="1:26">
+      <c r="AA357" s="3">
+        <v>309.06464499999998</v>
+      </c>
+    </row>
+    <row r="358" spans="1:27">
       <c r="A358" s="2">
         <v>43131</v>
       </c>
@@ -29282,8 +30354,11 @@
       <c r="Z358" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:26">
+      <c r="AA358" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:27">
       <c r="A359" s="2">
         <v>43159</v>
       </c>
@@ -29362,8 +30437,11 @@
       <c r="Z359" s="3">
         <v>568.1</v>
       </c>
-    </row>
-    <row r="360" spans="1:26">
+      <c r="AA359" s="3">
+        <v>299.60000000000002</v>
+      </c>
+    </row>
+    <row r="360" spans="1:27">
       <c r="A360" s="2">
         <v>43190</v>
       </c>
@@ -29442,8 +30520,11 @@
       <c r="Z360" s="3">
         <v>871.6</v>
       </c>
-    </row>
-    <row r="361" spans="1:26">
+      <c r="AA360" s="3">
+        <v>300.60000000000002</v>
+      </c>
+    </row>
+    <row r="361" spans="1:27">
       <c r="A361" s="2">
         <v>43220</v>
       </c>
@@ -29522,8 +30603,11 @@
       <c r="Z361" s="3">
         <v>1197.2</v>
       </c>
-    </row>
-    <row r="362" spans="1:26">
+      <c r="AA361" s="3">
+        <v>303.8</v>
+      </c>
+    </row>
+    <row r="362" spans="1:27">
       <c r="A362" s="2">
         <v>43251</v>
       </c>
@@ -29602,8 +30686,11 @@
       <c r="Z362" s="3">
         <v>1484.2</v>
       </c>
-    </row>
-    <row r="363" spans="1:26">
+      <c r="AA362" s="3">
+        <v>305.60000000000002</v>
+      </c>
+    </row>
+    <row r="363" spans="1:27">
       <c r="A363" s="2">
         <v>43281</v>
       </c>
@@ -29682,8 +30769,11 @@
       <c r="Z363" s="3">
         <v>1712.5</v>
       </c>
-    </row>
-    <row r="364" spans="1:26">
+      <c r="AA363" s="3">
+        <v>307.60000000000002</v>
+      </c>
+    </row>
+    <row r="364" spans="1:27">
       <c r="A364" s="2">
         <v>43312</v>
       </c>
@@ -29762,8 +30852,11 @@
       <c r="Z364" s="3">
         <v>1948.5</v>
       </c>
-    </row>
-    <row r="365" spans="1:26">
+      <c r="AA364" s="3">
+        <v>308.89999999999998</v>
+      </c>
+    </row>
+    <row r="365" spans="1:27">
       <c r="A365" s="2">
         <v>43343</v>
       </c>
@@ -29842,8 +30935,11 @@
       <c r="Z365" s="3">
         <v>2128.6999999999998</v>
       </c>
-    </row>
-    <row r="366" spans="1:26">
+      <c r="AA365" s="3">
+        <v>309.7</v>
+      </c>
+    </row>
+    <row r="366" spans="1:27">
       <c r="A366" s="2">
         <v>43373</v>
       </c>
@@ -29922,8 +31018,11 @@
       <c r="Z366" s="3">
         <v>2367.3000000000002</v>
       </c>
-    </row>
-    <row r="367" spans="1:26">
+      <c r="AA366" s="3">
+        <v>311.2</v>
+      </c>
+    </row>
+    <row r="367" spans="1:27">
       <c r="A367" s="2">
         <v>43404</v>
       </c>
@@ -30002,8 +31101,11 @@
       <c r="Z367" s="3">
         <v>2624.5</v>
       </c>
-    </row>
-    <row r="368" spans="1:26">
+      <c r="AA367" s="3">
+        <v>310.2</v>
+      </c>
+    </row>
+    <row r="368" spans="1:27">
       <c r="A368" s="2">
         <v>43434</v>
       </c>
@@ -30082,8 +31184,11 @@
       <c r="Z368" s="3">
         <v>2896.8</v>
       </c>
-    </row>
-    <row r="369" spans="1:26">
+      <c r="AA368" s="3">
+        <v>309.3</v>
+      </c>
+    </row>
+    <row r="369" spans="1:27">
       <c r="A369" s="2">
         <v>43465</v>
       </c>
@@ -30162,8 +31267,11 @@
       <c r="Z369" s="3">
         <v>3253.2</v>
       </c>
-    </row>
-    <row r="370" spans="1:26">
+      <c r="AA369" s="3">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="370" spans="1:27">
       <c r="A370" s="2">
         <v>43496</v>
       </c>
@@ -30242,8 +31350,11 @@
       <c r="Z370" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:26">
+      <c r="AA370" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:27">
       <c r="A371" s="2">
         <v>43524</v>
       </c>
@@ -30322,8 +31433,11 @@
       <c r="Z371" s="3">
         <v>571.70000000000005</v>
       </c>
-    </row>
-    <row r="372" spans="1:26">
+      <c r="AA371" s="3">
+        <v>296.5</v>
+      </c>
+    </row>
+    <row r="372" spans="1:27">
       <c r="A372" s="2">
         <v>43555</v>
       </c>
@@ -30402,8 +31516,11 @@
       <c r="Z372" s="3">
         <v>915.5</v>
       </c>
-    </row>
-    <row r="373" spans="1:26">
+      <c r="AA372" s="3">
+        <v>298.39999999999998</v>
+      </c>
+    </row>
+    <row r="373" spans="1:27">
       <c r="A373" s="2">
         <v>43585</v>
       </c>
@@ -30482,8 +31599,11 @@
       <c r="Z373" s="3">
         <v>1259.4000000000001</v>
       </c>
-    </row>
-    <row r="374" spans="1:26">
+      <c r="AA373" s="3">
+        <v>301.7</v>
+      </c>
+    </row>
+    <row r="374" spans="1:27">
       <c r="A374" s="2">
         <v>43616</v>
       </c>
@@ -30562,8 +31682,11 @@
       <c r="Z374" s="3">
         <v>1615.3</v>
       </c>
-    </row>
-    <row r="375" spans="1:26">
+      <c r="AA374" s="3">
+        <v>303.39999999999998</v>
+      </c>
+    </row>
+    <row r="375" spans="1:27">
       <c r="A375" s="2">
         <v>43646</v>
       </c>
@@ -30642,8 +31765,11 @@
       <c r="Z375" s="3">
         <v>1879.3</v>
       </c>
-    </row>
-    <row r="376" spans="1:26">
+      <c r="AA375" s="3">
+        <v>306.2</v>
+      </c>
+    </row>
+    <row r="376" spans="1:27">
       <c r="A376" s="2">
         <v>43677</v>
       </c>
@@ -30722,8 +31848,11 @@
       <c r="Z376" s="3">
         <v>2107.8000000000002</v>
       </c>
-    </row>
-    <row r="377" spans="1:26">
+      <c r="AA376" s="3">
+        <v>307.5</v>
+      </c>
+    </row>
+    <row r="377" spans="1:27">
       <c r="A377" s="2">
         <v>43708</v>
       </c>
@@ -30802,8 +31931,11 @@
       <c r="Z377" s="3">
         <v>2334.6999999999998</v>
       </c>
-    </row>
-    <row r="378" spans="1:26">
+      <c r="AA377" s="3">
+        <v>309.3</v>
+      </c>
+    </row>
+    <row r="378" spans="1:27">
       <c r="A378" s="2">
         <v>43738</v>
       </c>
@@ -30882,8 +32014,11 @@
       <c r="Z378" s="3">
         <v>2566.4</v>
       </c>
-    </row>
-    <row r="379" spans="1:26">
+      <c r="AA378" s="3">
+        <v>310.39999999999998</v>
+      </c>
+    </row>
+    <row r="379" spans="1:27">
       <c r="A379" s="2">
         <v>43769</v>
       </c>
@@ -30962,8 +32097,11 @@
       <c r="Z379" s="3">
         <v>2856.8</v>
       </c>
-    </row>
-    <row r="380" spans="1:26">
+      <c r="AA379" s="3">
+        <v>309.7</v>
+      </c>
+    </row>
+    <row r="380" spans="1:27">
       <c r="A380" s="2">
         <v>43799</v>
       </c>
@@ -31042,8 +32180,11 @@
       <c r="Z380" s="3">
         <v>3204</v>
       </c>
-    </row>
-    <row r="381" spans="1:26">
+      <c r="AA380" s="3">
+        <v>308.3</v>
+      </c>
+    </row>
+    <row r="381" spans="1:27">
       <c r="A381" s="2">
         <v>43830</v>
       </c>
@@ -31122,8 +32263,11 @@
       <c r="Z381" s="3">
         <v>3577.4</v>
       </c>
-    </row>
-    <row r="382" spans="1:26">
+      <c r="AA381" s="3">
+        <v>308.3</v>
+      </c>
+    </row>
+    <row r="382" spans="1:27">
       <c r="A382" s="2">
         <v>43861</v>
       </c>
@@ -31202,8 +32346,11 @@
       <c r="Z382" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:26">
+      <c r="AA382" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:27">
       <c r="A383" s="2">
         <v>43890</v>
       </c>
@@ -31282,8 +32429,11 @@
       <c r="Z383" s="3">
         <v>593.6</v>
       </c>
-    </row>
-    <row r="384" spans="1:26">
+      <c r="AA383" s="3">
+        <v>291.8</v>
+      </c>
+    </row>
+    <row r="384" spans="1:27">
       <c r="A384" s="2">
         <v>43921</v>
       </c>
@@ -31362,8 +32512,11 @@
       <c r="Z384" s="3">
         <v>1022.4</v>
       </c>
-    </row>
-    <row r="385" spans="1:26">
+      <c r="AA384" s="3">
+        <v>293.39999999999998</v>
+      </c>
+    </row>
+    <row r="385" spans="1:27">
       <c r="A385" s="2">
         <v>43951</v>
       </c>
@@ -31442,8 +32595,11 @@
       <c r="Z385" s="3">
         <v>1383</v>
       </c>
-    </row>
-    <row r="386" spans="1:26">
+      <c r="AA385" s="3">
+        <v>296.8</v>
+      </c>
+    </row>
+    <row r="386" spans="1:27">
       <c r="A386" s="2">
         <v>43982</v>
       </c>
@@ -31522,8 +32678,11 @@
       <c r="Z386" s="3">
         <v>1786.2</v>
       </c>
-    </row>
-    <row r="387" spans="1:26">
+      <c r="AA386" s="3">
+        <v>300.60000000000002</v>
+      </c>
+    </row>
+    <row r="387" spans="1:27">
       <c r="A387" s="2">
         <v>44012</v>
       </c>
@@ -31602,8 +32761,11 @@
       <c r="Z387" s="3">
         <v>2117</v>
       </c>
-    </row>
-    <row r="388" spans="1:26">
+      <c r="AA387" s="3">
+        <v>302.10000000000002</v>
+      </c>
+    </row>
+    <row r="388" spans="1:27">
       <c r="A388" s="2">
         <v>44043</v>
       </c>
@@ -31682,8 +32844,11 @@
       <c r="Z388" s="3">
         <v>2406.1</v>
       </c>
-    </row>
-    <row r="389" spans="1:26">
+      <c r="AA388" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="389" spans="1:27">
       <c r="A389" s="2">
         <v>44074</v>
       </c>
@@ -31762,8 +32927,11 @@
       <c r="Z389" s="3">
         <v>2695.9</v>
       </c>
-    </row>
-    <row r="390" spans="1:26">
+      <c r="AA389" s="3">
+        <v>305.10000000000002</v>
+      </c>
+    </row>
+    <row r="390" spans="1:27">
       <c r="A390" s="2">
         <v>44104</v>
       </c>
@@ -31842,8 +33010,11 @@
       <c r="Z390" s="3">
         <v>2971.9</v>
       </c>
-    </row>
-    <row r="391" spans="1:26">
+      <c r="AA390" s="3">
+        <v>306.10000000000002</v>
+      </c>
+    </row>
+    <row r="391" spans="1:27">
       <c r="A391" s="2">
         <v>44135</v>
       </c>
@@ -31922,8 +33093,11 @@
       <c r="Z391" s="3">
         <v>3326.6</v>
       </c>
-    </row>
-    <row r="392" spans="1:26">
+      <c r="AA391" s="3">
+        <v>305.7</v>
+      </c>
+    </row>
+    <row r="392" spans="1:27">
       <c r="A392" s="2">
         <v>44165</v>
       </c>
@@ -32002,8 +33176,11 @@
       <c r="Z392" s="3">
         <v>3731</v>
       </c>
-    </row>
-    <row r="393" spans="1:26">
+      <c r="AA392" s="3">
+        <v>304.2</v>
+      </c>
+    </row>
+    <row r="393" spans="1:27">
       <c r="A393" s="2">
         <v>44196</v>
       </c>
@@ -32082,8 +33259,11 @@
       <c r="Z393" s="3">
         <v>4146</v>
       </c>
-    </row>
-    <row r="394" spans="1:26">
+      <c r="AA393" s="3">
+        <v>305.5</v>
+      </c>
+    </row>
+    <row r="394" spans="1:27">
       <c r="A394" s="2">
         <v>44227</v>
       </c>
@@ -32162,8 +33342,11 @@
       <c r="Z394" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:26">
+      <c r="AA394" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:27">
       <c r="A395" s="2">
         <v>44255</v>
       </c>
@@ -32242,8 +33425,11 @@
       <c r="Z395" s="3">
         <v>914.5</v>
       </c>
-    </row>
-    <row r="396" spans="1:26">
+      <c r="AA395" s="3">
+        <v>292.3</v>
+      </c>
+    </row>
+    <row r="396" spans="1:27">
       <c r="A396" s="2">
         <v>44286</v>
       </c>
@@ -32322,8 +33508,11 @@
       <c r="Z396" s="3">
         <v>1400.6</v>
       </c>
-    </row>
-    <row r="397" spans="1:26">
+      <c r="AA396" s="3">
+        <v>294.39999999999998</v>
+      </c>
+    </row>
+    <row r="397" spans="1:27">
       <c r="A397" s="2">
         <v>44316</v>
       </c>
@@ -32402,8 +33591,11 @@
       <c r="Z397" s="3">
         <v>1870</v>
       </c>
-    </row>
-    <row r="398" spans="1:26">
+      <c r="AA397" s="3">
+        <v>297.10000000000002</v>
+      </c>
+    </row>
+    <row r="398" spans="1:27">
       <c r="A398" s="2">
         <v>44347</v>
       </c>
@@ -32482,8 +33674,11 @@
       <c r="Z398" s="3">
         <v>2382.3000000000002</v>
       </c>
-    </row>
-    <row r="399" spans="1:26">
+      <c r="AA398" s="3">
+        <v>299.10000000000002</v>
+      </c>
+    </row>
+    <row r="399" spans="1:27">
       <c r="A399" s="2">
         <v>44377</v>
       </c>
@@ -32562,8 +33757,11 @@
       <c r="Z399" s="3">
         <v>2819.2</v>
       </c>
-    </row>
-    <row r="400" spans="1:26">
+      <c r="AA399" s="3">
+        <v>301.39999999999998</v>
+      </c>
+    </row>
+    <row r="400" spans="1:27">
       <c r="A400" s="2">
         <v>44408</v>
       </c>
@@ -32642,8 +33840,11 @@
       <c r="Z400" s="3">
         <v>3294</v>
       </c>
-    </row>
-    <row r="401" spans="1:26">
+      <c r="AA400" s="3">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="401" spans="1:27">
       <c r="A401" s="2">
         <v>44439</v>
       </c>
@@ -32722,8 +33923,11 @@
       <c r="Z401" s="3">
         <v>3650.8</v>
       </c>
-    </row>
-    <row r="402" spans="1:26">
+      <c r="AA401" s="3">
+        <v>304.2</v>
+      </c>
+    </row>
+    <row r="402" spans="1:27">
       <c r="A402" s="2">
         <v>44469</v>
       </c>
@@ -32802,8 +34006,11 @@
       <c r="Z402" s="3">
         <v>4025</v>
       </c>
-    </row>
-    <row r="403" spans="1:26">
+      <c r="AA402" s="3">
+        <v>304.7</v>
+      </c>
+    </row>
+    <row r="403" spans="1:27">
       <c r="A403" s="2">
         <v>44500</v>
       </c>
@@ -32882,8 +34089,11 @@
       <c r="Z403" s="3">
         <v>4515</v>
       </c>
-    </row>
-    <row r="404" spans="1:26">
+      <c r="AA403" s="3">
+        <v>304.89999999999998</v>
+      </c>
+    </row>
+    <row r="404" spans="1:27">
       <c r="A404" s="2">
         <v>44530</v>
       </c>
@@ -32962,8 +34172,11 @@
       <c r="Z404" s="3">
         <v>5066.1000000000004</v>
       </c>
-    </row>
-    <row r="405" spans="1:26">
+      <c r="AA404" s="3">
+        <v>303.7</v>
+      </c>
+    </row>
+    <row r="405" spans="1:27">
       <c r="A405" s="2">
         <v>44561</v>
       </c>
@@ -33042,8 +34255,11 @@
       <c r="Z405" s="3">
         <v>5667</v>
       </c>
-    </row>
-    <row r="406" spans="1:26">
+      <c r="AA405" s="3">
+        <v>302.5</v>
+      </c>
+    </row>
+    <row r="406" spans="1:27">
       <c r="A406" s="2">
         <v>44592</v>
       </c>
@@ -33122,8 +34338,11 @@
       <c r="Z406" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:26">
+      <c r="AA406" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:27">
       <c r="A407" s="2">
         <v>44620</v>
       </c>
@@ -33202,8 +34421,11 @@
       <c r="Z407" s="3">
         <v>942.1</v>
       </c>
-    </row>
-    <row r="408" spans="1:26">
+      <c r="AA407" s="3">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="408" spans="1:27">
       <c r="A408" s="2">
         <v>44651</v>
       </c>
@@ -33282,8 +34504,11 @@
       <c r="Z408" s="3">
         <v>1627.4</v>
       </c>
-    </row>
-    <row r="409" spans="1:26">
+      <c r="AA408" s="3">
+        <v>291.5</v>
+      </c>
+    </row>
+    <row r="409" spans="1:27">
       <c r="A409" s="2">
         <v>44681</v>
       </c>
@@ -33362,8 +34587,11 @@
       <c r="Z409" s="3">
         <v>2264.6999999999998</v>
       </c>
-    </row>
-    <row r="410" spans="1:26">
+      <c r="AA409" s="3">
+        <v>295.7</v>
+      </c>
+    </row>
+    <row r="410" spans="1:27">
       <c r="A410" s="2">
         <v>44712</v>
       </c>
@@ -33442,8 +34670,11 @@
       <c r="Z410" s="3">
         <v>2876</v>
       </c>
-    </row>
-    <row r="411" spans="1:26">
+      <c r="AA410" s="3">
+        <v>298.10000000000002</v>
+      </c>
+    </row>
+    <row r="411" spans="1:27">
       <c r="A411" s="2">
         <v>44742</v>
       </c>
@@ -33522,8 +34753,11 @@
       <c r="Z411" s="3">
         <v>3429.1</v>
       </c>
-    </row>
-    <row r="412" spans="1:26">
+      <c r="AA411" s="3">
+        <v>300.2</v>
+      </c>
+    </row>
+    <row r="412" spans="1:27">
       <c r="A412" s="2">
         <v>44773</v>
       </c>
@@ -33602,8 +34836,11 @@
       <c r="Z412" s="3">
         <v>3904.7</v>
       </c>
-    </row>
-    <row r="413" spans="1:26">
+      <c r="AA412" s="3">
+        <v>301.8</v>
+      </c>
+    </row>
+    <row r="413" spans="1:27">
       <c r="A413" s="2">
         <v>44804</v>
       </c>
@@ -33682,8 +34919,11 @@
       <c r="Z413" s="3">
         <v>4373.2</v>
       </c>
-    </row>
-    <row r="414" spans="1:26">
+      <c r="AA413" s="3">
+        <v>303.10000000000002</v>
+      </c>
+    </row>
+    <row r="414" spans="1:27">
       <c r="A414" s="2">
         <v>44834</v>
       </c>
@@ -33762,8 +35002,11 @@
       <c r="Z414" s="3">
         <v>4870.8</v>
       </c>
-    </row>
-    <row r="415" spans="1:26">
+      <c r="AA414" s="3">
+        <v>304.3</v>
+      </c>
+    </row>
+    <row r="415" spans="1:27">
       <c r="A415" s="2">
         <v>44865</v>
       </c>
@@ -33842,8 +35085,11 @@
       <c r="Z415" s="3">
         <v>5513.4</v>
       </c>
-    </row>
-    <row r="416" spans="1:26">
+      <c r="AA415" s="3">
+        <v>304.8</v>
+      </c>
+    </row>
+    <row r="416" spans="1:27">
       <c r="A416" s="2">
         <v>44895</v>
       </c>
@@ -33922,8 +35168,11 @@
       <c r="Z416" s="3">
         <v>6144.8</v>
       </c>
-    </row>
-    <row r="417" spans="1:26">
+      <c r="AA416" s="3">
+        <v>303.45271100000002</v>
+      </c>
+    </row>
+    <row r="417" spans="1:27">
       <c r="A417" s="2">
         <v>44926</v>
       </c>
@@ -34002,8 +35251,11 @@
       <c r="Z417" s="3">
         <v>6867.2</v>
       </c>
-    </row>
-    <row r="418" spans="1:26">
+      <c r="AA417" s="3">
+        <v>301.5</v>
+      </c>
+    </row>
+    <row r="418" spans="1:27">
       <c r="A418" s="2">
         <v>44957</v>
       </c>
@@ -34082,8 +35334,11 @@
       <c r="Z418" s="3">
         <v>0</v>
       </c>
-    </row>
-    <row r="419" spans="1:26">
+      <c r="AA418" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:27">
       <c r="A419" s="2">
         <v>44985</v>
       </c>
@@ -34162,8 +35417,11 @@
       <c r="Z419" s="3">
         <v>1336.8416</v>
       </c>
-    </row>
-    <row r="420" spans="1:26">
+      <c r="AA419" s="3">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="420" spans="1:27">
       <c r="A420" s="2">
         <v>45016</v>
       </c>
@@ -34171,7 +35429,7 @@
         <v>544</v>
       </c>
       <c r="C420" s="3">
-        <v>1097</v>
+        <v>1098</v>
       </c>
       <c r="D420" s="3">
         <v>303</v>
@@ -34242,8 +35500,11 @@
       <c r="Z420" s="3">
         <v>2080.0774000000001</v>
       </c>
-    </row>
-    <row r="421" spans="1:26">
+      <c r="AA420" s="3">
+        <v>290.8</v>
+      </c>
+    </row>
+    <row r="421" spans="1:27">
       <c r="A421" s="2">
         <v>45046</v>
       </c>
@@ -34322,8 +35583,11 @@
       <c r="Z421" s="3">
         <v>2909.3</v>
       </c>
-    </row>
-    <row r="422" spans="1:26">
+      <c r="AA421" s="3">
+        <v>294.7</v>
+      </c>
+    </row>
+    <row r="422" spans="1:27">
       <c r="A422" s="2">
         <v>45077</v>
       </c>
@@ -34402,8 +35666,11 @@
       <c r="Z422" s="3">
         <v>3662.8</v>
       </c>
-    </row>
-    <row r="423" spans="1:26">
+      <c r="AA422" s="3">
+        <v>298.10000000000002</v>
+      </c>
+    </row>
+    <row r="423" spans="1:27">
       <c r="A423" s="2">
         <v>45107</v>
       </c>
@@ -34482,8 +35749,11 @@
       <c r="Z423" s="3">
         <v>4246.4386999999997</v>
       </c>
-    </row>
-    <row r="424" spans="1:26">
+      <c r="AA423" s="3">
+        <v>299.8</v>
+      </c>
+    </row>
+    <row r="424" spans="1:27">
       <c r="A424" s="2">
         <v>45138</v>
       </c>
@@ -34562,8 +35832,11 @@
       <c r="Z424" s="3">
         <v>4835.8999999999996</v>
       </c>
-    </row>
-    <row r="425" spans="1:26">
+      <c r="AA424" s="3">
+        <v>302.3</v>
+      </c>
+    </row>
+    <row r="425" spans="1:27">
       <c r="A425" s="2">
         <v>45169</v>
       </c>
@@ -34642,8 +35915,11 @@
       <c r="Z425" s="3">
         <v>5308.3909000000003</v>
       </c>
-    </row>
-    <row r="426" spans="1:26">
+      <c r="AA425" s="3">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="426" spans="1:27">
       <c r="A426" s="2">
         <v>45199</v>
       </c>
@@ -34722,8 +35998,11 @@
       <c r="Z426" s="3">
         <v>5836.8</v>
       </c>
-    </row>
-    <row r="427" spans="1:26">
+      <c r="AA426" s="3">
+        <v>304.89999999999998</v>
+      </c>
+    </row>
+    <row r="427" spans="1:27">
       <c r="A427" s="2">
         <v>45230</v>
       </c>
@@ -34802,8 +36081,11 @@
       <c r="Z427" s="3">
         <v>6424.3</v>
       </c>
-    </row>
-    <row r="428" spans="1:26">
+      <c r="AA427" s="3">
+        <v>304.7</v>
+      </c>
+    </row>
+    <row r="428" spans="1:27">
       <c r="A428" s="2">
         <v>45260</v>
       </c>
@@ -34882,8 +36164,11 @@
       <c r="Z428" s="3">
         <v>7252</v>
       </c>
-    </row>
-    <row r="429" spans="1:26">
+      <c r="AA428" s="3">
+        <v>303.39999999999998</v>
+      </c>
+    </row>
+    <row r="429" spans="1:27">
       <c r="A429" s="2">
         <v>45291</v>
       </c>
@@ -34962,8 +36247,11 @@
       <c r="Z429" s="3">
         <v>8090.4933000000001</v>
       </c>
-    </row>
-    <row r="430" spans="1:26">
+      <c r="AA429" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:27">
       <c r="A430" s="2">
         <v>45351</v>
       </c>
@@ -35042,8 +36330,11 @@
       <c r="Z430" s="3">
         <v>1497.3</v>
       </c>
-    </row>
-    <row r="431" spans="1:26">
+      <c r="AA430" s="3">
+        <v>289.8</v>
+      </c>
+    </row>
+    <row r="431" spans="1:27">
       <c r="A431" s="2">
         <v>45382</v>
       </c>
@@ -35063,10 +36354,10 @@
         <v>596</v>
       </c>
       <c r="G431" s="3">
-        <v>0</v>
+        <v>1192</v>
       </c>
       <c r="H431" s="3">
-        <v>0</v>
+        <v>581</v>
       </c>
       <c r="I431" s="3">
         <v>42340</v>
@@ -35081,16 +36372,16 @@
         <v>45664</v>
       </c>
       <c r="M431" s="3">
-        <v>0</v>
+        <v>37086</v>
       </c>
       <c r="N431" s="3">
-        <v>0</v>
+        <v>116830</v>
       </c>
       <c r="O431" s="3">
-        <v>0</v>
+        <v>12709</v>
       </c>
       <c r="P431" s="3">
-        <v>0</v>
+        <v>4477</v>
       </c>
       <c r="Q431" s="3">
         <v>66005</v>
@@ -35114,13 +36405,16 @@
         <v>1039.2</v>
       </c>
       <c r="X431" s="3">
-        <v>0</v>
+        <v>2665</v>
       </c>
       <c r="Y431" s="3">
         <v>783.22360000000003</v>
       </c>
       <c r="Z431" s="3">
         <v>2419.4</v>
+      </c>
+      <c r="AA431" s="3">
+        <v>293</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B290DDEE-FF2A-48BE-B85E-61473FC9C9A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32438A5B-01A4-4C9F-B6F2-469D355755F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -281,18 +281,6 @@
     <t>2010:2021</t>
   </si>
   <si>
-    <t>1989-02:2024-03</t>
-  </si>
-  <si>
-    <t>2001-01:2024-03</t>
-  </si>
-  <si>
-    <t>2016-05:2024-03</t>
-  </si>
-  <si>
-    <t>2009-09:2024-03</t>
-  </si>
-  <si>
     <t>Source</t>
   </si>
   <si>
@@ -317,12 +305,6 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2024-04-16</t>
-  </si>
-  <si>
-    <t>2024-04-18</t>
-  </si>
-  <si>
     <t>2018-12:2024-03</t>
   </si>
   <si>
@@ -336,6 +318,21 @@
   </si>
   <si>
     <t>2024-04-29</t>
+  </si>
+  <si>
+    <t>1989-02:2024-04</t>
+  </si>
+  <si>
+    <t>2001-01:2024-04</t>
+  </si>
+  <si>
+    <t>2016-05:2024-04</t>
+  </si>
+  <si>
+    <t>2009-09:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-17</t>
   </si>
 </sst>
 </file>
@@ -756,21 +753,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA431"/>
+  <dimension ref="A1:AA432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
       <selection activeCell="AA4" sqref="AA4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.26953125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.26953125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1245,10 +1242,10 @@
         <v>68</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="I8" s="4" t="s">
         <v>69</v>
@@ -1263,16 +1260,16 @@
         <v>69</v>
       </c>
       <c r="M8" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="N8" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="O8" s="4" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="P8" s="4" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="Q8" s="4" t="s">
         <v>70</v>
@@ -1287,22 +1284,22 @@
         <v>73</v>
       </c>
       <c r="U8" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="V8" s="4" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="W8" s="4" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="X8" s="4" t="s">
         <v>68</v>
       </c>
       <c r="Y8" s="4" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="Z8" s="4" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="4" t="s">
         <v>71</v>
@@ -1310,168 +1307,168 @@
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="4" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="4" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="S10" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="T10" s="5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="U10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="V10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="Y10" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36415,6 +36412,89 @@
       </c>
       <c r="AA431" s="3">
         <v>293</v>
+      </c>
+    </row>
+    <row r="432" spans="1:27">
+      <c r="A432" s="2">
+        <v>45412</v>
+      </c>
+      <c r="B432" s="3">
+        <v>0</v>
+      </c>
+      <c r="C432" s="3">
+        <v>0</v>
+      </c>
+      <c r="D432" s="3">
+        <v>0</v>
+      </c>
+      <c r="E432" s="3">
+        <v>0</v>
+      </c>
+      <c r="F432" s="3">
+        <v>0</v>
+      </c>
+      <c r="G432" s="3">
+        <v>0</v>
+      </c>
+      <c r="H432" s="3">
+        <v>0</v>
+      </c>
+      <c r="I432" s="3">
+        <v>0</v>
+      </c>
+      <c r="J432" s="3">
+        <v>0</v>
+      </c>
+      <c r="K432" s="3">
+        <v>0</v>
+      </c>
+      <c r="L432" s="3">
+        <v>0</v>
+      </c>
+      <c r="M432" s="3">
+        <v>0</v>
+      </c>
+      <c r="N432" s="3">
+        <v>0</v>
+      </c>
+      <c r="O432" s="3">
+        <v>0</v>
+      </c>
+      <c r="P432" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q432" s="3">
+        <v>0</v>
+      </c>
+      <c r="R432" s="3">
+        <v>0</v>
+      </c>
+      <c r="S432" s="3">
+        <v>0</v>
+      </c>
+      <c r="T432" s="3">
+        <v>0</v>
+      </c>
+      <c r="U432" s="3">
+        <v>20622</v>
+      </c>
+      <c r="V432" s="3">
+        <v>2937</v>
+      </c>
+      <c r="W432" s="3">
+        <v>1405</v>
+      </c>
+      <c r="X432" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y432" s="3">
+        <v>1114</v>
+      </c>
+      <c r="Z432" s="3">
+        <v>3250</v>
+      </c>
+      <c r="AA432" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32438A5B-01A4-4C9F-B6F2-469D355755F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B545029C-15B5-4D82-A83E-C0577CF71029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -257,22 +257,7 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>2000-12:2024-03</t>
-  </si>
-  <si>
-    <t>2018-02:2024-03</t>
-  </si>
-  <si>
     <t>2008-12:2024-03</t>
-  </si>
-  <si>
-    <t>2012-12:2024-03</t>
-  </si>
-  <si>
-    <t>2021-02:2024-03</t>
-  </si>
-  <si>
-    <t>2003-05:2024-03</t>
   </si>
   <si>
     <t>2009:2021</t>
@@ -294,12 +279,6 @@
   </si>
   <si>
     <t>Update</t>
-  </si>
-  <si>
-    <t>2024-04-22</t>
-  </si>
-  <si>
-    <t>2024-04-17</t>
   </si>
   <si>
     <t>2022-01-29</t>
@@ -333,6 +312,30 @@
   </si>
   <si>
     <t>2024-05-17</t>
+  </si>
+  <si>
+    <t>2000-12:2024-04</t>
+  </si>
+  <si>
+    <t>2018-02:2024-04</t>
+  </si>
+  <si>
+    <t>2008-12:2024-04</t>
+  </si>
+  <si>
+    <t>2012-12:2024-04</t>
+  </si>
+  <si>
+    <t>2021-02:2024-04</t>
+  </si>
+  <si>
+    <t>2003-05:2024-04</t>
+  </si>
+  <si>
+    <t>2024-05-27</t>
+  </si>
+  <si>
+    <t>2024-05-21</t>
   </si>
 </sst>
 </file>
@@ -755,19 +758,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA432"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A399" workbookViewId="0">
-      <selection activeCell="AA4" sqref="AA4"/>
+    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+      <selection activeCell="Q432" sqref="Q432"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1227,248 +1230,248 @@
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="Q8" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="U8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="W8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="X8" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="G8" s="4" t="s">
+      <c r="Y8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R8" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="Z8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>90</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="4" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="F9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="I9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="J9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="K9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="M9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="N9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="O9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Q9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="R9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="S9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="T9" s="4" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="U9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="V9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="W9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="4" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="B10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="H10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="I10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="N10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="O10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="I10" s="5" t="s">
+      <c r="P10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="J10" s="5" t="s">
+      <c r="Q10" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="S10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="T10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="U10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="V10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="W10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="X10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="K10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="Y10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z10" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA10" s="5" t="s">
         <v>91</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36419,19 +36422,19 @@
         <v>45412</v>
       </c>
       <c r="B432" s="3">
-        <v>0</v>
+        <v>785</v>
       </c>
       <c r="C432" s="3">
-        <v>0</v>
+        <v>1448</v>
       </c>
       <c r="D432" s="3">
-        <v>0</v>
+        <v>373</v>
       </c>
       <c r="E432" s="3">
-        <v>0</v>
+        <v>2471</v>
       </c>
       <c r="F432" s="3">
-        <v>0</v>
+        <v>789</v>
       </c>
       <c r="G432" s="3">
         <v>0</v>
@@ -36440,16 +36443,16 @@
         <v>0</v>
       </c>
       <c r="I432" s="3">
-        <v>0</v>
+        <v>42515</v>
       </c>
       <c r="J432" s="3">
-        <v>0</v>
+        <v>139802</v>
       </c>
       <c r="K432" s="3">
-        <v>0</v>
+        <v>5691</v>
       </c>
       <c r="L432" s="3">
-        <v>0</v>
+        <v>45803</v>
       </c>
       <c r="M432" s="3">
         <v>0</v>
@@ -36464,10 +36467,10 @@
         <v>0</v>
       </c>
       <c r="Q432" s="3">
-        <v>0</v>
+        <v>67147</v>
       </c>
       <c r="R432" s="3">
-        <v>0</v>
+        <v>30772</v>
       </c>
       <c r="S432" s="3">
         <v>0</v>
@@ -36476,25 +36479,25 @@
         <v>0</v>
       </c>
       <c r="U432" s="3">
-        <v>20622</v>
+        <v>20621.900000000001</v>
       </c>
       <c r="V432" s="3">
-        <v>2937</v>
+        <v>2937.4</v>
       </c>
       <c r="W432" s="3">
-        <v>1405</v>
+        <v>1404.9</v>
       </c>
       <c r="X432" s="3">
         <v>0</v>
       </c>
       <c r="Y432" s="3">
-        <v>1114</v>
+        <v>1113.9567</v>
       </c>
       <c r="Z432" s="3">
-        <v>3250</v>
+        <v>3250.4</v>
       </c>
       <c r="AA432" s="3">
-        <v>0</v>
+        <v>296.3</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B545029C-15B5-4D82-A83E-C0577CF71029}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8355F2C-82A9-46AE-817D-F4F86444F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
   <si>
     <t>Country</t>
   </si>
@@ -257,9 +257,6 @@
     <t>Time Period</t>
   </si>
   <si>
-    <t>2008-12:2024-03</t>
-  </si>
-  <si>
     <t>2009:2021</t>
   </si>
   <si>
@@ -282,33 +279,6 @@
   </si>
   <si>
     <t>2022-01-29</t>
-  </si>
-  <si>
-    <t>2018-12:2024-03</t>
-  </si>
-  <si>
-    <t>2020-06:2024-03</t>
-  </si>
-  <si>
-    <t>2017-12:2024-03</t>
-  </si>
-  <si>
-    <t>2021-07:2024-03</t>
-  </si>
-  <si>
-    <t>2024-04-29</t>
-  </si>
-  <si>
-    <t>1989-02:2024-04</t>
-  </si>
-  <si>
-    <t>2001-01:2024-04</t>
-  </si>
-  <si>
-    <t>2016-05:2024-04</t>
-  </si>
-  <si>
-    <t>2009-09:2024-04</t>
   </si>
   <si>
     <t>2024-05-17</t>
@@ -335,7 +305,34 @@
     <t>2024-05-27</t>
   </si>
   <si>
-    <t>2024-05-21</t>
+    <t>2018-12:2024-04</t>
+  </si>
+  <si>
+    <t>2020-06:2024-04</t>
+  </si>
+  <si>
+    <t>2017-12:2024-04</t>
+  </si>
+  <si>
+    <t>2021-07:2024-04</t>
+  </si>
+  <si>
+    <t>1989-02:2024-05</t>
+  </si>
+  <si>
+    <t>2001-01:2024-05</t>
+  </si>
+  <si>
+    <t>2016-05:2024-05</t>
+  </si>
+  <si>
+    <t>2009-09:2024-05</t>
+  </si>
+  <si>
+    <t>2024-05-30</t>
+  </si>
+  <si>
+    <t>2024-06-17</t>
   </si>
 </sst>
 </file>
@@ -756,21 +753,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA432"/>
+  <dimension ref="A1:AA433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A394" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="Q432" sqref="Q432"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -1230,248 +1227,248 @@
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="Q8" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="R8" s="4" t="s">
+        <v>80</v>
+      </c>
+      <c r="S8" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="V8" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="H8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="R8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="S8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="U8" s="4" t="s">
+      <c r="AA8" s="4" t="s">
         <v>80</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="Y8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:27">
       <c r="A9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="C9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="T9" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="S9" s="4" t="s">
+      <c r="U9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="T9" s="4" t="s">
+      <c r="V9" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="U9" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>72</v>
-      </c>
       <c r="W9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="X9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="Y9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="Z9" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="AA9" s="4" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="10" spans="1:27">
       <c r="A10" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="R10" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="S10" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="T10" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="V10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="D10" s="5" t="s">
+      <c r="W10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="E10" s="5" t="s">
+      <c r="X10" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="Y10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="F10" s="5" t="s">
+      <c r="Z10" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="G10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>74</v>
-      </c>
-      <c r="U10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="AA10" s="5" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -35509,10 +35506,10 @@
         <v>45046</v>
       </c>
       <c r="B421" s="3">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="C421" s="3">
-        <v>1424</v>
+        <v>1425</v>
       </c>
       <c r="D421" s="3">
         <v>415</v>
@@ -36437,10 +36434,10 @@
         <v>789</v>
       </c>
       <c r="G432" s="3">
-        <v>0</v>
+        <v>1523</v>
       </c>
       <c r="H432" s="3">
-        <v>0</v>
+        <v>762</v>
       </c>
       <c r="I432" s="3">
         <v>42515</v>
@@ -36455,16 +36452,16 @@
         <v>45803</v>
       </c>
       <c r="M432" s="3">
-        <v>0</v>
+        <v>37231</v>
       </c>
       <c r="N432" s="3">
-        <v>0</v>
+        <v>116887</v>
       </c>
       <c r="O432" s="3">
-        <v>0</v>
+        <v>12694</v>
       </c>
       <c r="P432" s="3">
-        <v>0</v>
+        <v>4496</v>
       </c>
       <c r="Q432" s="3">
         <v>67147</v>
@@ -36488,7 +36485,7 @@
         <v>1404.9</v>
       </c>
       <c r="X432" s="3">
-        <v>0</v>
+        <v>3556</v>
       </c>
       <c r="Y432" s="3">
         <v>1113.9567</v>
@@ -36498,6 +36495,89 @@
       </c>
       <c r="AA432" s="3">
         <v>296.3</v>
+      </c>
+    </row>
+    <row r="433" spans="1:27">
+      <c r="A433" s="2">
+        <v>45443</v>
+      </c>
+      <c r="B433" s="3">
+        <v>0</v>
+      </c>
+      <c r="C433" s="3">
+        <v>0</v>
+      </c>
+      <c r="D433" s="3">
+        <v>0</v>
+      </c>
+      <c r="E433" s="3">
+        <v>0</v>
+      </c>
+      <c r="F433" s="3">
+        <v>0</v>
+      </c>
+      <c r="G433" s="3">
+        <v>0</v>
+      </c>
+      <c r="H433" s="3">
+        <v>0</v>
+      </c>
+      <c r="I433" s="3">
+        <v>0</v>
+      </c>
+      <c r="J433" s="3">
+        <v>0</v>
+      </c>
+      <c r="K433" s="3">
+        <v>0</v>
+      </c>
+      <c r="L433" s="3">
+        <v>0</v>
+      </c>
+      <c r="M433" s="3">
+        <v>0</v>
+      </c>
+      <c r="N433" s="3">
+        <v>0</v>
+      </c>
+      <c r="O433" s="3">
+        <v>0</v>
+      </c>
+      <c r="P433" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q433" s="3">
+        <v>0</v>
+      </c>
+      <c r="R433" s="3">
+        <v>0</v>
+      </c>
+      <c r="S433" s="3">
+        <v>0</v>
+      </c>
+      <c r="T433" s="3">
+        <v>0</v>
+      </c>
+      <c r="U433" s="3">
+        <v>25173</v>
+      </c>
+      <c r="V433" s="3">
+        <v>4089</v>
+      </c>
+      <c r="W433" s="3">
+        <v>1765</v>
+      </c>
+      <c r="X433" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y433" s="3">
+        <v>1495</v>
+      </c>
+      <c r="Z433" s="3">
+        <v>4048</v>
+      </c>
+      <c r="AA433" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8355F2C-82A9-46AE-817D-F4F86444F592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14480ABF-C5FB-489F-B87E-263B338FED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -281,9 +281,6 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2024-05-17</t>
-  </si>
-  <si>
     <t>2000-12:2024-04</t>
   </si>
   <si>
@@ -332,7 +329,13 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2024-06-17</t>
+    <t>2003-05:2024-05</t>
+  </si>
+  <si>
+    <t>2024-06-20</t>
+  </si>
+  <si>
+    <t>2024-06-18</t>
   </si>
 </sst>
 </file>
@@ -381,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -395,6 +398,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -755,19 +764,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA433"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q432" sqref="Q432"/>
+    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
+      <selection activeCell="I433" sqref="I433"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -890,86 +899,86 @@
       <c r="Z3" s="4"/>
       <c r="AA3" s="4"/>
     </row>
-    <row r="4" spans="1:27">
-      <c r="A4" s="4" t="s">
+    <row r="4" spans="1:27" s="7" customFormat="1" ht="203">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="4" t="s">
+      <c r="F4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="4" t="s">
+      <c r="G4" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="4" t="s">
+      <c r="H4" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="4" t="s">
+      <c r="J4" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="4" t="s">
+      <c r="K4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="4" t="s">
+      <c r="L4" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="4" t="s">
+      <c r="M4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="4" t="s">
+      <c r="N4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="4" t="s">
+      <c r="O4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="P4" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="4" t="s">
+      <c r="Q4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="4" t="s">
+      <c r="R4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="4" t="s">
+      <c r="S4" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="4" t="s">
+      <c r="T4" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="4" t="s">
+      <c r="U4" s="6" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="4" t="s">
+      <c r="V4" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="W4" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="4" t="s">
+      <c r="X4" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="4" t="s">
+      <c r="Y4" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="4" t="s">
+      <c r="Z4" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="4" t="s">
+      <c r="AA4" s="6" t="s">
         <v>29</v>
       </c>
     </row>
@@ -1227,55 +1236,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="D8" s="4" t="s">
+      <c r="E8" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="F8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="G8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="J8" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="K8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="H8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="4" t="s">
+      <c r="N8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="4" t="s">
-        <v>79</v>
-      </c>
       <c r="R8" s="4" t="s">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="S8" s="4" t="s">
         <v>66</v>
@@ -1284,25 +1293,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="V8" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="W8" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="V8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="W8" s="4" t="s">
+      <c r="X8" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="X8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+      <c r="Z8" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>89</v>
-      </c>
       <c r="AA8" s="4" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1393,55 +1402,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="J10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="K10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="L10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="M10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="N10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="O10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="P10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="R10" s="5" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="S10" s="5" t="s">
         <v>73</v>
@@ -1450,25 +1459,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="V10" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="W10" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="X10" s="5" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="Y10" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Z10" s="5" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36550,7 +36559,7 @@
         <v>0</v>
       </c>
       <c r="R433" s="3">
-        <v>0</v>
+        <v>38370</v>
       </c>
       <c r="S433" s="3">
         <v>0</v>
@@ -36559,22 +36568,22 @@
         <v>0</v>
       </c>
       <c r="U433" s="3">
-        <v>25173</v>
+        <v>25172.6</v>
       </c>
       <c r="V433" s="3">
-        <v>4089</v>
+        <v>4088.5</v>
       </c>
       <c r="W433" s="3">
-        <v>1765</v>
+        <v>1764.9</v>
       </c>
       <c r="X433" s="3">
         <v>0</v>
       </c>
       <c r="Y433" s="3">
-        <v>1495</v>
+        <v>1495.2348999999999</v>
       </c>
       <c r="Z433" s="3">
-        <v>4048</v>
+        <v>4048.3</v>
       </c>
       <c r="AA433" s="3">
         <v>0</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14480ABF-C5FB-489F-B87E-263B338FED7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774DEBA-3B5E-4A05-BD25-9944FFCF0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -290,13 +290,7 @@
     <t>2008-12:2024-04</t>
   </si>
   <si>
-    <t>2012-12:2024-04</t>
-  </si>
-  <si>
     <t>2021-02:2024-04</t>
-  </si>
-  <si>
-    <t>2003-05:2024-04</t>
   </si>
   <si>
     <t>2024-05-27</t>
@@ -336,6 +330,12 @@
   </si>
   <si>
     <t>2024-06-18</t>
+  </si>
+  <si>
+    <t>2012-12:2024-05</t>
+  </si>
+  <si>
+    <t>2024-06-28</t>
   </si>
 </sst>
 </file>
@@ -393,17 +393,17 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -764,8 +764,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A396" workbookViewId="0">
-      <selection activeCell="I433" sqref="I433"/>
+    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
+      <selection activeCell="AA433" sqref="AA433"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -786,120 +786,120 @@
       </c>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="F2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="G2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="H2" s="4" t="s">
+      <c r="H2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="I2" s="4" t="s">
+      <c r="I2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="J2" s="4" t="s">
+      <c r="J2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="K2" s="4" t="s">
+      <c r="K2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="L2" s="4" t="s">
+      <c r="L2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="M2" s="4" t="s">
+      <c r="M2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="N2" s="4" t="s">
+      <c r="N2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="O2" s="4" t="s">
+      <c r="O2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="4" t="s">
+      <c r="P2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Q2" s="4" t="s">
+      <c r="Q2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="R2" s="4" t="s">
+      <c r="R2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="S2" s="4" t="s">
+      <c r="S2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="T2" s="4" t="s">
+      <c r="T2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="U2" s="4" t="s">
+      <c r="U2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="V2" s="4" t="s">
+      <c r="V2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="W2" s="4" t="s">
+      <c r="W2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="4" t="s">
+      <c r="X2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Y2" s="4" t="s">
+      <c r="Y2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="Z2" s="4" t="s">
+      <c r="Z2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="AA2" s="4" t="s">
+      <c r="AA2" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="4"/>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="4"/>
-      <c r="P3" s="4"/>
-      <c r="Q3" s="4"/>
-      <c r="R3" s="4"/>
-      <c r="S3" s="4"/>
-      <c r="T3" s="4"/>
-      <c r="U3" s="4"/>
-      <c r="V3" s="4"/>
-      <c r="W3" s="4"/>
-      <c r="X3" s="4"/>
-      <c r="Y3" s="4"/>
-      <c r="Z3" s="4"/>
-      <c r="AA3" s="4"/>
-    </row>
-    <row r="4" spans="1:27" s="7" customFormat="1" ht="203">
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
+      <c r="R3" s="5"/>
+      <c r="S3" s="5"/>
+      <c r="T3" s="5"/>
+      <c r="U3" s="5"/>
+      <c r="V3" s="5"/>
+      <c r="W3" s="5"/>
+      <c r="X3" s="5"/>
+      <c r="Y3" s="5"/>
+      <c r="Z3" s="5"/>
+      <c r="AA3" s="5"/>
+    </row>
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -983,501 +983,501 @@
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="F5" s="4" t="s">
+      <c r="F5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="G5" s="4" t="s">
+      <c r="G5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="H5" s="4" t="s">
+      <c r="H5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="I5" s="4" t="s">
+      <c r="I5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J5" s="4" t="s">
+      <c r="J5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="K5" s="4" t="s">
+      <c r="K5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="L5" s="4" t="s">
+      <c r="L5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="M5" s="4" t="s">
+      <c r="M5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="N5" s="4" t="s">
+      <c r="N5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="O5" s="4" t="s">
+      <c r="O5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="P5" s="4" t="s">
+      <c r="P5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Q5" s="4" t="s">
+      <c r="Q5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="R5" s="4" t="s">
+      <c r="R5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="S5" s="4" t="s">
+      <c r="S5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="T5" s="4" t="s">
+      <c r="T5" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="U5" s="4" t="s">
+      <c r="U5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="V5" s="4" t="s">
+      <c r="V5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="W5" s="4" t="s">
+      <c r="W5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="X5" s="4" t="s">
+      <c r="X5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Y5" s="4" t="s">
+      <c r="Y5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="Z5" s="4" t="s">
+      <c r="Z5" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="AA5" s="4" t="s">
+      <c r="AA5" s="5" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="4" t="s">
+      <c r="F6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="G6" s="4" t="s">
+      <c r="G6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="H6" s="4" t="s">
+      <c r="H6" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="4" t="s">
+      <c r="I6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="J6" s="4" t="s">
+      <c r="J6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="K6" s="4" t="s">
+      <c r="K6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="L6" s="4" t="s">
+      <c r="L6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="M6" s="4" t="s">
+      <c r="M6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N6" s="4" t="s">
+      <c r="N6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="O6" s="4" t="s">
+      <c r="O6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="P6" s="4" t="s">
+      <c r="P6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="Q6" s="4" t="s">
+      <c r="Q6" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="R6" s="4" t="s">
+      <c r="R6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="S6" s="4" t="s">
+      <c r="S6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="T6" s="4" t="s">
+      <c r="T6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="U6" s="4" t="s">
+      <c r="U6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="V6" s="4" t="s">
+      <c r="V6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="W6" s="4" t="s">
+      <c r="W6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="X6" s="4" t="s">
+      <c r="X6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Y6" s="4" t="s">
+      <c r="Y6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="Z6" s="4" t="s">
+      <c r="Z6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="AA6" s="4" t="s">
+      <c r="AA6" s="5" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="F7" s="4" t="s">
+      <c r="F7" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="G7" s="4" t="s">
+      <c r="G7" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="4" t="s">
+      <c r="H7" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="I7" s="4" t="s">
+      <c r="I7" s="5" t="s">
         <v>46</v>
       </c>
-      <c r="J7" s="4" t="s">
+      <c r="J7" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="K7" s="4" t="s">
+      <c r="K7" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="L7" s="4" t="s">
+      <c r="L7" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="M7" s="4" t="s">
+      <c r="M7" s="5" t="s">
         <v>50</v>
       </c>
-      <c r="N7" s="4" t="s">
+      <c r="N7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="O7" s="4" t="s">
+      <c r="O7" s="5" t="s">
         <v>52</v>
       </c>
-      <c r="P7" s="4" t="s">
+      <c r="P7" s="5" t="s">
         <v>53</v>
       </c>
-      <c r="Q7" s="4" t="s">
+      <c r="Q7" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="R7" s="4" t="s">
+      <c r="R7" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="S7" s="4" t="s">
+      <c r="S7" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="T7" s="4" t="s">
+      <c r="T7" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="U7" s="4" t="s">
+      <c r="U7" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="V7" s="4" t="s">
+      <c r="V7" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="W7" s="4" t="s">
+      <c r="W7" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="X7" s="4" t="s">
+      <c r="X7" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="Y7" s="4" t="s">
+      <c r="Y7" s="5" t="s">
         <v>62</v>
       </c>
-      <c r="Z7" s="4" t="s">
+      <c r="Z7" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="AA7" s="4" t="s">
+      <c r="AA7" s="5" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="4" t="s">
+      <c r="F8" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="G8" s="4" t="s">
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="4" t="s">
+      <c r="O8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="4" t="s">
+      <c r="P8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="J8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="4" t="s">
+      <c r="R8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="S8" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T8" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="O8" s="4" t="s">
+      <c r="V8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="P8" s="4" t="s">
+      <c r="W8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="Q8" s="4" t="s">
+      <c r="X8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="Y8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="AA8" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="9" spans="1:27">
+      <c r="A9" s="5" t="s">
+        <v>68</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="H9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="I9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="L9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="O9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="R9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="T9" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="U9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="V9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="W9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="X9" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="Z9" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="AA9" s="5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="10" spans="1:27">
+      <c r="A10" s="5" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="R8" s="4" t="s">
+      <c r="C10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="R10" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="S10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="T10" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="U10" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="S8" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="T8" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="U8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="V8" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="W8" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="X8" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="Y8" s="4" t="s">
+      <c r="V10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="W10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="Z8" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="AA8" s="4" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="9" spans="1:27">
-      <c r="A9" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="H9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="I9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="M9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="N9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="O9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="R9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="T9" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="U9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="V9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="W9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="X9" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="AA9" s="4" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="10" spans="1:27">
-      <c r="A10" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="C10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="F10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="O10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="P10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Q10" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="R10" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="S10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="T10" s="5" t="s">
-        <v>73</v>
-      </c>
-      <c r="U10" s="5" t="s">
+      <c r="Y10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="AA10" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="V10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="W10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="X10" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="Y10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="Z10" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="AA10" s="5" t="s">
-        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36532,16 +36532,16 @@
         <v>0</v>
       </c>
       <c r="I433" s="3">
-        <v>0</v>
+        <v>42604</v>
       </c>
       <c r="J433" s="3">
-        <v>0</v>
+        <v>140113</v>
       </c>
       <c r="K433" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L433" s="3">
-        <v>0</v>
+        <v>46104</v>
       </c>
       <c r="M433" s="3">
         <v>0</v>
@@ -36586,7 +36586,7 @@
         <v>4048.3</v>
       </c>
       <c r="AA433" s="3">
-        <v>0</v>
+        <v>300.2</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0774DEBA-3B5E-4A05-BD25-9944FFCF0952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AB5303-9B11-4F02-B2CB-4E7D80306A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1520" yWindow="1520" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2200" yWindow="2200" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -281,31 +281,7 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2000-12:2024-04</t>
-  </si>
-  <si>
-    <t>2018-02:2024-04</t>
-  </si>
-  <si>
     <t>2008-12:2024-04</t>
-  </si>
-  <si>
-    <t>2021-02:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-27</t>
-  </si>
-  <si>
-    <t>2018-12:2024-04</t>
-  </si>
-  <si>
-    <t>2020-06:2024-04</t>
-  </si>
-  <si>
-    <t>2017-12:2024-04</t>
-  </si>
-  <si>
-    <t>2021-07:2024-04</t>
   </si>
   <si>
     <t>1989-02:2024-05</t>
@@ -336,6 +312,33 @@
   </si>
   <si>
     <t>2024-06-28</t>
+  </si>
+  <si>
+    <t>2000-12:2024-05</t>
+  </si>
+  <si>
+    <t>2018-02:2024-05</t>
+  </si>
+  <si>
+    <t>2008-12:2024-05</t>
+  </si>
+  <si>
+    <t>2018-12:2024-05</t>
+  </si>
+  <si>
+    <t>2020-06:2024-05</t>
+  </si>
+  <si>
+    <t>2017-12:2024-05</t>
+  </si>
+  <si>
+    <t>2021-07:2024-05</t>
+  </si>
+  <si>
+    <t>2021-02:2024-05</t>
+  </si>
+  <si>
+    <t>2024-07-04</t>
   </si>
 </sst>
 </file>
@@ -764,9 +767,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA433"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A411" workbookViewId="0">
-      <selection activeCell="AA433" sqref="AA433"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
@@ -1236,55 +1237,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>91</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>80</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1293,25 +1294,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1402,55 +1403,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1459,25 +1460,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -35601,7 +35602,7 @@
         <v>967</v>
       </c>
       <c r="C422" s="3">
-        <v>1765</v>
+        <v>1766</v>
       </c>
       <c r="D422" s="3">
         <v>535</v>
@@ -35673,7 +35674,7 @@
         <v>3662.8</v>
       </c>
       <c r="AA422" s="3">
-        <v>298.10000000000002</v>
+        <v>298.60000000000002</v>
       </c>
     </row>
     <row r="423" spans="1:27">
@@ -36511,25 +36512,25 @@
         <v>45443</v>
       </c>
       <c r="B433" s="3">
-        <v>0</v>
+        <v>1093</v>
       </c>
       <c r="C433" s="3">
-        <v>0</v>
+        <v>1762</v>
       </c>
       <c r="D433" s="3">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="E433" s="3">
-        <v>0</v>
+        <v>3100</v>
       </c>
       <c r="F433" s="3">
-        <v>0</v>
+        <v>976</v>
       </c>
       <c r="G433" s="3">
-        <v>0</v>
+        <v>1850</v>
       </c>
       <c r="H433" s="3">
-        <v>0</v>
+        <v>910</v>
       </c>
       <c r="I433" s="3">
         <v>42604</v>
@@ -36544,19 +36545,19 @@
         <v>46104</v>
       </c>
       <c r="M433" s="3">
-        <v>0</v>
+        <v>37225</v>
       </c>
       <c r="N433" s="3">
-        <v>0</v>
+        <v>116848</v>
       </c>
       <c r="O433" s="3">
-        <v>0</v>
+        <v>12994</v>
       </c>
       <c r="P433" s="3">
-        <v>0</v>
+        <v>4515</v>
       </c>
       <c r="Q433" s="3">
-        <v>0</v>
+        <v>69098</v>
       </c>
       <c r="R433" s="3">
         <v>38370</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18AB5303-9B11-4F02-B2CB-4E7D80306A40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF38EB-40DC-4E47-AAFA-DEC087D5104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="2200" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -284,18 +284,6 @@
     <t>2008-12:2024-04</t>
   </si>
   <si>
-    <t>1989-02:2024-05</t>
-  </si>
-  <si>
-    <t>2001-01:2024-05</t>
-  </si>
-  <si>
-    <t>2016-05:2024-05</t>
-  </si>
-  <si>
-    <t>2009-09:2024-05</t>
-  </si>
-  <si>
     <t>2024-05-30</t>
   </si>
   <si>
@@ -303,9 +291,6 @@
   </si>
   <si>
     <t>2024-06-20</t>
-  </si>
-  <si>
-    <t>2024-06-18</t>
   </si>
   <si>
     <t>2012-12:2024-05</t>
@@ -339,6 +324,21 @@
   </si>
   <si>
     <t>2024-07-04</t>
+  </si>
+  <si>
+    <t>1989-02:2024-06</t>
+  </si>
+  <si>
+    <t>2001-01:2024-06</t>
+  </si>
+  <si>
+    <t>2016-05:2024-06</t>
+  </si>
+  <si>
+    <t>2009-09:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-15</t>
   </si>
 </sst>
 </file>
@@ -765,19 +765,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA433"/>
+  <dimension ref="A1:AA434"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -900,7 +900,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1237,55 +1237,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="R8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1294,25 +1294,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>78</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1403,55 +1403,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1460,25 +1460,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="X10" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Y10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Z10" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA10" s="7" t="s">
         <v>79</v>
-      </c>
-      <c r="Y10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="Z10" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA10" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36588,6 +36588,89 @@
       </c>
       <c r="AA433" s="3">
         <v>300.2</v>
+      </c>
+    </row>
+    <row r="434" spans="1:27">
+      <c r="A434" s="2">
+        <v>45473</v>
+      </c>
+      <c r="B434" s="3">
+        <v>0</v>
+      </c>
+      <c r="C434" s="3">
+        <v>0</v>
+      </c>
+      <c r="D434" s="3">
+        <v>0</v>
+      </c>
+      <c r="E434" s="3">
+        <v>0</v>
+      </c>
+      <c r="F434" s="3">
+        <v>0</v>
+      </c>
+      <c r="G434" s="3">
+        <v>0</v>
+      </c>
+      <c r="H434" s="3">
+        <v>0</v>
+      </c>
+      <c r="I434" s="3">
+        <v>0</v>
+      </c>
+      <c r="J434" s="3">
+        <v>0</v>
+      </c>
+      <c r="K434" s="3">
+        <v>0</v>
+      </c>
+      <c r="L434" s="3">
+        <v>0</v>
+      </c>
+      <c r="M434" s="3">
+        <v>0</v>
+      </c>
+      <c r="N434" s="3">
+        <v>0</v>
+      </c>
+      <c r="O434" s="3">
+        <v>0</v>
+      </c>
+      <c r="P434" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q434" s="3">
+        <v>0</v>
+      </c>
+      <c r="R434" s="3">
+        <v>0</v>
+      </c>
+      <c r="S434" s="3">
+        <v>0</v>
+      </c>
+      <c r="T434" s="3">
+        <v>0</v>
+      </c>
+      <c r="U434" s="3">
+        <v>30053</v>
+      </c>
+      <c r="V434" s="3">
+        <v>5526</v>
+      </c>
+      <c r="W434" s="3">
+        <v>2121</v>
+      </c>
+      <c r="X434" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y434" s="3">
+        <v>1899</v>
+      </c>
+      <c r="Z434" s="3">
+        <v>4755</v>
+      </c>
+      <c r="AA434" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0BF38EB-40DC-4E47-AAFA-DEC087D5104C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C683CB84-926D-4408-BC12-89365329CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1860" yWindow="1860" windowWidth="14400" windowHeight="10335" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
   <si>
     <t>Country</t>
   </si>
@@ -287,18 +287,6 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2003-05:2024-05</t>
-  </si>
-  <si>
-    <t>2024-06-20</t>
-  </si>
-  <si>
-    <t>2012-12:2024-05</t>
-  </si>
-  <si>
-    <t>2024-06-28</t>
-  </si>
-  <si>
     <t>2000-12:2024-05</t>
   </si>
   <si>
@@ -320,9 +308,6 @@
     <t>2021-07:2024-05</t>
   </si>
   <si>
-    <t>2021-02:2024-05</t>
-  </si>
-  <si>
     <t>2024-07-04</t>
   </si>
   <si>
@@ -338,7 +323,19 @@
     <t>2009-09:2024-06</t>
   </si>
   <si>
-    <t>2024-07-15</t>
+    <t>2012-12:2024-06</t>
+  </si>
+  <si>
+    <t>2021-02:2024-06</t>
+  </si>
+  <si>
+    <t>2003-05:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-22</t>
+  </si>
+  <si>
+    <t>2024-07-17</t>
   </si>
 </sst>
 </file>
@@ -767,7 +764,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1237,55 +1236,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="O8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1294,25 +1293,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1403,55 +1402,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>77</v>
+        <v>91</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1460,25 +1459,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36616,16 +36615,16 @@
         <v>0</v>
       </c>
       <c r="I434" s="3">
-        <v>0</v>
+        <v>42715</v>
       </c>
       <c r="J434" s="3">
-        <v>0</v>
+        <v>140512</v>
       </c>
       <c r="K434" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L434" s="3">
-        <v>0</v>
+        <v>46671</v>
       </c>
       <c r="M434" s="3">
         <v>0</v>
@@ -36640,10 +36639,10 @@
         <v>0</v>
       </c>
       <c r="Q434" s="3">
-        <v>0</v>
+        <v>71350</v>
       </c>
       <c r="R434" s="3">
-        <v>0</v>
+        <v>46575</v>
       </c>
       <c r="S434" s="3">
         <v>0</v>
@@ -36652,25 +36651,25 @@
         <v>0</v>
       </c>
       <c r="U434" s="3">
-        <v>30053</v>
+        <v>30052.7</v>
       </c>
       <c r="V434" s="3">
-        <v>5526</v>
+        <v>5525.8</v>
       </c>
       <c r="W434" s="3">
-        <v>2121</v>
+        <v>2121.5</v>
       </c>
       <c r="X434" s="3">
         <v>0</v>
       </c>
       <c r="Y434" s="3">
-        <v>1899</v>
+        <v>1899.2976000000001</v>
       </c>
       <c r="Z434" s="3">
-        <v>4755</v>
+        <v>4755.2</v>
       </c>
       <c r="AA434" s="3">
-        <v>0</v>
+        <v>302.39999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C683CB84-926D-4408-BC12-89365329CAAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EF4C6-8B32-48A4-BF50-82AB4DC6369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -287,30 +287,6 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2000-12:2024-05</t>
-  </si>
-  <si>
-    <t>2018-02:2024-05</t>
-  </si>
-  <si>
-    <t>2008-12:2024-05</t>
-  </si>
-  <si>
-    <t>2018-12:2024-05</t>
-  </si>
-  <si>
-    <t>2020-06:2024-05</t>
-  </si>
-  <si>
-    <t>2017-12:2024-05</t>
-  </si>
-  <si>
-    <t>2021-07:2024-05</t>
-  </si>
-  <si>
-    <t>2024-07-04</t>
-  </si>
-  <si>
     <t>1989-02:2024-06</t>
   </si>
   <si>
@@ -336,6 +312,33 @@
   </si>
   <si>
     <t>2024-07-17</t>
+  </si>
+  <si>
+    <t>2000-12:2024-06</t>
+  </si>
+  <si>
+    <t>2018-02:2024-06</t>
+  </si>
+  <si>
+    <t>2008-12:2024-06</t>
+  </si>
+  <si>
+    <t>2018-12:2024-06</t>
+  </si>
+  <si>
+    <t>2020-06:2024-06</t>
+  </si>
+  <si>
+    <t>2017-12:2024-06</t>
+  </si>
+  <si>
+    <t>2021-07:2024-06</t>
+  </si>
+  <si>
+    <t>2024-07-31</t>
+  </si>
+  <si>
+    <t>2024-08-01</t>
   </si>
 </sst>
 </file>
@@ -764,19 +767,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA434"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A412" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -899,7 +902,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1236,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>88</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="N8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>90</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1293,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1402,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>91</v>
-      </c>
       <c r="R10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1459,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -35684,7 +35687,7 @@
         <v>1239</v>
       </c>
       <c r="C423" s="3">
-        <v>2142</v>
+        <v>2143</v>
       </c>
       <c r="D423" s="3">
         <v>658</v>
@@ -35756,7 +35759,7 @@
         <v>4246.4386999999997</v>
       </c>
       <c r="AA423" s="3">
-        <v>299.8</v>
+        <v>300.10000000000002</v>
       </c>
     </row>
     <row r="424" spans="1:27">
@@ -36594,25 +36597,25 @@
         <v>45473</v>
       </c>
       <c r="B434" s="3">
-        <v>0</v>
+        <v>1477</v>
       </c>
       <c r="C434" s="3">
-        <v>0</v>
+        <v>2099</v>
       </c>
       <c r="D434" s="3">
-        <v>0</v>
+        <v>626</v>
       </c>
       <c r="E434" s="3">
-        <v>0</v>
+        <v>3715</v>
       </c>
       <c r="F434" s="3">
-        <v>0</v>
+        <v>1134</v>
       </c>
       <c r="G434" s="3">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="H434" s="3">
-        <v>0</v>
+        <v>1084</v>
       </c>
       <c r="I434" s="3">
         <v>42715</v>
@@ -36627,16 +36630,16 @@
         <v>46671</v>
       </c>
       <c r="M434" s="3">
-        <v>0</v>
+        <v>37276</v>
       </c>
       <c r="N434" s="3">
-        <v>0</v>
+        <v>116885</v>
       </c>
       <c r="O434" s="3">
-        <v>0</v>
+        <v>13333</v>
       </c>
       <c r="P434" s="3">
-        <v>0</v>
+        <v>4530</v>
       </c>
       <c r="Q434" s="3">
         <v>71350</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{951EF4C6-8B32-48A4-BF50-82AB4DC6369B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD56C63-7D47-4BC4-86E7-FA3FD9383410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1900" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -287,18 +287,6 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>1989-02:2024-06</t>
-  </si>
-  <si>
-    <t>2001-01:2024-06</t>
-  </si>
-  <si>
-    <t>2016-05:2024-06</t>
-  </si>
-  <si>
-    <t>2009-09:2024-06</t>
-  </si>
-  <si>
     <t>2012-12:2024-06</t>
   </si>
   <si>
@@ -309,9 +297,6 @@
   </si>
   <si>
     <t>2024-07-22</t>
-  </si>
-  <si>
-    <t>2024-07-17</t>
   </si>
   <si>
     <t>2000-12:2024-06</t>
@@ -339,6 +324,21 @@
   </si>
   <si>
     <t>2024-08-01</t>
+  </si>
+  <si>
+    <t>1989-02:2024-07</t>
+  </si>
+  <si>
+    <t>2001-01:2024-07</t>
+  </si>
+  <si>
+    <t>2016-05:2024-07</t>
+  </si>
+  <si>
+    <t>2009-09:2024-07</t>
+  </si>
+  <si>
+    <t>2024-08-15</t>
   </si>
 </sst>
 </file>
@@ -765,21 +765,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA434"/>
+  <dimension ref="A1:AA435"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A427" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
       <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.54296875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.54296875" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -902,7 +902,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1239,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>91</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1296,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1405,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1462,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36673,6 +36673,89 @@
       </c>
       <c r="AA434" s="3">
         <v>302.39999999999998</v>
+      </c>
+    </row>
+    <row r="435" spans="1:27">
+      <c r="A435" s="2">
+        <v>45504</v>
+      </c>
+      <c r="B435" s="3">
+        <v>0</v>
+      </c>
+      <c r="C435" s="3">
+        <v>0</v>
+      </c>
+      <c r="D435" s="3">
+        <v>0</v>
+      </c>
+      <c r="E435" s="3">
+        <v>0</v>
+      </c>
+      <c r="F435" s="3">
+        <v>0</v>
+      </c>
+      <c r="G435" s="3">
+        <v>0</v>
+      </c>
+      <c r="H435" s="3">
+        <v>0</v>
+      </c>
+      <c r="I435" s="3">
+        <v>0</v>
+      </c>
+      <c r="J435" s="3">
+        <v>0</v>
+      </c>
+      <c r="K435" s="3">
+        <v>0</v>
+      </c>
+      <c r="L435" s="3">
+        <v>0</v>
+      </c>
+      <c r="M435" s="3">
+        <v>0</v>
+      </c>
+      <c r="N435" s="3">
+        <v>0</v>
+      </c>
+      <c r="O435" s="3">
+        <v>0</v>
+      </c>
+      <c r="P435" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q435" s="3">
+        <v>0</v>
+      </c>
+      <c r="R435" s="3">
+        <v>0</v>
+      </c>
+      <c r="S435" s="3">
+        <v>0</v>
+      </c>
+      <c r="T435" s="3">
+        <v>0</v>
+      </c>
+      <c r="U435" s="3">
+        <v>35814</v>
+      </c>
+      <c r="V435" s="3">
+        <v>7188</v>
+      </c>
+      <c r="W435" s="3">
+        <v>2518</v>
+      </c>
+      <c r="X435" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y435" s="3">
+        <v>2282</v>
+      </c>
+      <c r="Z435" s="3">
+        <v>5437</v>
+      </c>
+      <c r="AA435" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAD56C63-7D47-4BC4-86E7-FA3FD9383410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8418F-5401-48A2-92FA-992A35614D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="14640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -287,58 +287,58 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2012-12:2024-06</t>
+    <t>2003-05:2024-07</t>
   </si>
   <si>
-    <t>2021-02:2024-06</t>
+    <t>2024-08-22</t>
   </si>
   <si>
-    <t>2003-05:2024-06</t>
+    <t>2000-12:2024-07</t>
   </si>
   <si>
-    <t>2024-07-22</t>
+    <t>2018-02:2024-07</t>
   </si>
   <si>
-    <t>2000-12:2024-06</t>
+    <t>2008-12:2024-07</t>
   </si>
   <si>
-    <t>2018-02:2024-06</t>
+    <t>2018-12:2024-07</t>
   </si>
   <si>
-    <t>2008-12:2024-06</t>
+    <t>2012-12:2024-07</t>
   </si>
   <si>
-    <t>2018-12:2024-06</t>
+    <t>2020-06:2024-07</t>
   </si>
   <si>
-    <t>2020-06:2024-06</t>
+    <t>2017-12:2024-07</t>
   </si>
   <si>
-    <t>2017-12:2024-06</t>
+    <t>2021-07:2024-07</t>
   </si>
   <si>
-    <t>2021-07:2024-06</t>
+    <t>2021-02:2024-07</t>
   </si>
   <si>
-    <t>2024-07-31</t>
+    <t>1989-02:2024-08</t>
   </si>
   <si>
-    <t>2024-08-01</t>
+    <t>2001-01:2024-08</t>
   </si>
   <si>
-    <t>1989-02:2024-07</t>
+    <t>2016-05:2024-08</t>
   </si>
   <si>
-    <t>2001-01:2024-07</t>
+    <t>2009-09:2024-08</t>
   </si>
   <si>
-    <t>2016-05:2024-07</t>
+    <t>2024-08-30</t>
   </si>
   <si>
-    <t>2009-09:2024-07</t>
+    <t>2024-08-26</t>
   </si>
   <si>
-    <t>2024-08-15</t>
+    <t>2024-09-14</t>
   </si>
 </sst>
 </file>
@@ -765,10 +765,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA435"/>
+  <dimension ref="A1:AA436"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A241" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1239,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="N8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1296,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1405,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1480,7 +1480,7 @@
         <v>93</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -35770,7 +35770,7 @@
         <v>1578</v>
       </c>
       <c r="C424" s="3">
-        <v>2573</v>
+        <v>2574</v>
       </c>
       <c r="D424" s="3">
         <v>780</v>
@@ -35842,7 +35842,7 @@
         <v>4835.8999999999996</v>
       </c>
       <c r="AA424" s="3">
-        <v>302.3</v>
+        <v>302.2</v>
       </c>
     </row>
     <row r="425" spans="1:27">
@@ -36680,55 +36680,55 @@
         <v>45504</v>
       </c>
       <c r="B435" s="3">
-        <v>0</v>
+        <v>1928</v>
       </c>
       <c r="C435" s="3">
-        <v>0</v>
+        <v>2499</v>
       </c>
       <c r="D435" s="3">
-        <v>0</v>
+        <v>740</v>
       </c>
       <c r="E435" s="3">
-        <v>0</v>
+        <v>4399</v>
       </c>
       <c r="F435" s="3">
-        <v>0</v>
+        <v>1293</v>
       </c>
       <c r="G435" s="3">
-        <v>0</v>
+        <v>2620</v>
       </c>
       <c r="H435" s="3">
-        <v>0</v>
+        <v>1351</v>
       </c>
       <c r="I435" s="3">
-        <v>0</v>
+        <v>42835</v>
       </c>
       <c r="J435" s="3">
-        <v>0</v>
+        <v>141061</v>
       </c>
       <c r="K435" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L435" s="3">
-        <v>0</v>
+        <v>47053</v>
       </c>
       <c r="M435" s="3">
-        <v>0</v>
+        <v>37366</v>
       </c>
       <c r="N435" s="3">
-        <v>0</v>
+        <v>117202</v>
       </c>
       <c r="O435" s="3">
-        <v>0</v>
+        <v>13540</v>
       </c>
       <c r="P435" s="3">
-        <v>0</v>
+        <v>4538</v>
       </c>
       <c r="Q435" s="3">
-        <v>0</v>
+        <v>73557</v>
       </c>
       <c r="R435" s="3">
-        <v>0</v>
+        <v>55971</v>
       </c>
       <c r="S435" s="3">
         <v>0</v>
@@ -36737,24 +36737,107 @@
         <v>0</v>
       </c>
       <c r="U435" s="3">
-        <v>35814</v>
+        <v>35813.9</v>
       </c>
       <c r="V435" s="3">
         <v>7188</v>
       </c>
       <c r="W435" s="3">
-        <v>2518</v>
+        <v>2518.1999999999998</v>
       </c>
       <c r="X435" s="3">
         <v>0</v>
       </c>
       <c r="Y435" s="3">
-        <v>2282</v>
+        <v>2281.7932999999998</v>
       </c>
       <c r="Z435" s="3">
-        <v>5437</v>
+        <v>5437.3</v>
       </c>
       <c r="AA435" s="3">
+        <v>304.7</v>
+      </c>
+    </row>
+    <row r="436" spans="1:27">
+      <c r="A436" s="2">
+        <v>45535</v>
+      </c>
+      <c r="B436" s="3">
+        <v>0</v>
+      </c>
+      <c r="C436" s="3">
+        <v>0</v>
+      </c>
+      <c r="D436" s="3">
+        <v>0</v>
+      </c>
+      <c r="E436" s="3">
+        <v>0</v>
+      </c>
+      <c r="F436" s="3">
+        <v>0</v>
+      </c>
+      <c r="G436" s="3">
+        <v>0</v>
+      </c>
+      <c r="H436" s="3">
+        <v>0</v>
+      </c>
+      <c r="I436" s="3">
+        <v>0</v>
+      </c>
+      <c r="J436" s="3">
+        <v>0</v>
+      </c>
+      <c r="K436" s="3">
+        <v>0</v>
+      </c>
+      <c r="L436" s="3">
+        <v>0</v>
+      </c>
+      <c r="M436" s="3">
+        <v>0</v>
+      </c>
+      <c r="N436" s="3">
+        <v>0</v>
+      </c>
+      <c r="O436" s="3">
+        <v>0</v>
+      </c>
+      <c r="P436" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q436" s="3">
+        <v>0</v>
+      </c>
+      <c r="R436" s="3">
+        <v>0</v>
+      </c>
+      <c r="S436" s="3">
+        <v>0</v>
+      </c>
+      <c r="T436" s="3">
+        <v>0</v>
+      </c>
+      <c r="U436" s="3">
+        <v>41968</v>
+      </c>
+      <c r="V436" s="3">
+        <v>8822</v>
+      </c>
+      <c r="W436" s="3">
+        <v>2920</v>
+      </c>
+      <c r="X436" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y436" s="3">
+        <v>2695</v>
+      </c>
+      <c r="Z436" s="3">
+        <v>5973</v>
+      </c>
+      <c r="AA436" s="3">
         <v>0</v>
       </c>
     </row>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5D8418F-5401-48A2-92FA-992A35614D32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A731A2-FB4E-4668-B613-03B77B39B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19440" windowHeight="14625" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -287,39 +287,6 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2003-05:2024-07</t>
-  </si>
-  <si>
-    <t>2024-08-22</t>
-  </si>
-  <si>
-    <t>2000-12:2024-07</t>
-  </si>
-  <si>
-    <t>2018-02:2024-07</t>
-  </si>
-  <si>
-    <t>2008-12:2024-07</t>
-  </si>
-  <si>
-    <t>2018-12:2024-07</t>
-  </si>
-  <si>
-    <t>2012-12:2024-07</t>
-  </si>
-  <si>
-    <t>2020-06:2024-07</t>
-  </si>
-  <si>
-    <t>2017-12:2024-07</t>
-  </si>
-  <si>
-    <t>2021-07:2024-07</t>
-  </si>
-  <si>
-    <t>2021-02:2024-07</t>
-  </si>
-  <si>
     <t>1989-02:2024-08</t>
   </si>
   <si>
@@ -332,13 +299,49 @@
     <t>2009-09:2024-08</t>
   </si>
   <si>
-    <t>2024-08-30</t>
+    <t>2024-09-14</t>
   </si>
   <si>
-    <t>2024-08-26</t>
+    <t>2003-05:2024-08</t>
   </si>
   <si>
-    <t>2024-09-14</t>
+    <t>2024-09-20</t>
+  </si>
+  <si>
+    <t>2024-09-19</t>
+  </si>
+  <si>
+    <t>2000-12:2024-08</t>
+  </si>
+  <si>
+    <t>2018-02:2024-08</t>
+  </si>
+  <si>
+    <t>2008-12:2024-08</t>
+  </si>
+  <si>
+    <t>2018-12:2024-08</t>
+  </si>
+  <si>
+    <t>2012-12:2024-08</t>
+  </si>
+  <si>
+    <t>2020-06:2024-08</t>
+  </si>
+  <si>
+    <t>2017-12:2024-08</t>
+  </si>
+  <si>
+    <t>2021-07:2024-08</t>
+  </si>
+  <si>
+    <t>2021-02:2024-08</t>
+  </si>
+  <si>
+    <t>2024-09-27</t>
+  </si>
+  <si>
+    <t>2024-09-23</t>
   </si>
 </sst>
 </file>
@@ -771,18 +774,18 @@
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -902,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1239,55 +1242,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>81</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1296,25 +1299,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>88</v>
+        <v>77</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1405,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1462,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>93</v>
+        <v>80</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -35925,7 +35928,7 @@
         <v>5308.3909000000003</v>
       </c>
       <c r="AA425" s="3">
-        <v>304</v>
+        <v>304.39999999999998</v>
       </c>
     </row>
     <row r="426" spans="1:27">
@@ -36763,55 +36766,55 @@
         <v>45535</v>
       </c>
       <c r="B436" s="3">
-        <v>0</v>
+        <v>2360</v>
       </c>
       <c r="C436" s="3">
-        <v>0</v>
+        <v>2929</v>
       </c>
       <c r="D436" s="3">
-        <v>0</v>
+        <v>862</v>
       </c>
       <c r="E436" s="3">
-        <v>0</v>
+        <v>5092</v>
       </c>
       <c r="F436" s="3">
-        <v>0</v>
+        <v>1408</v>
       </c>
       <c r="G436" s="3">
-        <v>0</v>
+        <v>3071</v>
       </c>
       <c r="H436" s="3">
-        <v>0</v>
+        <v>1627</v>
       </c>
       <c r="I436" s="3">
-        <v>0</v>
+        <v>42867</v>
       </c>
       <c r="J436" s="3">
-        <v>0</v>
+        <v>141445</v>
       </c>
       <c r="K436" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L436" s="3">
-        <v>0</v>
+        <v>47403</v>
       </c>
       <c r="M436" s="3">
-        <v>0</v>
+        <v>37368</v>
       </c>
       <c r="N436" s="3">
-        <v>0</v>
+        <v>117516</v>
       </c>
       <c r="O436" s="3">
-        <v>0</v>
+        <v>13585</v>
       </c>
       <c r="P436" s="3">
-        <v>0</v>
+        <v>4539</v>
       </c>
       <c r="Q436" s="3">
-        <v>0</v>
+        <v>75235</v>
       </c>
       <c r="R436" s="3">
-        <v>0</v>
+        <v>65619</v>
       </c>
       <c r="S436" s="3">
         <v>0</v>
@@ -36820,25 +36823,25 @@
         <v>0</v>
       </c>
       <c r="U436" s="3">
-        <v>41968</v>
+        <v>41967.7</v>
       </c>
       <c r="V436" s="3">
         <v>8822</v>
       </c>
       <c r="W436" s="3">
-        <v>2920</v>
+        <v>2920.4</v>
       </c>
       <c r="X436" s="3">
         <v>0</v>
       </c>
       <c r="Y436" s="3">
-        <v>2695</v>
+        <v>2695.1370000000002</v>
       </c>
       <c r="Z436" s="3">
-        <v>5973</v>
+        <v>5973.5</v>
       </c>
       <c r="AA436" s="3">
-        <v>0</v>
+        <v>305.8</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28A731A2-FB4E-4668-B613-03B77B39B2E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C5FBA3-1FF3-48C2-B2A3-1C8C8FB3B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27C5FBA3-1FF3-48C2-B2A3-1C8C8FB3B7C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7D689-28D2-480C-8B47-901D47CFAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7D689-28D2-480C-8B47-901D47CFAB7A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4801A5-2315-47AE-946F-9D223949CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E4801A5-2315-47AE-946F-9D223949CECD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E66FA-FE4C-4247-83D5-689E8ECA331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B3E66FA-FE4C-4247-83D5-689E8ECA331D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847B36F-962C-4C6A-B166-EC24297D1954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C847B36F-962C-4C6A-B166-EC24297D1954}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9C0EFB-577B-47DC-A939-5F2392CC3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9C0EFB-577B-47DC-A939-5F2392CC3891}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E070C9-A4F4-4333-BA90-5932830BB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7E070C9-A4F4-4333-BA90-5932830BB336}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96054D2-DEAA-4D78-B0C4-DE16F548EB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B96054D2-DEAA-4D78-B0C4-DE16F548EB7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A94594-A232-4791-8582-05C92ED5ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5A94594-A232-4791-8582-05C92ED5ABEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA0BE6-2FAC-405D-8FB6-A5E815550265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDAA0BE6-2FAC-405D-8FB6-A5E815550265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDD198-4254-4DE2-985E-67F8046AF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29FDD198-4254-4DE2-985E-67F8046AF081}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044EAA1-6A38-41F8-874C-686FA1D6096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D044EAA1-6A38-41F8-874C-686FA1D6096F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC3EF77-C3A6-4B7D-9D95-B484D3FEFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CC3EF77-C3A6-4B7D-9D95-B484D3FEFD23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A768B-0D92-4D87-8662-6B7B6B2C220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A768B-0D92-4D87-8662-6B7B6B2C220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A077776-1CF6-4771-BC09-99016B59F767}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,28 +287,7 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>1989-02:2024-08</t>
-  </si>
-  <si>
-    <t>2001-01:2024-08</t>
-  </si>
-  <si>
-    <t>2016-05:2024-08</t>
-  </si>
-  <si>
-    <t>2009-09:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
     <t>2003-05:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
   </si>
   <si>
     <t>2000-12:2024-08</t>
@@ -342,6 +321,27 @@
   </si>
   <si>
     <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>2003-05:2024-09</t>
+  </si>
+  <si>
+    <t>1989-02:2024-09</t>
+  </si>
+  <si>
+    <t>2001-01:2024-09</t>
+  </si>
+  <si>
+    <t>2016-05:2024-09</t>
+  </si>
+  <si>
+    <t>2009-09:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -768,7 +768,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA436"/>
+  <dimension ref="A1:AA437"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J435" sqref="J435"/>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1242,55 +1242,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>88</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>81</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,25 +1299,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1408,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="J10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="L10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="M10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="R10" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="R10" s="7" t="s">
-        <v>82</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>80</v>
+        <v>94</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>83</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36842,6 +36842,89 @@
       </c>
       <c r="AA436" s="3">
         <v>305.8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27">
+      <c r="A437" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B437" s="3">
+        <v>0</v>
+      </c>
+      <c r="C437" s="3">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0</v>
+      </c>
+      <c r="E437" s="3">
+        <v>0</v>
+      </c>
+      <c r="F437" s="3">
+        <v>0</v>
+      </c>
+      <c r="G437" s="3">
+        <v>0</v>
+      </c>
+      <c r="H437" s="3">
+        <v>0</v>
+      </c>
+      <c r="I437" s="3">
+        <v>0</v>
+      </c>
+      <c r="J437" s="3">
+        <v>0</v>
+      </c>
+      <c r="K437" s="3">
+        <v>0</v>
+      </c>
+      <c r="L437" s="3">
+        <v>0</v>
+      </c>
+      <c r="M437" s="3">
+        <v>0</v>
+      </c>
+      <c r="N437" s="3">
+        <v>0</v>
+      </c>
+      <c r="O437" s="3">
+        <v>0</v>
+      </c>
+      <c r="P437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q437" s="3">
+        <v>0</v>
+      </c>
+      <c r="R437" s="3">
+        <v>74094</v>
+      </c>
+      <c r="S437" s="3">
+        <v>0</v>
+      </c>
+      <c r="T437" s="3">
+        <v>0</v>
+      </c>
+      <c r="U437" s="3">
+        <v>47439</v>
+      </c>
+      <c r="V437" s="3">
+        <v>10040</v>
+      </c>
+      <c r="W437" s="3">
+        <v>3275</v>
+      </c>
+      <c r="X437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y437" s="3">
+        <v>3073</v>
+      </c>
+      <c r="Z437" s="3">
+        <v>6733</v>
+      </c>
+      <c r="AA437" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{595A768B-0D92-4D87-8662-6B7B6B2C220C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CE9CE9-3E66-4A12-B11D-35E9160F7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6230" yWindow="1670" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -287,28 +287,10 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>1989-02:2024-08</t>
-  </si>
-  <si>
-    <t>2001-01:2024-08</t>
-  </si>
-  <si>
-    <t>2016-05:2024-08</t>
-  </si>
-  <si>
-    <t>2009-09:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-14</t>
-  </si>
-  <si>
     <t>2003-05:2024-08</t>
   </si>
   <si>
     <t>2024-09-20</t>
-  </si>
-  <si>
-    <t>2024-09-19</t>
   </si>
   <si>
     <t>2000-12:2024-08</t>
@@ -342,6 +324,21 @@
   </si>
   <si>
     <t>2024-09-23</t>
+  </si>
+  <si>
+    <t>1989-02:2024-09</t>
+  </si>
+  <si>
+    <t>2001-01:2024-09</t>
+  </si>
+  <si>
+    <t>2016-05:2024-09</t>
+  </si>
+  <si>
+    <t>2009-09:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-18</t>
   </si>
 </sst>
 </file>
@@ -402,13 +399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -768,27 +765,27 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA436"/>
+  <dimension ref="A1:AA437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="P431" workbookViewId="0">
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+    <row r="1" spans="1:27">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -905,7 +902,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1242,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="R8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>79</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1408,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>80</v>
+        <v>93</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36842,6 +36839,89 @@
       </c>
       <c r="AA436" s="3">
         <v>305.8</v>
+      </c>
+    </row>
+    <row r="437" spans="1:27">
+      <c r="A437" s="2">
+        <v>45565</v>
+      </c>
+      <c r="B437" s="3">
+        <v>0</v>
+      </c>
+      <c r="C437" s="3">
+        <v>0</v>
+      </c>
+      <c r="D437" s="3">
+        <v>0</v>
+      </c>
+      <c r="E437" s="3">
+        <v>0</v>
+      </c>
+      <c r="F437" s="3">
+        <v>0</v>
+      </c>
+      <c r="G437" s="3">
+        <v>0</v>
+      </c>
+      <c r="H437" s="3">
+        <v>0</v>
+      </c>
+      <c r="I437" s="3">
+        <v>0</v>
+      </c>
+      <c r="J437" s="3">
+        <v>0</v>
+      </c>
+      <c r="K437" s="3">
+        <v>0</v>
+      </c>
+      <c r="L437" s="3">
+        <v>0</v>
+      </c>
+      <c r="M437" s="3">
+        <v>0</v>
+      </c>
+      <c r="N437" s="3">
+        <v>0</v>
+      </c>
+      <c r="O437" s="3">
+        <v>0</v>
+      </c>
+      <c r="P437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q437" s="3">
+        <v>0</v>
+      </c>
+      <c r="R437" s="3">
+        <v>0</v>
+      </c>
+      <c r="S437" s="3">
+        <v>0</v>
+      </c>
+      <c r="T437" s="3">
+        <v>0</v>
+      </c>
+      <c r="U437" s="3">
+        <v>47439</v>
+      </c>
+      <c r="V437" s="3">
+        <v>10040</v>
+      </c>
+      <c r="W437" s="3">
+        <v>3275</v>
+      </c>
+      <c r="X437" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y437" s="3">
+        <v>3073</v>
+      </c>
+      <c r="Z437" s="3">
+        <v>6733</v>
+      </c>
+      <c r="AA437" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CE9CE9-3E66-4A12-B11D-35E9160F7BFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DACCE-1BA6-4BDB-B64A-3759A0015F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6230" yWindow="1670" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -290,9 +290,6 @@
     <t>2003-05:2024-08</t>
   </si>
   <si>
-    <t>2024-09-20</t>
-  </si>
-  <si>
     <t>2000-12:2024-08</t>
   </si>
   <si>
@@ -326,6 +323,9 @@
     <t>2024-09-23</t>
   </si>
   <si>
+    <t>2003-05:2024-09</t>
+  </si>
+  <si>
     <t>1989-02:2024-09</t>
   </si>
   <si>
@@ -336,6 +336,9 @@
   </si>
   <si>
     <t>2009-09:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-19</t>
   </si>
   <si>
     <t>2024-10-18</t>
@@ -767,22 +770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA437"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P431" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -902,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1239,55 +1242,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="J8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="I8" s="5" t="s">
+      <c r="K8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="Q8" s="5" t="s">
-        <v>86</v>
-      </c>
       <c r="R8" s="5" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1405,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="I10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="C10" s="7" t="s">
+      <c r="J10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="M10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="N10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="G10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="I10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="M10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="N10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="O10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>88</v>
-      </c>
       <c r="R10" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1462,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36894,7 +36897,7 @@
         <v>0</v>
       </c>
       <c r="R437" s="3">
-        <v>0</v>
+        <v>74094</v>
       </c>
       <c r="S437" s="3">
         <v>0</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273DACCE-1BA6-4BDB-B64A-3759A0015F32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D465F8-EEB8-48B9-B95B-3481E3236955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,13 +402,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +786,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00D465F8-EEB8-48B9-B95B-3481E3236955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E9FC6-9D4A-4894-8583-71D0596B3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -287,9 +287,6 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2003-05:2024-08</t>
-  </si>
-  <si>
     <t>2000-12:2024-08</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>2018-12:2024-08</t>
   </si>
   <si>
-    <t>2012-12:2024-08</t>
-  </si>
-  <si>
     <t>2020-06:2024-08</t>
   </si>
   <si>
@@ -314,13 +308,7 @@
     <t>2021-07:2024-08</t>
   </si>
   <si>
-    <t>2021-02:2024-08</t>
-  </si>
-  <si>
     <t>2024-09-27</t>
-  </si>
-  <si>
-    <t>2024-09-23</t>
   </si>
   <si>
     <t>2003-05:2024-09</t>
@@ -342,6 +330,15 @@
   </si>
   <si>
     <t>2024-10-18</t>
+  </si>
+  <si>
+    <t>2012-12:2024-09</t>
+  </si>
+  <si>
+    <t>2021-02:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-21</t>
   </si>
 </sst>
 </file>
@@ -402,13 +399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -786,9 +783,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1242,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="I8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="I8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="J8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="K8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="P8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>76</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1408,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36870,16 +36867,16 @@
         <v>0</v>
       </c>
       <c r="I437" s="3">
-        <v>0</v>
+        <v>43055</v>
       </c>
       <c r="J437" s="3">
-        <v>0</v>
+        <v>141860</v>
       </c>
       <c r="K437" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L437" s="3">
-        <v>0</v>
+        <v>47955</v>
       </c>
       <c r="M437" s="3">
         <v>0</v>
@@ -36894,7 +36891,7 @@
         <v>0</v>
       </c>
       <c r="Q437" s="3">
-        <v>0</v>
+        <v>77292</v>
       </c>
       <c r="R437" s="3">
         <v>74094</v>
@@ -36924,7 +36921,7 @@
         <v>6733</v>
       </c>
       <c r="AA437" s="3">
-        <v>0</v>
+        <v>305.8</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F41E9FC6-9D4A-4894-8583-71D0596B3E3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E647D-212F-443D-952F-3B70D0DDEBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,13 +399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -783,9 +783,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1" t="str">
+      <c r="A1" s="1">
         <f>[1]!edb()</f>
-        <v>Wind</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:27">

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E647D-212F-443D-952F-3B70D0DDEBB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58730C77-0265-4116-B9BE-E45682B10C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -329,9 +329,6 @@
     <t>2024-10-19</t>
   </si>
   <si>
-    <t>2024-10-18</t>
-  </si>
-  <si>
     <t>2012-12:2024-09</t>
   </si>
   <si>
@@ -339,6 +336,9 @@
   </si>
   <si>
     <t>2024-10-21</t>
+  </si>
+  <si>
+    <t>2024-10-22</t>
   </si>
 </sst>
 </file>
@@ -399,13 +399,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -783,9 +783,9 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" ht="15">
-      <c r="A1" s="1">
+      <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
-        <v>0</v>
+        <v>Wind</v>
       </c>
     </row>
     <row r="2" spans="1:27">
@@ -1260,16 +1260,16 @@
         <v>79</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="M8" s="5" t="s">
         <v>80</v>
@@ -1284,7 +1284,7 @@
         <v>82</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>84</v>
@@ -1426,16 +1426,16 @@
         <v>83</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7" t="s">
         <v>83</v>
@@ -1450,7 +1450,7 @@
         <v>83</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="R10" s="7" t="s">
         <v>89</v>
@@ -1462,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36903,22 +36903,22 @@
         <v>0</v>
       </c>
       <c r="U437" s="3">
-        <v>47439</v>
+        <v>47438.8</v>
       </c>
       <c r="V437" s="3">
-        <v>10040</v>
+        <v>10039.700000000001</v>
       </c>
       <c r="W437" s="3">
-        <v>3275</v>
+        <v>3275.5</v>
       </c>
       <c r="X437" s="3">
         <v>0</v>
       </c>
       <c r="Y437" s="3">
-        <v>3073</v>
+        <v>3073.1179999999999</v>
       </c>
       <c r="Z437" s="3">
-        <v>6733</v>
+        <v>6733.2</v>
       </c>
       <c r="AA437" s="3">
         <v>305.8</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58730C77-0265-4116-B9BE-E45682B10C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA607FD1-2ADA-44F6-A3BC-4E5363D79087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -287,30 +287,6 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2000-12:2024-08</t>
-  </si>
-  <si>
-    <t>2018-02:2024-08</t>
-  </si>
-  <si>
-    <t>2008-12:2024-08</t>
-  </si>
-  <si>
-    <t>2018-12:2024-08</t>
-  </si>
-  <si>
-    <t>2020-06:2024-08</t>
-  </si>
-  <si>
-    <t>2017-12:2024-08</t>
-  </si>
-  <si>
-    <t>2021-07:2024-08</t>
-  </si>
-  <si>
-    <t>2024-09-27</t>
-  </si>
-  <si>
     <t>2003-05:2024-09</t>
   </si>
   <si>
@@ -339,6 +315,30 @@
   </si>
   <si>
     <t>2024-10-22</t>
+  </si>
+  <si>
+    <t>2000-12:2024-09</t>
+  </si>
+  <si>
+    <t>2018-02:2024-09</t>
+  </si>
+  <si>
+    <t>2008-12:2024-09</t>
+  </si>
+  <si>
+    <t>2018-12:2024-09</t>
+  </si>
+  <si>
+    <t>2020-06:2024-09</t>
+  </si>
+  <si>
+    <t>2017-12:2024-09</t>
+  </si>
+  <si>
+    <t>2021-07:2024-09</t>
+  </si>
+  <si>
+    <t>2024-10-28</t>
   </si>
 </sst>
 </file>
@@ -1239,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1296,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1405,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>83</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1462,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36008,7 +36008,7 @@
         <v>5836.8</v>
       </c>
       <c r="AA426" s="3">
-        <v>304.89999999999998</v>
+        <v>305.10000000000002</v>
       </c>
     </row>
     <row r="427" spans="1:27">
@@ -36846,25 +36846,25 @@
         <v>45565</v>
       </c>
       <c r="B437" s="3">
-        <v>0</v>
+        <v>2672</v>
       </c>
       <c r="C437" s="3">
-        <v>0</v>
+        <v>3305</v>
       </c>
       <c r="D437" s="3">
-        <v>0</v>
+        <v>959</v>
       </c>
       <c r="E437" s="3">
-        <v>0</v>
+        <v>5704</v>
       </c>
       <c r="F437" s="3">
-        <v>0</v>
+        <v>1567</v>
       </c>
       <c r="G437" s="3">
-        <v>0</v>
+        <v>3469</v>
       </c>
       <c r="H437" s="3">
-        <v>0</v>
+        <v>1828</v>
       </c>
       <c r="I437" s="3">
         <v>43055</v>
@@ -36879,16 +36879,16 @@
         <v>47955</v>
       </c>
       <c r="M437" s="3">
-        <v>0</v>
+        <v>37464</v>
       </c>
       <c r="N437" s="3">
-        <v>0</v>
+        <v>117703</v>
       </c>
       <c r="O437" s="3">
-        <v>0</v>
+        <v>13839</v>
       </c>
       <c r="P437" s="3">
-        <v>0</v>
+        <v>4551</v>
       </c>
       <c r="Q437" s="3">
         <v>77292</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA607FD1-2ADA-44F6-A3BC-4E5363D79087}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B64EA9-9F40-43C7-B3A3-A73EFD666AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="11520" windowHeight="8325" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="780" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -290,18 +290,6 @@
     <t>2003-05:2024-09</t>
   </si>
   <si>
-    <t>1989-02:2024-09</t>
-  </si>
-  <si>
-    <t>2001-01:2024-09</t>
-  </si>
-  <si>
-    <t>2016-05:2024-09</t>
-  </si>
-  <si>
-    <t>2009-09:2024-09</t>
-  </si>
-  <si>
     <t>2024-10-19</t>
   </si>
   <si>
@@ -312,9 +300,6 @@
   </si>
   <si>
     <t>2024-10-21</t>
-  </si>
-  <si>
-    <t>2024-10-22</t>
   </si>
   <si>
     <t>2000-12:2024-09</t>
@@ -339,6 +324,21 @@
   </si>
   <si>
     <t>2024-10-28</t>
+  </si>
+  <si>
+    <t>1989-02:2024-10</t>
+  </si>
+  <si>
+    <t>2001-01:2024-10</t>
+  </si>
+  <si>
+    <t>2016-05:2024-10</t>
+  </si>
+  <si>
+    <t>2009-09:2024-10</t>
+  </si>
+  <si>
+    <t>2024-11-15</t>
   </si>
 </sst>
 </file>
@@ -765,24 +765,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA437"/>
+  <dimension ref="A1:AA438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -902,7 +902,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1239,52 +1239,52 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>92</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="R8" s="5" t="s">
         <v>76</v>
@@ -1296,22 +1296,22 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>76</v>
@@ -1405,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1462,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36922,6 +36922,89 @@
       </c>
       <c r="AA437" s="3">
         <v>305.8</v>
+      </c>
+    </row>
+    <row r="438" spans="1:27">
+      <c r="A438" s="2">
+        <v>45596</v>
+      </c>
+      <c r="B438" s="3">
+        <v>0</v>
+      </c>
+      <c r="C438" s="3">
+        <v>0</v>
+      </c>
+      <c r="D438" s="3">
+        <v>0</v>
+      </c>
+      <c r="E438" s="3">
+        <v>0</v>
+      </c>
+      <c r="F438" s="3">
+        <v>0</v>
+      </c>
+      <c r="G438" s="3">
+        <v>0</v>
+      </c>
+      <c r="H438" s="3">
+        <v>0</v>
+      </c>
+      <c r="I438" s="3">
+        <v>0</v>
+      </c>
+      <c r="J438" s="3">
+        <v>0</v>
+      </c>
+      <c r="K438" s="3">
+        <v>0</v>
+      </c>
+      <c r="L438" s="3">
+        <v>0</v>
+      </c>
+      <c r="M438" s="3">
+        <v>0</v>
+      </c>
+      <c r="N438" s="3">
+        <v>0</v>
+      </c>
+      <c r="O438" s="3">
+        <v>0</v>
+      </c>
+      <c r="P438" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q438" s="3">
+        <v>0</v>
+      </c>
+      <c r="R438" s="3">
+        <v>0</v>
+      </c>
+      <c r="S438" s="3">
+        <v>0</v>
+      </c>
+      <c r="T438" s="3">
+        <v>0</v>
+      </c>
+      <c r="U438" s="3">
+        <v>52230</v>
+      </c>
+      <c r="V438" s="3">
+        <v>11101</v>
+      </c>
+      <c r="W438" s="3">
+        <v>3643</v>
+      </c>
+      <c r="X438" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y438" s="3">
+        <v>3472</v>
+      </c>
+      <c r="Z438" s="3">
+        <v>7581</v>
+      </c>
+      <c r="AA438" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B64EA9-9F40-43C7-B3A3-A73EFD666AAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842D06A4-50D3-4E16-9D27-3843BD5A3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="780" windowWidth="18000" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -287,43 +287,34 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2003-05:2024-09</t>
+    <t>2000-12:2024-10</t>
   </si>
   <si>
-    <t>2024-10-19</t>
+    <t>2018-02:2024-10</t>
   </si>
   <si>
-    <t>2012-12:2024-09</t>
+    <t>2008-12:2024-10</t>
   </si>
   <si>
-    <t>2021-02:2024-09</t>
+    <t>2018-12:2024-10</t>
   </si>
   <si>
-    <t>2024-10-21</t>
+    <t>2012-12:2024-10</t>
   </si>
   <si>
-    <t>2000-12:2024-09</t>
+    <t>2020-06:2024-10</t>
   </si>
   <si>
-    <t>2018-02:2024-09</t>
+    <t>2017-12:2024-10</t>
   </si>
   <si>
-    <t>2008-12:2024-09</t>
+    <t>2021-07:2024-10</t>
   </si>
   <si>
-    <t>2018-12:2024-09</t>
+    <t>2021-02:2024-10</t>
   </si>
   <si>
-    <t>2020-06:2024-09</t>
-  </si>
-  <si>
-    <t>2017-12:2024-09</t>
-  </si>
-  <si>
-    <t>2021-07:2024-09</t>
-  </si>
-  <si>
-    <t>2024-10-28</t>
+    <t>2003-05:2024-10</t>
   </si>
   <si>
     <t>1989-02:2024-10</t>
@@ -338,7 +329,19 @@
     <t>2009-09:2024-10</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>National Energy Administration of the People's Republic of China</t>
+  </si>
+  <si>
+    <t>2024-11-29</t>
+  </si>
+  <si>
+    <t>2024-11-22</t>
+  </si>
+  <si>
+    <t>2024-11-20</t>
+  </si>
+  <si>
+    <t>2024-11-19</t>
   </si>
 </sst>
 </file>
@@ -767,22 +770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA438"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -902,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1239,55 +1242,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="O8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="Q8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="R8" s="5" t="s">
         <v>85</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>79</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>76</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1296,25 +1299,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>76</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1370,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>69</v>
+        <v>90</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>70</v>
@@ -1405,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>77</v>
+        <v>93</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1462,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36019,7 +36022,7 @@
         <v>2704</v>
       </c>
       <c r="C427" s="3">
-        <v>3677</v>
+        <v>3678</v>
       </c>
       <c r="D427" s="3">
         <v>1120</v>
@@ -36091,7 +36094,7 @@
         <v>6424.3</v>
       </c>
       <c r="AA427" s="3">
-        <v>304.7</v>
+        <v>305.2</v>
       </c>
     </row>
     <row r="428" spans="1:27">
@@ -36929,55 +36932,55 @@
         <v>45596</v>
       </c>
       <c r="B438" s="3">
-        <v>0</v>
+        <v>2937</v>
       </c>
       <c r="C438" s="3">
-        <v>0</v>
+        <v>3631</v>
       </c>
       <c r="D438" s="3">
-        <v>0</v>
+        <v>1052</v>
       </c>
       <c r="E438" s="3">
-        <v>0</v>
+        <v>6336</v>
       </c>
       <c r="F438" s="3">
-        <v>0</v>
+        <v>1750</v>
       </c>
       <c r="G438" s="3">
-        <v>0</v>
+        <v>3811</v>
       </c>
       <c r="H438" s="3">
-        <v>0</v>
+        <v>1981</v>
       </c>
       <c r="I438" s="3">
-        <v>0</v>
+        <v>43088</v>
       </c>
       <c r="J438" s="3">
-        <v>0</v>
+        <v>142597</v>
       </c>
       <c r="K438" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L438" s="3">
-        <v>0</v>
+        <v>48617</v>
       </c>
       <c r="M438" s="3">
-        <v>0</v>
+        <v>37462</v>
       </c>
       <c r="N438" s="3">
-        <v>0</v>
+        <v>118094</v>
       </c>
       <c r="O438" s="3">
-        <v>0</v>
+        <v>14167</v>
       </c>
       <c r="P438" s="3">
-        <v>0</v>
+        <v>4560</v>
       </c>
       <c r="Q438" s="3">
-        <v>0</v>
+        <v>79311</v>
       </c>
       <c r="R438" s="3">
-        <v>0</v>
+        <v>81836</v>
       </c>
       <c r="S438" s="3">
         <v>0</v>
@@ -36986,25 +36989,25 @@
         <v>0</v>
       </c>
       <c r="U438" s="3">
-        <v>52230</v>
+        <v>52230.5</v>
       </c>
       <c r="V438" s="3">
-        <v>11101</v>
+        <v>11100.7</v>
       </c>
       <c r="W438" s="3">
-        <v>3643</v>
+        <v>3642.8</v>
       </c>
       <c r="X438" s="3">
         <v>0</v>
       </c>
       <c r="Y438" s="3">
-        <v>3472</v>
+        <v>3472.1931</v>
       </c>
       <c r="Z438" s="3">
-        <v>7581</v>
+        <v>7580.9</v>
       </c>
       <c r="AA438" s="3">
-        <v>0</v>
+        <v>307</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{842D06A4-50D3-4E16-9D27-3843BD5A3489}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA63E3D-B73B-44C3-BC16-B8BD63316C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -317,18 +317,6 @@
     <t>2003-05:2024-10</t>
   </si>
   <si>
-    <t>1989-02:2024-10</t>
-  </si>
-  <si>
-    <t>2001-01:2024-10</t>
-  </si>
-  <si>
-    <t>2016-05:2024-10</t>
-  </si>
-  <si>
-    <t>2009-09:2024-10</t>
-  </si>
-  <si>
     <t>National Energy Administration of the People's Republic of China</t>
   </si>
   <si>
@@ -341,7 +329,19 @@
     <t>2024-11-20</t>
   </si>
   <si>
-    <t>2024-11-19</t>
+    <t>1989-02:2024-11</t>
+  </si>
+  <si>
+    <t>2001-01:2024-11</t>
+  </si>
+  <si>
+    <t>2016-05:2024-11</t>
+  </si>
+  <si>
+    <t>2009-09:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-16</t>
   </si>
 </sst>
 </file>
@@ -768,24 +768,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA438"/>
+  <dimension ref="A1:AA439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O4" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -905,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1299,22 +1299,22 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>85</v>
@@ -1373,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>70</v>
@@ -1408,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1483,7 +1483,7 @@
         <v>94</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -37008,6 +37008,89 @@
       </c>
       <c r="AA438" s="3">
         <v>307</v>
+      </c>
+    </row>
+    <row r="439" spans="1:27">
+      <c r="A439" s="2">
+        <v>45626</v>
+      </c>
+      <c r="B439" s="3">
+        <v>0</v>
+      </c>
+      <c r="C439" s="3">
+        <v>0</v>
+      </c>
+      <c r="D439" s="3">
+        <v>0</v>
+      </c>
+      <c r="E439" s="3">
+        <v>0</v>
+      </c>
+      <c r="F439" s="3">
+        <v>0</v>
+      </c>
+      <c r="G439" s="3">
+        <v>0</v>
+      </c>
+      <c r="H439" s="3">
+        <v>0</v>
+      </c>
+      <c r="I439" s="3">
+        <v>0</v>
+      </c>
+      <c r="J439" s="3">
+        <v>0</v>
+      </c>
+      <c r="K439" s="3">
+        <v>0</v>
+      </c>
+      <c r="L439" s="3">
+        <v>0</v>
+      </c>
+      <c r="M439" s="3">
+        <v>0</v>
+      </c>
+      <c r="N439" s="3">
+        <v>0</v>
+      </c>
+      <c r="O439" s="3">
+        <v>0</v>
+      </c>
+      <c r="P439" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q439" s="3">
+        <v>0</v>
+      </c>
+      <c r="R439" s="3">
+        <v>0</v>
+      </c>
+      <c r="S439" s="3">
+        <v>0</v>
+      </c>
+      <c r="T439" s="3">
+        <v>0</v>
+      </c>
+      <c r="U439" s="3">
+        <v>57442</v>
+      </c>
+      <c r="V439" s="3">
+        <v>11926</v>
+      </c>
+      <c r="W439" s="3">
+        <v>4025</v>
+      </c>
+      <c r="X439" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y439" s="3">
+        <v>3856</v>
+      </c>
+      <c r="Z439" s="3">
+        <v>8438</v>
+      </c>
+      <c r="AA439" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BA63E3D-B73B-44C3-BC16-B8BD63316C67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96DC6D-3728-4138-90A7-F9A9BD767493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2685" yWindow="2685" windowWidth="14400" windowHeight="10425" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -774,18 +774,18 @@
       <selection activeCell="J435" sqref="J435"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -905,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA96DC6D-3728-4138-90A7-F9A9BD767493}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E1FBF-3C11-4F4E-88FE-ADEA0AB4EAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,9 +299,6 @@
     <t>2018-12:2024-10</t>
   </si>
   <si>
-    <t>2012-12:2024-10</t>
-  </si>
-  <si>
     <t>2020-06:2024-10</t>
   </si>
   <si>
@@ -311,22 +308,10 @@
     <t>2021-07:2024-10</t>
   </si>
   <si>
-    <t>2021-02:2024-10</t>
-  </si>
-  <si>
-    <t>2003-05:2024-10</t>
-  </si>
-  <si>
     <t>National Energy Administration of the People's Republic of China</t>
   </si>
   <si>
     <t>2024-11-29</t>
-  </si>
-  <si>
-    <t>2024-11-22</t>
-  </si>
-  <si>
-    <t>2024-11-20</t>
   </si>
   <si>
     <t>1989-02:2024-11</t>
@@ -342,6 +327,21 @@
   </si>
   <si>
     <t>2024-12-16</t>
+  </si>
+  <si>
+    <t>2012-12:2024-11</t>
+  </si>
+  <si>
+    <t>2021-02:2024-11</t>
+  </si>
+  <si>
+    <t>2003-05:2024-11</t>
+  </si>
+  <si>
+    <t>2024-12-20</t>
+  </si>
+  <si>
+    <t>2024-12-19</t>
   </si>
 </sst>
 </file>
@@ -1263,34 +1263,34 @@
         <v>79</v>
       </c>
       <c r="I8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="J8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="O8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>83</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,25 +1299,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>87</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>88</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1373,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>70</v>
@@ -1408,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -37036,16 +37036,16 @@
         <v>0</v>
       </c>
       <c r="I439" s="3">
-        <v>0</v>
+        <v>43208</v>
       </c>
       <c r="J439" s="3">
-        <v>0</v>
+        <v>143426</v>
       </c>
       <c r="K439" s="3">
-        <v>0</v>
+        <v>5808</v>
       </c>
       <c r="L439" s="3">
-        <v>0</v>
+        <v>49218</v>
       </c>
       <c r="M439" s="3">
         <v>0</v>
@@ -37060,10 +37060,10 @@
         <v>0</v>
       </c>
       <c r="Q439" s="3">
-        <v>0</v>
+        <v>81833</v>
       </c>
       <c r="R439" s="3">
-        <v>0</v>
+        <v>89686</v>
       </c>
       <c r="S439" s="3">
         <v>0</v>
@@ -37090,7 +37090,7 @@
         <v>8438</v>
       </c>
       <c r="AA439" s="3">
-        <v>0</v>
+        <v>304.8</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD6E1FBF-3C11-4F4E-88FE-ADEA0AB4EAB2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA23D33F-04C2-4D54-BEF8-E66BA6266D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1880" yWindow="1630" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -287,31 +287,7 @@
     <t>2024-05-30</t>
   </si>
   <si>
-    <t>2000-12:2024-10</t>
-  </si>
-  <si>
-    <t>2018-02:2024-10</t>
-  </si>
-  <si>
-    <t>2008-12:2024-10</t>
-  </si>
-  <si>
-    <t>2018-12:2024-10</t>
-  </si>
-  <si>
-    <t>2020-06:2024-10</t>
-  </si>
-  <si>
-    <t>2017-12:2024-10</t>
-  </si>
-  <si>
-    <t>2021-07:2024-10</t>
-  </si>
-  <si>
     <t>National Energy Administration of the People's Republic of China</t>
-  </si>
-  <si>
-    <t>2024-11-29</t>
   </si>
   <si>
     <t>1989-02:2024-11</t>
@@ -342,6 +318,30 @@
   </si>
   <si>
     <t>2024-12-19</t>
+  </si>
+  <si>
+    <t>2000-12:2024-11</t>
+  </si>
+  <si>
+    <t>2018-02:2024-11</t>
+  </si>
+  <si>
+    <t>2008-12:2024-11</t>
+  </si>
+  <si>
+    <t>2018-12:2024-11</t>
+  </si>
+  <si>
+    <t>2020-06:2024-11</t>
+  </si>
+  <si>
+    <t>2017-12:2024-11</t>
+  </si>
+  <si>
+    <t>2021-07:2024-11</t>
+  </si>
+  <si>
+    <t>2025-01-02</t>
   </si>
 </sst>
 </file>
@@ -770,22 +770,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA439"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="J435" sqref="J435"/>
+    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+      <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -905,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1242,55 +1242,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>76</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>78</v>
+        <v>89</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>79</v>
+        <v>90</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="J8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="K8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="L8" s="5" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="M8" s="5" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="N8" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="O8" s="5" t="s">
-        <v>81</v>
+        <v>92</v>
       </c>
       <c r="P8" s="5" t="s">
-        <v>82</v>
+        <v>93</v>
       </c>
       <c r="Q8" s="5" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,25 +1299,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>85</v>
+        <v>77</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>87</v>
+        <v>79</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1373,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>70</v>
@@ -1408,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>84</v>
+        <v>94</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -36105,7 +36105,7 @@
         <v>2927</v>
       </c>
       <c r="C428" s="3">
-        <v>4040</v>
+        <v>4041</v>
       </c>
       <c r="D428" s="3">
         <v>1218</v>
@@ -36177,7 +36177,7 @@
         <v>7252</v>
       </c>
       <c r="AA428" s="3">
-        <v>303.39999999999998</v>
+        <v>303.89999999999998</v>
       </c>
     </row>
     <row r="429" spans="1:27">
@@ -37015,25 +37015,25 @@
         <v>45626</v>
       </c>
       <c r="B439" s="3">
-        <v>0</v>
+        <v>3146</v>
       </c>
       <c r="C439" s="3">
-        <v>0</v>
+        <v>3988</v>
       </c>
       <c r="D439" s="3">
-        <v>0</v>
+        <v>1132</v>
       </c>
       <c r="E439" s="3">
-        <v>0</v>
+        <v>6983</v>
       </c>
       <c r="F439" s="3">
-        <v>0</v>
+        <v>1931</v>
       </c>
       <c r="G439" s="3">
-        <v>0</v>
+        <v>4187</v>
       </c>
       <c r="H439" s="3">
-        <v>0</v>
+        <v>2156</v>
       </c>
       <c r="I439" s="3">
         <v>43208</v>
@@ -37048,16 +37048,16 @@
         <v>49218</v>
       </c>
       <c r="M439" s="3">
-        <v>0</v>
+        <v>37516</v>
       </c>
       <c r="N439" s="3">
-        <v>0</v>
+        <v>118669</v>
       </c>
       <c r="O439" s="3">
-        <v>0</v>
+        <v>14270</v>
       </c>
       <c r="P439" s="3">
-        <v>0</v>
+        <v>4580</v>
       </c>
       <c r="Q439" s="3">
         <v>81833</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA23D33F-04C2-4D54-BEF8-E66BA6266D00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BED321-D2B6-4A5D-BA4F-DF05121CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1880" yWindow="1630" windowWidth="19200" windowHeight="11260" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -774,18 +774,18 @@
       <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.6328125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.6328125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.6328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -905,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="203">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5BED321-D2B6-4A5D-BA4F-DF05121CF259}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA4C17-B0BE-45E1-B01E-E346643D5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -290,21 +290,6 @@
     <t>National Energy Administration of the People's Republic of China</t>
   </si>
   <si>
-    <t>1989-02:2024-11</t>
-  </si>
-  <si>
-    <t>2001-01:2024-11</t>
-  </si>
-  <si>
-    <t>2016-05:2024-11</t>
-  </si>
-  <si>
-    <t>2009-09:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-16</t>
-  </si>
-  <si>
     <t>2012-12:2024-11</t>
   </si>
   <si>
@@ -342,6 +327,21 @@
   </si>
   <si>
     <t>2025-01-02</t>
+  </si>
+  <si>
+    <t>1989-02:2024-12</t>
+  </si>
+  <si>
+    <t>2001-01:2024-12</t>
+  </si>
+  <si>
+    <t>2016-05:2024-12</t>
+  </si>
+  <si>
+    <t>2009-09:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-17</t>
   </si>
 </sst>
 </file>
@@ -768,24 +768,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA439"/>
+  <dimension ref="A1:AA440"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A434" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="15">
+    <row r="1" spans="1:27">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -905,7 +905,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1242,55 +1242,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>84</v>
+      </c>
+      <c r="G8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>77</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>87</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>91</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>93</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,25 +1299,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>77</v>
+        <v>90</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>78</v>
+        <v>91</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Z8" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="AA8" s="5" t="s">
         <v>79</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>80</v>
-      </c>
-      <c r="AA8" s="5" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1408,55 +1408,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,25 +1465,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>81</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -37091,6 +37091,89 @@
       </c>
       <c r="AA439" s="3">
         <v>304.8</v>
+      </c>
+    </row>
+    <row r="440" spans="1:27">
+      <c r="A440" s="2">
+        <v>45657</v>
+      </c>
+      <c r="B440" s="3">
+        <v>0</v>
+      </c>
+      <c r="C440" s="3">
+        <v>0</v>
+      </c>
+      <c r="D440" s="3">
+        <v>0</v>
+      </c>
+      <c r="E440" s="3">
+        <v>0</v>
+      </c>
+      <c r="F440" s="3">
+        <v>0</v>
+      </c>
+      <c r="G440" s="3">
+        <v>0</v>
+      </c>
+      <c r="H440" s="3">
+        <v>0</v>
+      </c>
+      <c r="I440" s="3">
+        <v>0</v>
+      </c>
+      <c r="J440" s="3">
+        <v>0</v>
+      </c>
+      <c r="K440" s="3">
+        <v>0</v>
+      </c>
+      <c r="L440" s="3">
+        <v>0</v>
+      </c>
+      <c r="M440" s="3">
+        <v>0</v>
+      </c>
+      <c r="N440" s="3">
+        <v>0</v>
+      </c>
+      <c r="O440" s="3">
+        <v>0</v>
+      </c>
+      <c r="P440" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q440" s="3">
+        <v>0</v>
+      </c>
+      <c r="R440" s="3">
+        <v>0</v>
+      </c>
+      <c r="S440" s="3">
+        <v>0</v>
+      </c>
+      <c r="T440" s="3">
+        <v>0</v>
+      </c>
+      <c r="U440" s="3">
+        <v>63438</v>
+      </c>
+      <c r="V440" s="3">
+        <v>12742</v>
+      </c>
+      <c r="W440" s="3">
+        <v>4449</v>
+      </c>
+      <c r="X440" s="3">
+        <v>0</v>
+      </c>
+      <c r="Y440" s="3">
+        <v>4191</v>
+      </c>
+      <c r="Z440" s="3">
+        <v>9360</v>
+      </c>
+      <c r="AA440" s="3">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Shared drives\CREA-China\monthly snapshot\wind data templates\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21DA4C17-B0BE-45E1-B01E-E346643D5309}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071DD0BF-897C-4AF5-825A-416BCEBFD693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2295" yWindow="2295" windowWidth="14400" windowHeight="10470" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="China_Average Utilization Hours" sheetId="1" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
   <si>
     <t>Country</t>
   </si>
@@ -302,9 +302,6 @@
     <t>2024-12-20</t>
   </si>
   <si>
-    <t>2024-12-19</t>
-  </si>
-  <si>
     <t>2000-12:2024-11</t>
   </si>
   <si>
@@ -342,6 +339,12 @@
   </si>
   <si>
     <t>2025-01-17</t>
+  </si>
+  <si>
+    <t>2003-05:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-20</t>
   </si>
 </sst>
 </file>
@@ -774,18 +777,18 @@
       <selection activeCell="D437" sqref="D437"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.25"/>
   <cols>
-    <col min="9" max="9" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="22" width="9.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="9.625" bestFit="1" customWidth="1"/>
+    <col min="21" max="22" width="9.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27">
+    <row r="1" spans="1:27" ht="15">
       <c r="A1" s="1" t="str">
         <f>[1]!edb()</f>
         <v>Wind</v>
@@ -905,7 +908,7 @@
       <c r="Z3" s="5"/>
       <c r="AA3" s="5"/>
     </row>
-    <row r="4" spans="1:27" s="4" customFormat="1" ht="225">
+    <row r="4" spans="1:27" s="4" customFormat="1" ht="199.5">
       <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
@@ -1242,25 +1245,25 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="D8" s="5" t="s">
+      <c r="E8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="F8" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="H8" s="5" t="s">
         <v>84</v>
-      </c>
-      <c r="G8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>85</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>77</v>
@@ -1275,22 +1278,22 @@
         <v>77</v>
       </c>
       <c r="M8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="N8" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="N8" s="5" t="s">
+      <c r="O8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="P8" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>87</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="Q8" s="5" t="s">
         <v>78</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1299,22 +1302,22 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="V8" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="W8" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="V8" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="W8" s="5" t="s">
-        <v>91</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="Z8" s="5" t="s">
         <v>92</v>
-      </c>
-      <c r="Z8" s="5" t="s">
-        <v>93</v>
       </c>
       <c r="AA8" s="5" t="s">
         <v>79</v>
@@ -1408,25 +1411,25 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>80</v>
@@ -1441,22 +1444,22 @@
         <v>80</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>80</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>81</v>
+        <v>95</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1465,22 +1468,22 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="AA10" s="7" t="s">
         <v>80</v>
@@ -37072,22 +37075,22 @@
         <v>0</v>
       </c>
       <c r="U439" s="3">
-        <v>57442</v>
+        <v>57441.7</v>
       </c>
       <c r="V439" s="3">
-        <v>11926</v>
+        <v>11926.3</v>
       </c>
       <c r="W439" s="3">
-        <v>4025</v>
+        <v>4025.2</v>
       </c>
       <c r="X439" s="3">
         <v>0</v>
       </c>
       <c r="Y439" s="3">
-        <v>3856</v>
+        <v>3856.4371999999998</v>
       </c>
       <c r="Z439" s="3">
-        <v>8438</v>
+        <v>8437.7000000000007</v>
       </c>
       <c r="AA439" s="3">
         <v>304.8</v>
@@ -37146,7 +37149,7 @@
         <v>0</v>
       </c>
       <c r="R440" s="3">
-        <v>0</v>
+        <v>98521</v>
       </c>
       <c r="S440" s="3">
         <v>0</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{071DD0BF-897C-4AF5-825A-416BCEBFD693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D432989-CB9C-47C5-818A-8B603C9923F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="97">
   <si>
     <t>Country</t>
   </si>
@@ -345,6 +345,9 @@
   </si>
   <si>
     <t>2025-01-20</t>
+  </si>
+  <si>
+    <t>2025-01-21</t>
   </si>
 </sst>
 </file>
@@ -1468,10 +1471,10 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="W10" s="7" t="s">
         <v>93</v>
@@ -1480,10 +1483,10 @@
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="AA10" s="7" t="s">
         <v>80</v>
@@ -37158,10 +37161,10 @@
         <v>0</v>
       </c>
       <c r="U440" s="3">
-        <v>63438</v>
+        <v>63437.7</v>
       </c>
       <c r="V440" s="3">
-        <v>12742</v>
+        <v>12742.5</v>
       </c>
       <c r="W440" s="3">
         <v>4449</v>
@@ -37170,10 +37173,10 @@
         <v>0</v>
       </c>
       <c r="Y440" s="3">
-        <v>4191</v>
+        <v>4190.8499000000002</v>
       </c>
       <c r="Z440" s="3">
-        <v>9360</v>
+        <v>9360.5</v>
       </c>
       <c r="AA440" s="3">
         <v>0</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D432989-CB9C-47C5-818A-8B603C9923F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF26C1-2511-4751-A6FB-749EF9E4F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
   <si>
     <t>Country</t>
   </si>
@@ -290,12 +290,6 @@
     <t>National Energy Administration of the People's Republic of China</t>
   </si>
   <si>
-    <t>2012-12:2024-11</t>
-  </si>
-  <si>
-    <t>2021-02:2024-11</t>
-  </si>
-  <si>
     <t>2003-05:2024-11</t>
   </si>
   <si>
@@ -348,6 +342,15 @@
   </si>
   <si>
     <t>2025-01-21</t>
+  </si>
+  <si>
+    <t>2012-12:2024-12</t>
+  </si>
+  <si>
+    <t>2021-02:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-22</t>
   </si>
 </sst>
 </file>
@@ -1248,55 +1251,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="E8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="F8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="G8" s="5" t="s">
         <v>82</v>
       </c>
-      <c r="E8" s="5" t="s">
+      <c r="H8" s="5" t="s">
+        <v>82</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="M8" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="G8" s="5" t="s">
+      <c r="N8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="H8" s="5" t="s">
+      <c r="O8" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="I8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>77</v>
-      </c>
-      <c r="M8" s="5" t="s">
+      <c r="P8" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>87</v>
-      </c>
       <c r="Q8" s="5" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="R8" s="5" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1305,25 +1308,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="X8" s="5" t="s">
         <v>74</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1414,55 +1417,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1471,25 +1474,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="X10" s="7" t="s">
         <v>75</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -37125,16 +37128,16 @@
         <v>0</v>
       </c>
       <c r="I440" s="3">
-        <v>0</v>
+        <v>43595</v>
       </c>
       <c r="J440" s="3">
-        <v>0</v>
+        <v>144445</v>
       </c>
       <c r="K440" s="3">
-        <v>0</v>
+        <v>6083</v>
       </c>
       <c r="L440" s="3">
-        <v>0</v>
+        <v>52068</v>
       </c>
       <c r="M440" s="3">
         <v>0</v>
@@ -37149,7 +37152,7 @@
         <v>0</v>
       </c>
       <c r="Q440" s="3">
-        <v>0</v>
+        <v>88666</v>
       </c>
       <c r="R440" s="3">
         <v>98521</v>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1EF26C1-2511-4751-A6FB-749EF9E4F58F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83945F04-FA61-49D7-BB5A-F340DBF01BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
   <si>
     <t>Country</t>
   </si>
@@ -281,40 +281,10 @@
     <t>2022-01-29</t>
   </si>
   <si>
-    <t>2008-12:2024-04</t>
-  </si>
-  <si>
-    <t>2024-05-30</t>
-  </si>
-  <si>
     <t>National Energy Administration of the People's Republic of China</t>
   </si>
   <si>
-    <t>2003-05:2024-11</t>
-  </si>
-  <si>
-    <t>2024-12-20</t>
-  </si>
-  <si>
-    <t>2000-12:2024-11</t>
-  </si>
-  <si>
-    <t>2018-02:2024-11</t>
-  </si>
-  <si>
-    <t>2008-12:2024-11</t>
-  </si>
-  <si>
-    <t>2018-12:2024-11</t>
-  </si>
-  <si>
     <t>2020-06:2024-11</t>
-  </si>
-  <si>
-    <t>2017-12:2024-11</t>
-  </si>
-  <si>
-    <t>2021-07:2024-11</t>
   </si>
   <si>
     <t>2025-01-02</t>
@@ -350,7 +320,25 @@
     <t>2021-02:2024-12</t>
   </si>
   <si>
-    <t>2025-01-22</t>
+    <t>2000-12:2024-12</t>
+  </si>
+  <si>
+    <t>2018-02:2024-12</t>
+  </si>
+  <si>
+    <t>2008-12:2024-12</t>
+  </si>
+  <si>
+    <t>2018-12:2024-12</t>
+  </si>
+  <si>
+    <t>2017-12:2024-12</t>
+  </si>
+  <si>
+    <t>2021-07:2024-12</t>
+  </si>
+  <si>
+    <t>2025-01-24</t>
   </si>
 </sst>
 </file>
@@ -1251,55 +1239,55 @@
         <v>65</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>79</v>
+        <v>87</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="G8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="H8" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="J8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="K8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="L8" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="N8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="O8" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="P8" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="Q8" s="5" t="s">
+        <v>86</v>
+      </c>
+      <c r="R8" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="H8" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="L8" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="M8" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="N8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="O8" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="P8" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q8" s="5" t="s">
-        <v>96</v>
-      </c>
-      <c r="R8" s="5" t="s">
-        <v>92</v>
       </c>
       <c r="S8" s="5" t="s">
         <v>66</v>
@@ -1308,25 +1296,25 @@
         <v>67</v>
       </c>
       <c r="U8" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="V8" s="5" t="s">
-        <v>87</v>
+        <v>77</v>
       </c>
       <c r="W8" s="5" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="X8" s="5" t="s">
-        <v>74</v>
+        <v>89</v>
       </c>
       <c r="Y8" s="5" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
       <c r="Z8" s="5" t="s">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AA8" s="5" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:27">
@@ -1382,7 +1370,7 @@
         <v>69</v>
       </c>
       <c r="R9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="S9" s="5" t="s">
         <v>70</v>
@@ -1417,55 +1405,55 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="M10" s="7" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="N10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="R10" s="7" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="S10" s="7" t="s">
         <v>73</v>
@@ -1474,25 +1462,25 @@
         <v>73</v>
       </c>
       <c r="U10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="V10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="W10" s="7" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="Y10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="Z10" s="7" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" spans="1:27">
@@ -37107,52 +37095,52 @@
         <v>45657</v>
       </c>
       <c r="B440" s="3">
-        <v>0</v>
+        <v>3349.4240319999999</v>
       </c>
       <c r="C440" s="3">
-        <v>0</v>
+        <v>4400.3726649999999</v>
       </c>
       <c r="D440" s="3">
-        <v>0</v>
+        <v>1210.7924499999999</v>
       </c>
       <c r="E440" s="3">
-        <v>0</v>
+        <v>7683.491344</v>
       </c>
       <c r="F440" s="3">
-        <v>0</v>
+        <v>2127.3262880000002</v>
       </c>
       <c r="G440" s="3">
-        <v>0</v>
+        <v>4627.6256059999996</v>
       </c>
       <c r="H440" s="3">
-        <v>0</v>
+        <v>2363.1834199999998</v>
       </c>
       <c r="I440" s="3">
-        <v>43595</v>
+        <v>43594.599399999999</v>
       </c>
       <c r="J440" s="3">
-        <v>144445</v>
+        <v>144445.30110000001</v>
       </c>
       <c r="K440" s="3">
-        <v>6083</v>
+        <v>6082.5159999999996</v>
       </c>
       <c r="L440" s="3">
-        <v>52068</v>
+        <v>52068.383900000001</v>
       </c>
       <c r="M440" s="3">
         <v>0</v>
       </c>
       <c r="N440" s="3">
-        <v>0</v>
+        <v>119498.1122</v>
       </c>
       <c r="O440" s="3">
-        <v>0</v>
+        <v>14367.120999999999</v>
       </c>
       <c r="P440" s="3">
-        <v>0</v>
+        <v>4598.6350000000002</v>
       </c>
       <c r="Q440" s="3">
-        <v>88666</v>
+        <v>88665.524984000003</v>
       </c>
       <c r="R440" s="3">
         <v>98521</v>
@@ -37173,7 +37161,7 @@
         <v>4449</v>
       </c>
       <c r="X440" s="3">
-        <v>0</v>
+        <v>9967.6632100000006</v>
       </c>
       <c r="Y440" s="3">
         <v>4190.8499000000002</v>
@@ -37182,7 +37170,7 @@
         <v>9360.5</v>
       </c>
       <c r="AA440" s="3">
-        <v>0</v>
+        <v>303.20999399999999</v>
       </c>
     </row>
   </sheetData>

--- a/inst/extdata/generation-consumption-utilization-capacity.xlsx
+++ b/inst/extdata/generation-consumption-utilization-capacity.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wind\Desktop\automation\excel_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83945F04-FA61-49D7-BB5A-F340DBF01BE6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF5AE3DC-AFA2-4427-B9EE-C3F4BB9722FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="95">
   <si>
     <t>Country</t>
   </si>
@@ -339,6 +339,9 @@
   </si>
   <si>
     <t>2025-01-24</t>
+  </si>
+  <si>
+    <t>2025-01-26</t>
   </si>
 </sst>
 </file>
@@ -1405,25 +1408,25 @@
         <v>72</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="I10" s="7" t="s">
         <v>93</v>
@@ -1471,7 +1474,7 @@
         <v>81</v>
       </c>
       <c r="X10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Y10" s="7" t="s">
         <v>84</v>
@@ -1480,7 +1483,7 @@
         <v>84</v>
       </c>
       <c r="AA10" s="7" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" spans="1:27">
